--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,9 @@
     <t>['23', '32', '46', '74']</t>
   </si>
   <si>
+    <t>['80', '90+3']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -452,6 +455,9 @@
   </si>
   <si>
     <t>['11', '55', '64', '81']</t>
+  </si>
+  <si>
+    <t>['22', '26']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1278,7 +1284,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1484,7 +1490,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1896,7 +1902,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2308,7 +2314,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2514,7 +2520,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2720,7 +2726,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2801,7 +2807,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2926,7 +2932,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3004,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3132,7 +3138,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3338,7 +3344,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3544,7 +3550,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3750,7 +3756,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -3956,7 +3962,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4368,7 +4374,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4574,7 +4580,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4986,7 +4992,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5192,7 +5198,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6222,7 +6228,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6428,7 +6434,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6509,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -6634,7 +6640,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6840,7 +6846,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>3.45</v>
@@ -7046,7 +7052,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7252,7 +7258,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7664,7 +7670,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7870,7 +7876,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8076,7 +8082,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8282,7 +8288,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8360,7 +8366,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -8488,7 +8494,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8694,7 +8700,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8900,7 +8906,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9057,6 +9063,212 @@
       </c>
       <c r="BP40">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7326935</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45380.29166666666</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>117</v>
+      </c>
+      <c r="P41" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q41">
+        <v>3.4</v>
+      </c>
+      <c r="R41">
+        <v>2.05</v>
+      </c>
+      <c r="S41">
+        <v>3.4</v>
+      </c>
+      <c r="T41">
+        <v>1.5</v>
+      </c>
+      <c r="U41">
+        <v>2.5</v>
+      </c>
+      <c r="V41">
+        <v>3.4</v>
+      </c>
+      <c r="W41">
+        <v>1.3</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+      <c r="Y41">
+        <v>1.06</v>
+      </c>
+      <c r="Z41">
+        <v>2.6</v>
+      </c>
+      <c r="AA41">
+        <v>3.1</v>
+      </c>
+      <c r="AB41">
+        <v>2.45</v>
+      </c>
+      <c r="AC41">
+        <v>1.07</v>
+      </c>
+      <c r="AD41">
+        <v>8</v>
+      </c>
+      <c r="AE41">
+        <v>1.38</v>
+      </c>
+      <c r="AF41">
+        <v>2.9</v>
+      </c>
+      <c r="AG41">
+        <v>2.1</v>
+      </c>
+      <c r="AH41">
+        <v>1.6</v>
+      </c>
+      <c r="AI41">
+        <v>1.95</v>
+      </c>
+      <c r="AJ41">
+        <v>1.8</v>
+      </c>
+      <c r="AK41">
+        <v>1.47</v>
+      </c>
+      <c r="AL41">
+        <v>1.28</v>
+      </c>
+      <c r="AM41">
+        <v>1.45</v>
+      </c>
+      <c r="AN41">
+        <v>0.5</v>
+      </c>
+      <c r="AO41">
+        <v>2</v>
+      </c>
+      <c r="AP41">
+        <v>0.67</v>
+      </c>
+      <c r="AQ41">
+        <v>1.67</v>
+      </c>
+      <c r="AR41">
+        <v>1.49</v>
+      </c>
+      <c r="AS41">
+        <v>1.24</v>
+      </c>
+      <c r="AT41">
+        <v>2.73</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>6</v>
+      </c>
+      <c r="AW41">
+        <v>6</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>12</v>
+      </c>
+      <c r="BA41">
+        <v>6</v>
+      </c>
+      <c r="BB41">
+        <v>9</v>
+      </c>
+      <c r="BC41">
+        <v>15</v>
+      </c>
+      <c r="BD41">
+        <v>1.91</v>
+      </c>
+      <c r="BE41">
+        <v>8</v>
+      </c>
+      <c r="BF41">
+        <v>2.2</v>
+      </c>
+      <c r="BG41">
+        <v>1.3</v>
+      </c>
+      <c r="BH41">
+        <v>3.3</v>
+      </c>
+      <c r="BI41">
+        <v>1.53</v>
+      </c>
+      <c r="BJ41">
+        <v>2.4</v>
+      </c>
+      <c r="BK41">
+        <v>1.95</v>
+      </c>
+      <c r="BL41">
+        <v>1.85</v>
+      </c>
+      <c r="BM41">
+        <v>2.4</v>
+      </c>
+      <c r="BN41">
+        <v>1.53</v>
+      </c>
+      <c r="BO41">
+        <v>3.1</v>
+      </c>
+      <c r="BP41">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,33 @@
     <t>['80', '90+3']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['8', '24', '43', '49', '72', '90+5']</t>
+  </si>
+  <si>
+    <t>['34', '83', '90+2']</t>
+  </si>
+  <si>
+    <t>['65', '73']</t>
+  </si>
+  <si>
+    <t>['5', '54', '57']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['77', '90+2']</t>
+  </si>
+  <si>
+    <t>['60', '82']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -458,6 +485,24 @@
   </si>
   <si>
     <t>['22', '26']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1284,7 +1329,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1362,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>1.5</v>
@@ -1490,7 +1535,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1777,7 +1822,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1902,7 +1947,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2186,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2314,7 +2359,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2520,7 +2565,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2598,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2726,7 +2771,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2932,7 +2977,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3013,7 +3058,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3138,7 +3183,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3219,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3344,7 +3389,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3422,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3550,7 +3595,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3628,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3756,7 +3801,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -3834,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>3</v>
@@ -3962,7 +4007,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4043,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4249,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4374,7 +4419,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4452,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4580,7 +4625,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4992,7 +5037,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5070,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5198,7 +5243,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5279,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -5482,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5688,7 +5733,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -5894,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -6103,7 +6148,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>0.92</v>
@@ -6228,7 +6273,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6434,7 +6479,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6512,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.67</v>
@@ -6640,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6718,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -6846,7 +6891,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>3.45</v>
@@ -7052,7 +7097,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7133,7 +7178,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -7258,7 +7303,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7542,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7670,7 +7715,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7876,7 +7921,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7957,7 +8002,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8082,7 +8127,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8288,7 +8333,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8494,7 +8539,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8575,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -8700,7 +8745,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8778,7 +8823,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -8906,7 +8951,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9112,7 +9157,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9269,6 +9314,1860 @@
       </c>
       <c r="BP41">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7326936</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45381.04166666666</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>118</v>
+      </c>
+      <c r="P42" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q42">
+        <v>2.1</v>
+      </c>
+      <c r="R42">
+        <v>2.25</v>
+      </c>
+      <c r="S42">
+        <v>6.5</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42">
+        <v>2.75</v>
+      </c>
+      <c r="V42">
+        <v>2.75</v>
+      </c>
+      <c r="W42">
+        <v>1.4</v>
+      </c>
+      <c r="X42">
+        <v>8</v>
+      </c>
+      <c r="Y42">
+        <v>1.08</v>
+      </c>
+      <c r="Z42">
+        <v>1.56</v>
+      </c>
+      <c r="AA42">
+        <v>3.68</v>
+      </c>
+      <c r="AB42">
+        <v>5.38</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>9</v>
+      </c>
+      <c r="AE42">
+        <v>1.3</v>
+      </c>
+      <c r="AF42">
+        <v>3.3</v>
+      </c>
+      <c r="AG42">
+        <v>1.95</v>
+      </c>
+      <c r="AH42">
+        <v>1.76</v>
+      </c>
+      <c r="AI42">
+        <v>2</v>
+      </c>
+      <c r="AJ42">
+        <v>1.75</v>
+      </c>
+      <c r="AK42">
+        <v>1.07</v>
+      </c>
+      <c r="AL42">
+        <v>1.18</v>
+      </c>
+      <c r="AM42">
+        <v>2.5</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>2.33</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>2.57</v>
+      </c>
+      <c r="AS42">
+        <v>1.77</v>
+      </c>
+      <c r="AT42">
+        <v>4.34</v>
+      </c>
+      <c r="AU42">
+        <v>7</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>9</v>
+      </c>
+      <c r="AX42">
+        <v>2</v>
+      </c>
+      <c r="AY42">
+        <v>16</v>
+      </c>
+      <c r="AZ42">
+        <v>5</v>
+      </c>
+      <c r="BA42">
+        <v>8</v>
+      </c>
+      <c r="BB42">
+        <v>3</v>
+      </c>
+      <c r="BC42">
+        <v>11</v>
+      </c>
+      <c r="BD42">
+        <v>1.22</v>
+      </c>
+      <c r="BE42">
+        <v>10</v>
+      </c>
+      <c r="BF42">
+        <v>5</v>
+      </c>
+      <c r="BG42">
+        <v>1.3</v>
+      </c>
+      <c r="BH42">
+        <v>3.08</v>
+      </c>
+      <c r="BI42">
+        <v>1.57</v>
+      </c>
+      <c r="BJ42">
+        <v>2.25</v>
+      </c>
+      <c r="BK42">
+        <v>2</v>
+      </c>
+      <c r="BL42">
+        <v>1.8</v>
+      </c>
+      <c r="BM42">
+        <v>2.58</v>
+      </c>
+      <c r="BN42">
+        <v>1.44</v>
+      </c>
+      <c r="BO42">
+        <v>3.48</v>
+      </c>
+      <c r="BP42">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7326937</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45381.08333333334</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q43">
+        <v>3.25</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
+        <v>3.75</v>
+      </c>
+      <c r="T43">
+        <v>1.53</v>
+      </c>
+      <c r="U43">
+        <v>2.38</v>
+      </c>
+      <c r="V43">
+        <v>3.75</v>
+      </c>
+      <c r="W43">
+        <v>1.25</v>
+      </c>
+      <c r="X43">
+        <v>11</v>
+      </c>
+      <c r="Y43">
+        <v>1.05</v>
+      </c>
+      <c r="Z43">
+        <v>2.48</v>
+      </c>
+      <c r="AA43">
+        <v>3.1</v>
+      </c>
+      <c r="AB43">
+        <v>3.1</v>
+      </c>
+      <c r="AC43">
+        <v>1.09</v>
+      </c>
+      <c r="AD43">
+        <v>7</v>
+      </c>
+      <c r="AE43">
+        <v>1.53</v>
+      </c>
+      <c r="AF43">
+        <v>2.5</v>
+      </c>
+      <c r="AG43">
+        <v>2.55</v>
+      </c>
+      <c r="AH43">
+        <v>1.49</v>
+      </c>
+      <c r="AI43">
+        <v>2.05</v>
+      </c>
+      <c r="AJ43">
+        <v>1.7</v>
+      </c>
+      <c r="AK43">
+        <v>1.38</v>
+      </c>
+      <c r="AL43">
+        <v>1.3</v>
+      </c>
+      <c r="AM43">
+        <v>1.53</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <v>2</v>
+      </c>
+      <c r="AQ43">
+        <v>2.33</v>
+      </c>
+      <c r="AR43">
+        <v>1.6</v>
+      </c>
+      <c r="AS43">
+        <v>1.13</v>
+      </c>
+      <c r="AT43">
+        <v>2.73</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>12</v>
+      </c>
+      <c r="AW43">
+        <v>5</v>
+      </c>
+      <c r="AX43">
+        <v>7</v>
+      </c>
+      <c r="AY43">
+        <v>8</v>
+      </c>
+      <c r="AZ43">
+        <v>19</v>
+      </c>
+      <c r="BA43">
+        <v>4</v>
+      </c>
+      <c r="BB43">
+        <v>10</v>
+      </c>
+      <c r="BC43">
+        <v>14</v>
+      </c>
+      <c r="BD43">
+        <v>1.83</v>
+      </c>
+      <c r="BE43">
+        <v>8</v>
+      </c>
+      <c r="BF43">
+        <v>2.25</v>
+      </c>
+      <c r="BG43">
+        <v>1.24</v>
+      </c>
+      <c r="BH43">
+        <v>3.48</v>
+      </c>
+      <c r="BI43">
+        <v>1.53</v>
+      </c>
+      <c r="BJ43">
+        <v>2.46</v>
+      </c>
+      <c r="BK43">
+        <v>1.9</v>
+      </c>
+      <c r="BL43">
+        <v>1.9</v>
+      </c>
+      <c r="BM43">
+        <v>2.31</v>
+      </c>
+      <c r="BN43">
+        <v>1.59</v>
+      </c>
+      <c r="BO43">
+        <v>3.14</v>
+      </c>
+      <c r="BP43">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7326938</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45381.08333333334</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>7</v>
+      </c>
+      <c r="O44" t="s">
+        <v>120</v>
+      </c>
+      <c r="P44" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q44">
+        <v>2.2</v>
+      </c>
+      <c r="R44">
+        <v>2.3</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>3.25</v>
+      </c>
+      <c r="V44">
+        <v>2.63</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>7</v>
+      </c>
+      <c r="Y44">
+        <v>1.1</v>
+      </c>
+      <c r="Z44">
+        <v>1.63</v>
+      </c>
+      <c r="AA44">
+        <v>4.15</v>
+      </c>
+      <c r="AB44">
+        <v>5.1</v>
+      </c>
+      <c r="AC44">
+        <v>1.04</v>
+      </c>
+      <c r="AD44">
+        <v>10</v>
+      </c>
+      <c r="AE44">
+        <v>1.22</v>
+      </c>
+      <c r="AF44">
+        <v>4</v>
+      </c>
+      <c r="AG44">
+        <v>1.75</v>
+      </c>
+      <c r="AH44">
+        <v>2.02</v>
+      </c>
+      <c r="AI44">
+        <v>1.8</v>
+      </c>
+      <c r="AJ44">
+        <v>1.95</v>
+      </c>
+      <c r="AK44">
+        <v>1.12</v>
+      </c>
+      <c r="AL44">
+        <v>1.18</v>
+      </c>
+      <c r="AM44">
+        <v>2.25</v>
+      </c>
+      <c r="AN44">
+        <v>0.5</v>
+      </c>
+      <c r="AO44">
+        <v>0.5</v>
+      </c>
+      <c r="AP44">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44">
+        <v>0.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.25</v>
+      </c>
+      <c r="AS44">
+        <v>1.19</v>
+      </c>
+      <c r="AT44">
+        <v>2.44</v>
+      </c>
+      <c r="AU44">
+        <v>13</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>11</v>
+      </c>
+      <c r="AX44">
+        <v>5</v>
+      </c>
+      <c r="AY44">
+        <v>24</v>
+      </c>
+      <c r="AZ44">
+        <v>5</v>
+      </c>
+      <c r="BA44">
+        <v>6</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <v>7</v>
+      </c>
+      <c r="BD44">
+        <v>1.73</v>
+      </c>
+      <c r="BE44">
+        <v>8</v>
+      </c>
+      <c r="BF44">
+        <v>2.4</v>
+      </c>
+      <c r="BG44">
+        <v>1.23</v>
+      </c>
+      <c r="BH44">
+        <v>3.56</v>
+      </c>
+      <c r="BI44">
+        <v>1.45</v>
+      </c>
+      <c r="BJ44">
+        <v>2.55</v>
+      </c>
+      <c r="BK44">
+        <v>1.92</v>
+      </c>
+      <c r="BL44">
+        <v>1.88</v>
+      </c>
+      <c r="BM44">
+        <v>2.24</v>
+      </c>
+      <c r="BN44">
+        <v>1.65</v>
+      </c>
+      <c r="BO44">
+        <v>2.98</v>
+      </c>
+      <c r="BP44">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7326942</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45381.125</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q45">
+        <v>2.5</v>
+      </c>
+      <c r="R45">
+        <v>2.25</v>
+      </c>
+      <c r="S45">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <v>1.36</v>
+      </c>
+      <c r="U45">
+        <v>3</v>
+      </c>
+      <c r="V45">
+        <v>2.63</v>
+      </c>
+      <c r="W45">
+        <v>1.44</v>
+      </c>
+      <c r="X45">
+        <v>7</v>
+      </c>
+      <c r="Y45">
+        <v>1.1</v>
+      </c>
+      <c r="Z45">
+        <v>1.95</v>
+      </c>
+      <c r="AA45">
+        <v>3.8</v>
+      </c>
+      <c r="AB45">
+        <v>3.65</v>
+      </c>
+      <c r="AC45">
+        <v>1.05</v>
+      </c>
+      <c r="AD45">
+        <v>9.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.25</v>
+      </c>
+      <c r="AF45">
+        <v>3.75</v>
+      </c>
+      <c r="AG45">
+        <v>1.72</v>
+      </c>
+      <c r="AH45">
+        <v>2.07</v>
+      </c>
+      <c r="AI45">
+        <v>1.67</v>
+      </c>
+      <c r="AJ45">
+        <v>2.1</v>
+      </c>
+      <c r="AK45">
+        <v>1.22</v>
+      </c>
+      <c r="AL45">
+        <v>1.22</v>
+      </c>
+      <c r="AM45">
+        <v>1.85</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>2</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>1.33</v>
+      </c>
+      <c r="AR45">
+        <v>1.96</v>
+      </c>
+      <c r="AS45">
+        <v>1.07</v>
+      </c>
+      <c r="AT45">
+        <v>3.03</v>
+      </c>
+      <c r="AU45">
+        <v>7</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>8</v>
+      </c>
+      <c r="AX45">
+        <v>3</v>
+      </c>
+      <c r="AY45">
+        <v>15</v>
+      </c>
+      <c r="AZ45">
+        <v>5</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>9</v>
+      </c>
+      <c r="BD45">
+        <v>1.67</v>
+      </c>
+      <c r="BE45">
+        <v>8</v>
+      </c>
+      <c r="BF45">
+        <v>2.6</v>
+      </c>
+      <c r="BG45">
+        <v>1.31</v>
+      </c>
+      <c r="BH45">
+        <v>3.04</v>
+      </c>
+      <c r="BI45">
+        <v>1.63</v>
+      </c>
+      <c r="BJ45">
+        <v>2.25</v>
+      </c>
+      <c r="BK45">
+        <v>2.01</v>
+      </c>
+      <c r="BL45">
+        <v>1.79</v>
+      </c>
+      <c r="BM45">
+        <v>2.62</v>
+      </c>
+      <c r="BN45">
+        <v>1.43</v>
+      </c>
+      <c r="BO45">
+        <v>3.56</v>
+      </c>
+      <c r="BP45">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7326940</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45381.125</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>122</v>
+      </c>
+      <c r="P46" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q46">
+        <v>2.63</v>
+      </c>
+      <c r="R46">
+        <v>1.95</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>1.57</v>
+      </c>
+      <c r="U46">
+        <v>2.25</v>
+      </c>
+      <c r="V46">
+        <v>3.75</v>
+      </c>
+      <c r="W46">
+        <v>1.25</v>
+      </c>
+      <c r="X46">
+        <v>11</v>
+      </c>
+      <c r="Y46">
+        <v>1.05</v>
+      </c>
+      <c r="Z46">
+        <v>1.87</v>
+      </c>
+      <c r="AA46">
+        <v>3.25</v>
+      </c>
+      <c r="AB46">
+        <v>4.85</v>
+      </c>
+      <c r="AC46">
+        <v>1.1</v>
+      </c>
+      <c r="AD46">
+        <v>7</v>
+      </c>
+      <c r="AE46">
+        <v>1.56</v>
+      </c>
+      <c r="AF46">
+        <v>2.43</v>
+      </c>
+      <c r="AG46">
+        <v>2.55</v>
+      </c>
+      <c r="AH46">
+        <v>1.48</v>
+      </c>
+      <c r="AI46">
+        <v>2.2</v>
+      </c>
+      <c r="AJ46">
+        <v>1.62</v>
+      </c>
+      <c r="AK46">
+        <v>1.16</v>
+      </c>
+      <c r="AL46">
+        <v>1.28</v>
+      </c>
+      <c r="AM46">
+        <v>1.87</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>3</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>1.5</v>
+      </c>
+      <c r="AR46">
+        <v>1.39</v>
+      </c>
+      <c r="AS46">
+        <v>1.09</v>
+      </c>
+      <c r="AT46">
+        <v>2.48</v>
+      </c>
+      <c r="AU46">
+        <v>8</v>
+      </c>
+      <c r="AV46">
+        <v>5</v>
+      </c>
+      <c r="AW46">
+        <v>8</v>
+      </c>
+      <c r="AX46">
+        <v>1</v>
+      </c>
+      <c r="AY46">
+        <v>16</v>
+      </c>
+      <c r="AZ46">
+        <v>6</v>
+      </c>
+      <c r="BA46">
+        <v>7</v>
+      </c>
+      <c r="BB46">
+        <v>3</v>
+      </c>
+      <c r="BC46">
+        <v>10</v>
+      </c>
+      <c r="BD46">
+        <v>1.53</v>
+      </c>
+      <c r="BE46">
+        <v>8</v>
+      </c>
+      <c r="BF46">
+        <v>2.88</v>
+      </c>
+      <c r="BG46">
+        <v>1.31</v>
+      </c>
+      <c r="BH46">
+        <v>3.04</v>
+      </c>
+      <c r="BI46">
+        <v>1.65</v>
+      </c>
+      <c r="BJ46">
+        <v>2.21</v>
+      </c>
+      <c r="BK46">
+        <v>2</v>
+      </c>
+      <c r="BL46">
+        <v>1.8</v>
+      </c>
+      <c r="BM46">
+        <v>2.62</v>
+      </c>
+      <c r="BN46">
+        <v>1.43</v>
+      </c>
+      <c r="BO46">
+        <v>3.56</v>
+      </c>
+      <c r="BP46">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7326941</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45381.125</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>123</v>
+      </c>
+      <c r="P47" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q47">
+        <v>2.38</v>
+      </c>
+      <c r="R47">
+        <v>2.2</v>
+      </c>
+      <c r="S47">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47">
+        <v>2.75</v>
+      </c>
+      <c r="V47">
+        <v>3</v>
+      </c>
+      <c r="W47">
+        <v>1.36</v>
+      </c>
+      <c r="X47">
+        <v>8</v>
+      </c>
+      <c r="Y47">
+        <v>1.08</v>
+      </c>
+      <c r="Z47">
+        <v>1.83</v>
+      </c>
+      <c r="AA47">
+        <v>3.75</v>
+      </c>
+      <c r="AB47">
+        <v>4.2</v>
+      </c>
+      <c r="AC47">
+        <v>1.06</v>
+      </c>
+      <c r="AD47">
+        <v>8.5</v>
+      </c>
+      <c r="AE47">
+        <v>1.3</v>
+      </c>
+      <c r="AF47">
+        <v>3.3</v>
+      </c>
+      <c r="AG47">
+        <v>2.05</v>
+      </c>
+      <c r="AH47">
+        <v>1.83</v>
+      </c>
+      <c r="AI47">
+        <v>1.95</v>
+      </c>
+      <c r="AJ47">
+        <v>1.8</v>
+      </c>
+      <c r="AK47">
+        <v>1.15</v>
+      </c>
+      <c r="AL47">
+        <v>1.22</v>
+      </c>
+      <c r="AM47">
+        <v>2.05</v>
+      </c>
+      <c r="AN47">
+        <v>2</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>2.33</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1.43</v>
+      </c>
+      <c r="AS47">
+        <v>0.85</v>
+      </c>
+      <c r="AT47">
+        <v>2.28</v>
+      </c>
+      <c r="AU47">
+        <v>7</v>
+      </c>
+      <c r="AV47">
+        <v>5</v>
+      </c>
+      <c r="AW47">
+        <v>6</v>
+      </c>
+      <c r="AX47">
+        <v>5</v>
+      </c>
+      <c r="AY47">
+        <v>13</v>
+      </c>
+      <c r="AZ47">
+        <v>10</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>1</v>
+      </c>
+      <c r="BC47">
+        <v>1</v>
+      </c>
+      <c r="BD47">
+        <v>1.67</v>
+      </c>
+      <c r="BE47">
+        <v>8</v>
+      </c>
+      <c r="BF47">
+        <v>2.62</v>
+      </c>
+      <c r="BG47">
+        <v>1.35</v>
+      </c>
+      <c r="BH47">
+        <v>2.84</v>
+      </c>
+      <c r="BI47">
+        <v>1.65</v>
+      </c>
+      <c r="BJ47">
+        <v>2.11</v>
+      </c>
+      <c r="BK47">
+        <v>2.11</v>
+      </c>
+      <c r="BL47">
+        <v>1.68</v>
+      </c>
+      <c r="BM47">
+        <v>2.76</v>
+      </c>
+      <c r="BN47">
+        <v>1.39</v>
+      </c>
+      <c r="BO47">
+        <v>3.74</v>
+      </c>
+      <c r="BP47">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7326939</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45381.125</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>124</v>
+      </c>
+      <c r="P48" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q48">
+        <v>2.25</v>
+      </c>
+      <c r="R48">
+        <v>2.25</v>
+      </c>
+      <c r="S48">
+        <v>5.5</v>
+      </c>
+      <c r="T48">
+        <v>1.36</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>2.75</v>
+      </c>
+      <c r="W48">
+        <v>1.4</v>
+      </c>
+      <c r="X48">
+        <v>8</v>
+      </c>
+      <c r="Y48">
+        <v>1.08</v>
+      </c>
+      <c r="Z48">
+        <v>1.67</v>
+      </c>
+      <c r="AA48">
+        <v>4.05</v>
+      </c>
+      <c r="AB48">
+        <v>4.9</v>
+      </c>
+      <c r="AC48">
+        <v>1.05</v>
+      </c>
+      <c r="AD48">
+        <v>9.5</v>
+      </c>
+      <c r="AE48">
+        <v>1.28</v>
+      </c>
+      <c r="AF48">
+        <v>3.5</v>
+      </c>
+      <c r="AG48">
+        <v>1.92</v>
+      </c>
+      <c r="AH48">
+        <v>1.96</v>
+      </c>
+      <c r="AI48">
+        <v>1.95</v>
+      </c>
+      <c r="AJ48">
+        <v>1.8</v>
+      </c>
+      <c r="AK48">
+        <v>1.12</v>
+      </c>
+      <c r="AL48">
+        <v>1.2</v>
+      </c>
+      <c r="AM48">
+        <v>2.2</v>
+      </c>
+      <c r="AN48">
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <v>1.5</v>
+      </c>
+      <c r="AP48">
+        <v>2.33</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1.19</v>
+      </c>
+      <c r="AS48">
+        <v>1.38</v>
+      </c>
+      <c r="AT48">
+        <v>2.57</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>8</v>
+      </c>
+      <c r="AX48">
+        <v>9</v>
+      </c>
+      <c r="AY48">
+        <v>12</v>
+      </c>
+      <c r="AZ48">
+        <v>13</v>
+      </c>
+      <c r="BA48">
+        <v>5</v>
+      </c>
+      <c r="BB48">
+        <v>4</v>
+      </c>
+      <c r="BC48">
+        <v>9</v>
+      </c>
+      <c r="BD48">
+        <v>1.73</v>
+      </c>
+      <c r="BE48">
+        <v>8</v>
+      </c>
+      <c r="BF48">
+        <v>2.5</v>
+      </c>
+      <c r="BG48">
+        <v>1.22</v>
+      </c>
+      <c r="BH48">
+        <v>4</v>
+      </c>
+      <c r="BI48">
+        <v>1.42</v>
+      </c>
+      <c r="BJ48">
+        <v>2.75</v>
+      </c>
+      <c r="BK48">
+        <v>1.68</v>
+      </c>
+      <c r="BL48">
+        <v>2.1</v>
+      </c>
+      <c r="BM48">
+        <v>2.1</v>
+      </c>
+      <c r="BN48">
+        <v>1.68</v>
+      </c>
+      <c r="BO48">
+        <v>2.75</v>
+      </c>
+      <c r="BP48">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7326943</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45381.16666666666</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>125</v>
+      </c>
+      <c r="P49" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q49">
+        <v>3.75</v>
+      </c>
+      <c r="R49">
+        <v>2.1</v>
+      </c>
+      <c r="S49">
+        <v>2.88</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>1.36</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>3.25</v>
+      </c>
+      <c r="AA49">
+        <v>3.45</v>
+      </c>
+      <c r="AB49">
+        <v>2.21</v>
+      </c>
+      <c r="AC49">
+        <v>1.05</v>
+      </c>
+      <c r="AD49">
+        <v>9</v>
+      </c>
+      <c r="AE49">
+        <v>1.3</v>
+      </c>
+      <c r="AF49">
+        <v>3.3</v>
+      </c>
+      <c r="AG49">
+        <v>2</v>
+      </c>
+      <c r="AH49">
+        <v>1.88</v>
+      </c>
+      <c r="AI49">
+        <v>1.75</v>
+      </c>
+      <c r="AJ49">
+        <v>2</v>
+      </c>
+      <c r="AK49">
+        <v>1.66</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
+        <v>1.35</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>3</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>2</v>
+      </c>
+      <c r="AR49">
+        <v>0.75</v>
+      </c>
+      <c r="AS49">
+        <v>1.52</v>
+      </c>
+      <c r="AT49">
+        <v>2.27</v>
+      </c>
+      <c r="AU49">
+        <v>6</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>6</v>
+      </c>
+      <c r="AX49">
+        <v>7</v>
+      </c>
+      <c r="AY49">
+        <v>12</v>
+      </c>
+      <c r="AZ49">
+        <v>13</v>
+      </c>
+      <c r="BA49">
+        <v>2</v>
+      </c>
+      <c r="BB49">
+        <v>9</v>
+      </c>
+      <c r="BC49">
+        <v>11</v>
+      </c>
+      <c r="BD49">
+        <v>2.05</v>
+      </c>
+      <c r="BE49">
+        <v>8</v>
+      </c>
+      <c r="BF49">
+        <v>1.95</v>
+      </c>
+      <c r="BG49">
+        <v>1.2</v>
+      </c>
+      <c r="BH49">
+        <v>3.84</v>
+      </c>
+      <c r="BI49">
+        <v>1.41</v>
+      </c>
+      <c r="BJ49">
+        <v>2.69</v>
+      </c>
+      <c r="BK49">
+        <v>1.73</v>
+      </c>
+      <c r="BL49">
+        <v>2.04</v>
+      </c>
+      <c r="BM49">
+        <v>2.17</v>
+      </c>
+      <c r="BN49">
+        <v>1.61</v>
+      </c>
+      <c r="BO49">
+        <v>2.84</v>
+      </c>
+      <c r="BP49">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7326944</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45381.16666666666</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>126</v>
+      </c>
+      <c r="P50" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q50">
+        <v>2.75</v>
+      </c>
+      <c r="R50">
+        <v>2.05</v>
+      </c>
+      <c r="S50">
+        <v>4.33</v>
+      </c>
+      <c r="T50">
+        <v>1.44</v>
+      </c>
+      <c r="U50">
+        <v>2.63</v>
+      </c>
+      <c r="V50">
+        <v>3.25</v>
+      </c>
+      <c r="W50">
+        <v>1.33</v>
+      </c>
+      <c r="X50">
+        <v>10</v>
+      </c>
+      <c r="Y50">
+        <v>1.06</v>
+      </c>
+      <c r="Z50">
+        <v>2.04</v>
+      </c>
+      <c r="AA50">
+        <v>3.4</v>
+      </c>
+      <c r="AB50">
+        <v>3.75</v>
+      </c>
+      <c r="AC50">
+        <v>1.07</v>
+      </c>
+      <c r="AD50">
+        <v>8</v>
+      </c>
+      <c r="AE50">
+        <v>1.38</v>
+      </c>
+      <c r="AF50">
+        <v>2.9</v>
+      </c>
+      <c r="AG50">
+        <v>2.2</v>
+      </c>
+      <c r="AH50">
+        <v>1.64</v>
+      </c>
+      <c r="AI50">
+        <v>1.95</v>
+      </c>
+      <c r="AJ50">
+        <v>1.8</v>
+      </c>
+      <c r="AK50">
+        <v>1.25</v>
+      </c>
+      <c r="AL50">
+        <v>1.25</v>
+      </c>
+      <c r="AM50">
+        <v>1.75</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
+        <v>2.33</v>
+      </c>
+      <c r="AQ50">
+        <v>1.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.4</v>
+      </c>
+      <c r="AS50">
+        <v>1.51</v>
+      </c>
+      <c r="AT50">
+        <v>2.91</v>
+      </c>
+      <c r="AU50">
+        <v>5</v>
+      </c>
+      <c r="AV50">
+        <v>6</v>
+      </c>
+      <c r="AW50">
+        <v>6</v>
+      </c>
+      <c r="AX50">
+        <v>4</v>
+      </c>
+      <c r="AY50">
+        <v>11</v>
+      </c>
+      <c r="AZ50">
+        <v>10</v>
+      </c>
+      <c r="BA50">
+        <v>5</v>
+      </c>
+      <c r="BB50">
+        <v>11</v>
+      </c>
+      <c r="BC50">
+        <v>16</v>
+      </c>
+      <c r="BD50">
+        <v>1.73</v>
+      </c>
+      <c r="BE50">
+        <v>8</v>
+      </c>
+      <c r="BF50">
+        <v>2.4</v>
+      </c>
+      <c r="BG50">
+        <v>1.25</v>
+      </c>
+      <c r="BH50">
+        <v>3.75</v>
+      </c>
+      <c r="BI50">
+        <v>1.36</v>
+      </c>
+      <c r="BJ50">
+        <v>2.79</v>
+      </c>
+      <c r="BK50">
+        <v>1.8</v>
+      </c>
+      <c r="BL50">
+        <v>2</v>
+      </c>
+      <c r="BM50">
+        <v>2.06</v>
+      </c>
+      <c r="BN50">
+        <v>1.76</v>
+      </c>
+      <c r="BO50">
+        <v>2.69</v>
+      </c>
+      <c r="BP50">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,24 @@
     <t>['60', '82']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['75', '79']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['50', '58']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -427,9 +445,6 @@
     <t>['83']</t>
   </si>
   <si>
-    <t>['21']</t>
-  </si>
-  <si>
     <t>['15', '82']</t>
   </si>
   <si>
@@ -454,9 +469,6 @@
     <t>['53']</t>
   </si>
   <si>
-    <t>['30']</t>
-  </si>
-  <si>
     <t>['28', '32', '57']</t>
   </si>
   <si>
@@ -490,9 +502,6 @@
     <t>['76']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -503,6 +512,18 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['75', '86']</t>
+  </si>
+  <si>
+    <t>['31', '55']</t>
+  </si>
+  <si>
+    <t>['55', '90']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1225,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1329,7 +1350,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1410,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1535,7 +1556,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1613,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1819,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
         <v>0.33</v>
@@ -1947,7 +1968,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2028,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2231,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2359,7 +2380,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2437,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2565,7 +2586,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2771,7 +2792,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2849,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2977,7 +2998,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3183,7 +3204,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3261,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3389,7 +3410,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3595,7 +3616,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3801,7 +3822,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4007,7 +4028,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4419,7 +4440,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4500,7 +4521,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4625,7 +4646,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4703,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4909,10 +4930,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5037,7 +5058,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5118,7 +5139,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5243,7 +5264,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5321,7 +5342,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>2.33</v>
@@ -5530,7 +5551,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5733,10 +5754,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6145,7 +6166,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6273,7 +6294,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6351,10 +6372,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -6479,7 +6500,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6560,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -6685,7 +6706,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6766,7 +6787,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -6891,7 +6912,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>3.45</v>
@@ -6972,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7097,7 +7118,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7175,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7303,7 +7324,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7590,7 +7611,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7715,7 +7736,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7796,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -7921,7 +7942,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7999,7 +8020,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8127,7 +8148,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8205,10 +8226,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8333,7 +8354,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8414,7 +8435,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -8539,7 +8560,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8745,7 +8766,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8826,7 +8847,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.13</v>
@@ -8951,7 +8972,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9029,10 +9050,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>0.99</v>
@@ -9157,7 +9178,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9238,7 +9259,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9363,7 +9384,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9569,7 +9590,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="Q43">
         <v>3.25</v>
@@ -9775,7 +9796,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10187,7 +10208,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10393,7 +10414,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10471,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -10805,7 +10826,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11168,6 +11189,2066 @@
       </c>
       <c r="BP50">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7326951</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>127</v>
+      </c>
+      <c r="P51" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q51">
+        <v>4.2</v>
+      </c>
+      <c r="R51">
+        <v>1.93</v>
+      </c>
+      <c r="S51">
+        <v>3.44</v>
+      </c>
+      <c r="T51">
+        <v>1.63</v>
+      </c>
+      <c r="U51">
+        <v>2.32</v>
+      </c>
+      <c r="V51">
+        <v>3.82</v>
+      </c>
+      <c r="W51">
+        <v>1.24</v>
+      </c>
+      <c r="X51">
+        <v>11</v>
+      </c>
+      <c r="Y51">
+        <v>1.02</v>
+      </c>
+      <c r="Z51">
+        <v>2.84</v>
+      </c>
+      <c r="AA51">
+        <v>2.94</v>
+      </c>
+      <c r="AB51">
+        <v>2.27</v>
+      </c>
+      <c r="AC51">
+        <v>1.11</v>
+      </c>
+      <c r="AD51">
+        <v>5.45</v>
+      </c>
+      <c r="AE51">
+        <v>1.51</v>
+      </c>
+      <c r="AF51">
+        <v>2.4</v>
+      </c>
+      <c r="AG51">
+        <v>2.6</v>
+      </c>
+      <c r="AH51">
+        <v>1.43</v>
+      </c>
+      <c r="AI51">
+        <v>2.1</v>
+      </c>
+      <c r="AJ51">
+        <v>1.62</v>
+      </c>
+      <c r="AK51">
+        <v>1.45</v>
+      </c>
+      <c r="AL51">
+        <v>1.38</v>
+      </c>
+      <c r="AM51">
+        <v>1.35</v>
+      </c>
+      <c r="AN51">
+        <v>0.67</v>
+      </c>
+      <c r="AO51">
+        <v>1.5</v>
+      </c>
+      <c r="AP51">
+        <v>1.25</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>1.61</v>
+      </c>
+      <c r="AS51">
+        <v>1.29</v>
+      </c>
+      <c r="AT51">
+        <v>2.9</v>
+      </c>
+      <c r="AU51">
+        <v>5</v>
+      </c>
+      <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51">
+        <v>4</v>
+      </c>
+      <c r="AX51">
+        <v>6</v>
+      </c>
+      <c r="AY51">
+        <v>9</v>
+      </c>
+      <c r="AZ51">
+        <v>8</v>
+      </c>
+      <c r="BA51">
+        <v>9</v>
+      </c>
+      <c r="BB51">
+        <v>1</v>
+      </c>
+      <c r="BC51">
+        <v>10</v>
+      </c>
+      <c r="BD51">
+        <v>2.1</v>
+      </c>
+      <c r="BE51">
+        <v>7.5</v>
+      </c>
+      <c r="BF51">
+        <v>1.95</v>
+      </c>
+      <c r="BG51">
+        <v>1.29</v>
+      </c>
+      <c r="BH51">
+        <v>3.14</v>
+      </c>
+      <c r="BI51">
+        <v>1.56</v>
+      </c>
+      <c r="BJ51">
+        <v>2.27</v>
+      </c>
+      <c r="BK51">
+        <v>2</v>
+      </c>
+      <c r="BL51">
+        <v>1.8</v>
+      </c>
+      <c r="BM51">
+        <v>2.57</v>
+      </c>
+      <c r="BN51">
+        <v>1.44</v>
+      </c>
+      <c r="BO51">
+        <v>3.48</v>
+      </c>
+      <c r="BP51">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7326952</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>91</v>
+      </c>
+      <c r="P52" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q52">
+        <v>4.5</v>
+      </c>
+      <c r="R52">
+        <v>2.15</v>
+      </c>
+      <c r="S52">
+        <v>2.3</v>
+      </c>
+      <c r="T52">
+        <v>1.36</v>
+      </c>
+      <c r="U52">
+        <v>2.88</v>
+      </c>
+      <c r="V52">
+        <v>2.7</v>
+      </c>
+      <c r="W52">
+        <v>1.4</v>
+      </c>
+      <c r="X52">
+        <v>6.7</v>
+      </c>
+      <c r="Y52">
+        <v>1.09</v>
+      </c>
+      <c r="Z52">
+        <v>4.45</v>
+      </c>
+      <c r="AA52">
+        <v>3.9</v>
+      </c>
+      <c r="AB52">
+        <v>1.53</v>
+      </c>
+      <c r="AC52">
+        <v>1.04</v>
+      </c>
+      <c r="AD52">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AE52">
+        <v>1.26</v>
+      </c>
+      <c r="AF52">
+        <v>3.5</v>
+      </c>
+      <c r="AG52">
+        <v>1.73</v>
+      </c>
+      <c r="AH52">
+        <v>1.98</v>
+      </c>
+      <c r="AI52">
+        <v>1.75</v>
+      </c>
+      <c r="AJ52">
+        <v>1.93</v>
+      </c>
+      <c r="AK52">
+        <v>1.9</v>
+      </c>
+      <c r="AL52">
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <v>1.2</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>3</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>2.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.44</v>
+      </c>
+      <c r="AS52">
+        <v>1.61</v>
+      </c>
+      <c r="AT52">
+        <v>3.05</v>
+      </c>
+      <c r="AU52">
+        <v>6</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>6</v>
+      </c>
+      <c r="AX52">
+        <v>12</v>
+      </c>
+      <c r="AY52">
+        <v>12</v>
+      </c>
+      <c r="AZ52">
+        <v>14</v>
+      </c>
+      <c r="BA52">
+        <v>5</v>
+      </c>
+      <c r="BB52">
+        <v>12</v>
+      </c>
+      <c r="BC52">
+        <v>17</v>
+      </c>
+      <c r="BD52">
+        <v>2.38</v>
+      </c>
+      <c r="BE52">
+        <v>8</v>
+      </c>
+      <c r="BF52">
+        <v>1.73</v>
+      </c>
+      <c r="BG52">
+        <v>1.21</v>
+      </c>
+      <c r="BH52">
+        <v>3.74</v>
+      </c>
+      <c r="BI52">
+        <v>1.41</v>
+      </c>
+      <c r="BJ52">
+        <v>2.69</v>
+      </c>
+      <c r="BK52">
+        <v>1.73</v>
+      </c>
+      <c r="BL52">
+        <v>2.04</v>
+      </c>
+      <c r="BM52">
+        <v>2.17</v>
+      </c>
+      <c r="BN52">
+        <v>1.61</v>
+      </c>
+      <c r="BO52">
+        <v>2.84</v>
+      </c>
+      <c r="BP52">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7326949</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>88</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>128</v>
+      </c>
+      <c r="P53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q53">
+        <v>4.33</v>
+      </c>
+      <c r="R53">
+        <v>2.1</v>
+      </c>
+      <c r="S53">
+        <v>2.75</v>
+      </c>
+      <c r="T53">
+        <v>1.44</v>
+      </c>
+      <c r="U53">
+        <v>2.63</v>
+      </c>
+      <c r="V53">
+        <v>3.25</v>
+      </c>
+      <c r="W53">
+        <v>1.33</v>
+      </c>
+      <c r="X53">
+        <v>9</v>
+      </c>
+      <c r="Y53">
+        <v>1.07</v>
+      </c>
+      <c r="Z53">
+        <v>2.65</v>
+      </c>
+      <c r="AA53">
+        <v>3.1</v>
+      </c>
+      <c r="AB53">
+        <v>2.31</v>
+      </c>
+      <c r="AC53">
+        <v>1.06</v>
+      </c>
+      <c r="AD53">
+        <v>8.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.36</v>
+      </c>
+      <c r="AF53">
+        <v>3.1</v>
+      </c>
+      <c r="AG53">
+        <v>2.17</v>
+      </c>
+      <c r="AH53">
+        <v>1.61</v>
+      </c>
+      <c r="AI53">
+        <v>1.95</v>
+      </c>
+      <c r="AJ53">
+        <v>1.8</v>
+      </c>
+      <c r="AK53">
+        <v>1.77</v>
+      </c>
+      <c r="AL53">
+        <v>1.22</v>
+      </c>
+      <c r="AM53">
+        <v>1.3</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>1.33</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>0.74</v>
+      </c>
+      <c r="AS53">
+        <v>1.39</v>
+      </c>
+      <c r="AT53">
+        <v>2.13</v>
+      </c>
+      <c r="AU53">
+        <v>6</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>16</v>
+      </c>
+      <c r="AX53">
+        <v>9</v>
+      </c>
+      <c r="AY53">
+        <v>22</v>
+      </c>
+      <c r="AZ53">
+        <v>14</v>
+      </c>
+      <c r="BA53">
+        <v>8</v>
+      </c>
+      <c r="BB53">
+        <v>5</v>
+      </c>
+      <c r="BC53">
+        <v>13</v>
+      </c>
+      <c r="BD53">
+        <v>2.2</v>
+      </c>
+      <c r="BE53">
+        <v>8</v>
+      </c>
+      <c r="BF53">
+        <v>1.91</v>
+      </c>
+      <c r="BG53">
+        <v>1.22</v>
+      </c>
+      <c r="BH53">
+        <v>4</v>
+      </c>
+      <c r="BI53">
+        <v>1.36</v>
+      </c>
+      <c r="BJ53">
+        <v>2.79</v>
+      </c>
+      <c r="BK53">
+        <v>1.66</v>
+      </c>
+      <c r="BL53">
+        <v>2.09</v>
+      </c>
+      <c r="BM53">
+        <v>2.11</v>
+      </c>
+      <c r="BN53">
+        <v>1.68</v>
+      </c>
+      <c r="BO53">
+        <v>2.76</v>
+      </c>
+      <c r="BP53">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7326948</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>129</v>
+      </c>
+      <c r="P54" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q54">
+        <v>3.1</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>1.5</v>
+      </c>
+      <c r="U54">
+        <v>2.5</v>
+      </c>
+      <c r="V54">
+        <v>3.5</v>
+      </c>
+      <c r="W54">
+        <v>1.29</v>
+      </c>
+      <c r="X54">
+        <v>11</v>
+      </c>
+      <c r="Y54">
+        <v>1.05</v>
+      </c>
+      <c r="Z54">
+        <v>2.09</v>
+      </c>
+      <c r="AA54">
+        <v>3.2</v>
+      </c>
+      <c r="AB54">
+        <v>2.93</v>
+      </c>
+      <c r="AC54">
+        <v>1.07</v>
+      </c>
+      <c r="AD54">
+        <v>8</v>
+      </c>
+      <c r="AE54">
+        <v>1.42</v>
+      </c>
+      <c r="AF54">
+        <v>2.8</v>
+      </c>
+      <c r="AG54">
+        <v>2.1</v>
+      </c>
+      <c r="AH54">
+        <v>1.65</v>
+      </c>
+      <c r="AI54">
+        <v>2</v>
+      </c>
+      <c r="AJ54">
+        <v>1.75</v>
+      </c>
+      <c r="AK54">
+        <v>1.35</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.6</v>
+      </c>
+      <c r="AN54">
+        <v>0.5</v>
+      </c>
+      <c r="AO54">
+        <v>0.5</v>
+      </c>
+      <c r="AP54">
+        <v>0.33</v>
+      </c>
+      <c r="AQ54">
+        <v>1.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.33</v>
+      </c>
+      <c r="AS54">
+        <v>1</v>
+      </c>
+      <c r="AT54">
+        <v>2.33</v>
+      </c>
+      <c r="AU54">
+        <v>6</v>
+      </c>
+      <c r="AV54">
+        <v>3</v>
+      </c>
+      <c r="AW54">
+        <v>9</v>
+      </c>
+      <c r="AX54">
+        <v>8</v>
+      </c>
+      <c r="AY54">
+        <v>15</v>
+      </c>
+      <c r="AZ54">
+        <v>11</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>2</v>
+      </c>
+      <c r="BC54">
+        <v>8</v>
+      </c>
+      <c r="BD54">
+        <v>1.62</v>
+      </c>
+      <c r="BE54">
+        <v>8</v>
+      </c>
+      <c r="BF54">
+        <v>2.62</v>
+      </c>
+      <c r="BG54">
+        <v>1.22</v>
+      </c>
+      <c r="BH54">
+        <v>3.65</v>
+      </c>
+      <c r="BI54">
+        <v>1.44</v>
+      </c>
+      <c r="BJ54">
+        <v>2.58</v>
+      </c>
+      <c r="BK54">
+        <v>1.8</v>
+      </c>
+      <c r="BL54">
+        <v>2</v>
+      </c>
+      <c r="BM54">
+        <v>2.25</v>
+      </c>
+      <c r="BN54">
+        <v>1.57</v>
+      </c>
+      <c r="BO54">
+        <v>2.98</v>
+      </c>
+      <c r="BP54">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7326950</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>91</v>
+      </c>
+      <c r="P55" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q55">
+        <v>2.88</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>1.5</v>
+      </c>
+      <c r="U55">
+        <v>2.5</v>
+      </c>
+      <c r="V55">
+        <v>3.5</v>
+      </c>
+      <c r="W55">
+        <v>1.29</v>
+      </c>
+      <c r="X55">
+        <v>11</v>
+      </c>
+      <c r="Y55">
+        <v>1.05</v>
+      </c>
+      <c r="Z55">
+        <v>2.19</v>
+      </c>
+      <c r="AA55">
+        <v>3.15</v>
+      </c>
+      <c r="AB55">
+        <v>2.78</v>
+      </c>
+      <c r="AC55">
+        <v>1.07</v>
+      </c>
+      <c r="AD55">
+        <v>8</v>
+      </c>
+      <c r="AE55">
+        <v>1.45</v>
+      </c>
+      <c r="AF55">
+        <v>2.7</v>
+      </c>
+      <c r="AG55">
+        <v>2.17</v>
+      </c>
+      <c r="AH55">
+        <v>1.61</v>
+      </c>
+      <c r="AI55">
+        <v>2.05</v>
+      </c>
+      <c r="AJ55">
+        <v>1.7</v>
+      </c>
+      <c r="AK55">
+        <v>1.33</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.67</v>
+      </c>
+      <c r="AN55">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>1.67</v>
+      </c>
+      <c r="AP55">
+        <v>2.33</v>
+      </c>
+      <c r="AQ55">
+        <v>1.5</v>
+      </c>
+      <c r="AR55">
+        <v>1.66</v>
+      </c>
+      <c r="AS55">
+        <v>1.33</v>
+      </c>
+      <c r="AT55">
+        <v>2.99</v>
+      </c>
+      <c r="AU55">
+        <v>3</v>
+      </c>
+      <c r="AV55">
+        <v>6</v>
+      </c>
+      <c r="AW55">
+        <v>19</v>
+      </c>
+      <c r="AX55">
+        <v>9</v>
+      </c>
+      <c r="AY55">
+        <v>22</v>
+      </c>
+      <c r="AZ55">
+        <v>15</v>
+      </c>
+      <c r="BA55">
+        <v>6</v>
+      </c>
+      <c r="BB55">
+        <v>6</v>
+      </c>
+      <c r="BC55">
+        <v>12</v>
+      </c>
+      <c r="BD55">
+        <v>1.67</v>
+      </c>
+      <c r="BE55">
+        <v>8</v>
+      </c>
+      <c r="BF55">
+        <v>2.5</v>
+      </c>
+      <c r="BG55">
+        <v>1.21</v>
+      </c>
+      <c r="BH55">
+        <v>3.74</v>
+      </c>
+      <c r="BI55">
+        <v>1.42</v>
+      </c>
+      <c r="BJ55">
+        <v>2.65</v>
+      </c>
+      <c r="BK55">
+        <v>1.75</v>
+      </c>
+      <c r="BL55">
+        <v>2.01</v>
+      </c>
+      <c r="BM55">
+        <v>2.19</v>
+      </c>
+      <c r="BN55">
+        <v>1.6</v>
+      </c>
+      <c r="BO55">
+        <v>2.91</v>
+      </c>
+      <c r="BP55">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7326946</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>110</v>
+      </c>
+      <c r="P56" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q56">
+        <v>3.5</v>
+      </c>
+      <c r="R56">
+        <v>1.95</v>
+      </c>
+      <c r="S56">
+        <v>3.5</v>
+      </c>
+      <c r="T56">
+        <v>1.53</v>
+      </c>
+      <c r="U56">
+        <v>2.38</v>
+      </c>
+      <c r="V56">
+        <v>3.75</v>
+      </c>
+      <c r="W56">
+        <v>1.25</v>
+      </c>
+      <c r="X56">
+        <v>11</v>
+      </c>
+      <c r="Y56">
+        <v>1.05</v>
+      </c>
+      <c r="Z56">
+        <v>2.98</v>
+      </c>
+      <c r="AA56">
+        <v>3.1</v>
+      </c>
+      <c r="AB56">
+        <v>2.11</v>
+      </c>
+      <c r="AC56">
+        <v>1.08</v>
+      </c>
+      <c r="AD56">
+        <v>7.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.48</v>
+      </c>
+      <c r="AF56">
+        <v>2.65</v>
+      </c>
+      <c r="AG56">
+        <v>2.29</v>
+      </c>
+      <c r="AH56">
+        <v>1.55</v>
+      </c>
+      <c r="AI56">
+        <v>2.05</v>
+      </c>
+      <c r="AJ56">
+        <v>1.7</v>
+      </c>
+      <c r="AK56">
+        <v>1.45</v>
+      </c>
+      <c r="AL56">
+        <v>1.28</v>
+      </c>
+      <c r="AM56">
+        <v>1.48</v>
+      </c>
+      <c r="AN56">
+        <v>2.33</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>1.75</v>
+      </c>
+      <c r="AQ56">
+        <v>1.67</v>
+      </c>
+      <c r="AR56">
+        <v>1.54</v>
+      </c>
+      <c r="AS56">
+        <v>1.43</v>
+      </c>
+      <c r="AT56">
+        <v>2.97</v>
+      </c>
+      <c r="AU56">
+        <v>2</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>6</v>
+      </c>
+      <c r="AX56">
+        <v>11</v>
+      </c>
+      <c r="AY56">
+        <v>8</v>
+      </c>
+      <c r="AZ56">
+        <v>16</v>
+      </c>
+      <c r="BA56">
+        <v>2</v>
+      </c>
+      <c r="BB56">
+        <v>4</v>
+      </c>
+      <c r="BC56">
+        <v>6</v>
+      </c>
+      <c r="BD56">
+        <v>2.3</v>
+      </c>
+      <c r="BE56">
+        <v>7.5</v>
+      </c>
+      <c r="BF56">
+        <v>1.83</v>
+      </c>
+      <c r="BG56">
+        <v>1.48</v>
+      </c>
+      <c r="BH56">
+        <v>2.47</v>
+      </c>
+      <c r="BI56">
+        <v>1.9</v>
+      </c>
+      <c r="BJ56">
+        <v>1.9</v>
+      </c>
+      <c r="BK56">
+        <v>2.44</v>
+      </c>
+      <c r="BL56">
+        <v>1.49</v>
+      </c>
+      <c r="BM56">
+        <v>3.34</v>
+      </c>
+      <c r="BN56">
+        <v>1.26</v>
+      </c>
+      <c r="BO56">
+        <v>4</v>
+      </c>
+      <c r="BP56">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7326945</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>130</v>
+      </c>
+      <c r="P57" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q57">
+        <v>3.1</v>
+      </c>
+      <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
+        <v>3.5</v>
+      </c>
+      <c r="T57">
+        <v>1.48</v>
+      </c>
+      <c r="U57">
+        <v>2.45</v>
+      </c>
+      <c r="V57">
+        <v>3.2</v>
+      </c>
+      <c r="W57">
+        <v>1.3</v>
+      </c>
+      <c r="X57">
+        <v>8.9</v>
+      </c>
+      <c r="Y57">
+        <v>1.05</v>
+      </c>
+      <c r="Z57">
+        <v>2.32</v>
+      </c>
+      <c r="AA57">
+        <v>3</v>
+      </c>
+      <c r="AB57">
+        <v>2.72</v>
+      </c>
+      <c r="AC57">
+        <v>1.07</v>
+      </c>
+      <c r="AD57">
+        <v>6.8</v>
+      </c>
+      <c r="AE57">
+        <v>1.39</v>
+      </c>
+      <c r="AF57">
+        <v>2.79</v>
+      </c>
+      <c r="AG57">
+        <v>2.38</v>
+      </c>
+      <c r="AH57">
+        <v>1.51</v>
+      </c>
+      <c r="AI57">
+        <v>1.85</v>
+      </c>
+      <c r="AJ57">
+        <v>1.8</v>
+      </c>
+      <c r="AK57">
+        <v>1.38</v>
+      </c>
+      <c r="AL57">
+        <v>1.32</v>
+      </c>
+      <c r="AM57">
+        <v>1.48</v>
+      </c>
+      <c r="AN57">
+        <v>0.5</v>
+      </c>
+      <c r="AO57">
+        <v>2</v>
+      </c>
+      <c r="AP57">
+        <v>0.67</v>
+      </c>
+      <c r="AQ57">
+        <v>1.67</v>
+      </c>
+      <c r="AR57">
+        <v>1.08</v>
+      </c>
+      <c r="AS57">
+        <v>1.25</v>
+      </c>
+      <c r="AT57">
+        <v>2.33</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>17</v>
+      </c>
+      <c r="AX57">
+        <v>8</v>
+      </c>
+      <c r="AY57">
+        <v>23</v>
+      </c>
+      <c r="AZ57">
+        <v>12</v>
+      </c>
+      <c r="BA57">
+        <v>6</v>
+      </c>
+      <c r="BB57">
+        <v>7</v>
+      </c>
+      <c r="BC57">
+        <v>13</v>
+      </c>
+      <c r="BD57">
+        <v>1.8</v>
+      </c>
+      <c r="BE57">
+        <v>8</v>
+      </c>
+      <c r="BF57">
+        <v>2.38</v>
+      </c>
+      <c r="BG57">
+        <v>1.22</v>
+      </c>
+      <c r="BH57">
+        <v>4</v>
+      </c>
+      <c r="BI57">
+        <v>1.35</v>
+      </c>
+      <c r="BJ57">
+        <v>2.84</v>
+      </c>
+      <c r="BK57">
+        <v>1.64</v>
+      </c>
+      <c r="BL57">
+        <v>2.12</v>
+      </c>
+      <c r="BM57">
+        <v>2.09</v>
+      </c>
+      <c r="BN57">
+        <v>1.69</v>
+      </c>
+      <c r="BO57">
+        <v>2.72</v>
+      </c>
+      <c r="BP57">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7326947</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>91</v>
+      </c>
+      <c r="P58" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q58">
+        <v>2.65</v>
+      </c>
+      <c r="R58">
+        <v>2.3</v>
+      </c>
+      <c r="S58">
+        <v>3.25</v>
+      </c>
+      <c r="T58">
+        <v>1.26</v>
+      </c>
+      <c r="U58">
+        <v>3.64</v>
+      </c>
+      <c r="V58">
+        <v>2.2</v>
+      </c>
+      <c r="W58">
+        <v>1.63</v>
+      </c>
+      <c r="X58">
+        <v>4.9</v>
+      </c>
+      <c r="Y58">
+        <v>1.16</v>
+      </c>
+      <c r="Z58">
+        <v>2.15</v>
+      </c>
+      <c r="AA58">
+        <v>3.6</v>
+      </c>
+      <c r="AB58">
+        <v>2.56</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>10.5</v>
+      </c>
+      <c r="AE58">
+        <v>1.13</v>
+      </c>
+      <c r="AF58">
+        <v>5.15</v>
+      </c>
+      <c r="AG58">
+        <v>1.56</v>
+      </c>
+      <c r="AH58">
+        <v>2.27</v>
+      </c>
+      <c r="AI58">
+        <v>1.38</v>
+      </c>
+      <c r="AJ58">
+        <v>2.75</v>
+      </c>
+      <c r="AK58">
+        <v>1.38</v>
+      </c>
+      <c r="AL58">
+        <v>1.25</v>
+      </c>
+      <c r="AM58">
+        <v>1.58</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>1.5</v>
+      </c>
+      <c r="AP58">
+        <v>0.5</v>
+      </c>
+      <c r="AQ58">
+        <v>1.33</v>
+      </c>
+      <c r="AR58">
+        <v>2.12</v>
+      </c>
+      <c r="AS58">
+        <v>1.18</v>
+      </c>
+      <c r="AT58">
+        <v>3.3</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>4</v>
+      </c>
+      <c r="AW58">
+        <v>14</v>
+      </c>
+      <c r="AX58">
+        <v>14</v>
+      </c>
+      <c r="AY58">
+        <v>20</v>
+      </c>
+      <c r="AZ58">
+        <v>18</v>
+      </c>
+      <c r="BA58">
+        <v>14</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>19</v>
+      </c>
+      <c r="BD58">
+        <v>1.8</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>2.38</v>
+      </c>
+      <c r="BG58">
+        <v>1.25</v>
+      </c>
+      <c r="BH58">
+        <v>3.6</v>
+      </c>
+      <c r="BI58">
+        <v>1.33</v>
+      </c>
+      <c r="BJ58">
+        <v>2.93</v>
+      </c>
+      <c r="BK58">
+        <v>1.6</v>
+      </c>
+      <c r="BL58">
+        <v>2.19</v>
+      </c>
+      <c r="BM58">
+        <v>2.01</v>
+      </c>
+      <c r="BN58">
+        <v>1.75</v>
+      </c>
+      <c r="BO58">
+        <v>2.58</v>
+      </c>
+      <c r="BP58">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7326953</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45385.3125</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59" t="s">
+        <v>71</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>131</v>
+      </c>
+      <c r="P59" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q59">
+        <v>3.5</v>
+      </c>
+      <c r="R59">
+        <v>2.05</v>
+      </c>
+      <c r="S59">
+        <v>3.25</v>
+      </c>
+      <c r="T59">
+        <v>1.44</v>
+      </c>
+      <c r="U59">
+        <v>2.63</v>
+      </c>
+      <c r="V59">
+        <v>3.4</v>
+      </c>
+      <c r="W59">
+        <v>1.3</v>
+      </c>
+      <c r="X59">
+        <v>10</v>
+      </c>
+      <c r="Y59">
+        <v>1.06</v>
+      </c>
+      <c r="Z59">
+        <v>2.5</v>
+      </c>
+      <c r="AA59">
+        <v>3.2</v>
+      </c>
+      <c r="AB59">
+        <v>2.38</v>
+      </c>
+      <c r="AC59">
+        <v>1.07</v>
+      </c>
+      <c r="AD59">
+        <v>8</v>
+      </c>
+      <c r="AE59">
+        <v>1.38</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
+      </c>
+      <c r="AG59">
+        <v>1.97</v>
+      </c>
+      <c r="AH59">
+        <v>1.74</v>
+      </c>
+      <c r="AI59">
+        <v>1.95</v>
+      </c>
+      <c r="AJ59">
+        <v>1.8</v>
+      </c>
+      <c r="AK59">
+        <v>1.5</v>
+      </c>
+      <c r="AL59">
+        <v>1.28</v>
+      </c>
+      <c r="AM59">
+        <v>1.42</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>1.5</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>2</v>
+      </c>
+      <c r="AR59">
+        <v>1.1</v>
+      </c>
+      <c r="AS59">
+        <v>1.15</v>
+      </c>
+      <c r="AT59">
+        <v>2.25</v>
+      </c>
+      <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>2</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
+        <v>1</v>
+      </c>
+      <c r="AY59">
+        <v>7</v>
+      </c>
+      <c r="AZ59">
+        <v>3</v>
+      </c>
+      <c r="BA59">
+        <v>7</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>7</v>
+      </c>
+      <c r="BD59">
+        <v>1.91</v>
+      </c>
+      <c r="BE59">
+        <v>7.5</v>
+      </c>
+      <c r="BF59">
+        <v>2.2</v>
+      </c>
+      <c r="BG59">
+        <v>1.4</v>
+      </c>
+      <c r="BH59">
+        <v>2.72</v>
+      </c>
+      <c r="BI59">
+        <v>1.74</v>
+      </c>
+      <c r="BJ59">
+        <v>2.02</v>
+      </c>
+      <c r="BK59">
+        <v>2.21</v>
+      </c>
+      <c r="BL59">
+        <v>1.59</v>
+      </c>
+      <c r="BM59">
+        <v>2.98</v>
+      </c>
+      <c r="BN59">
+        <v>1.32</v>
+      </c>
+      <c r="BO59">
+        <v>3.6</v>
+      </c>
+      <c r="BP59">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7326954</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45385.3125</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q60">
+        <v>3.9</v>
+      </c>
+      <c r="R60">
+        <v>2.14</v>
+      </c>
+      <c r="S60">
+        <v>3.12</v>
+      </c>
+      <c r="T60">
+        <v>1.47</v>
+      </c>
+      <c r="U60">
+        <v>2.76</v>
+      </c>
+      <c r="V60">
+        <v>3.33</v>
+      </c>
+      <c r="W60">
+        <v>1.35</v>
+      </c>
+      <c r="X60">
+        <v>8.4</v>
+      </c>
+      <c r="Y60">
+        <v>1.05</v>
+      </c>
+      <c r="Z60">
+        <v>2.97</v>
+      </c>
+      <c r="AA60">
+        <v>3.3</v>
+      </c>
+      <c r="AB60">
+        <v>2.03</v>
+      </c>
+      <c r="AC60">
+        <v>1.06</v>
+      </c>
+      <c r="AD60">
+        <v>7.1</v>
+      </c>
+      <c r="AE60">
+        <v>1.4</v>
+      </c>
+      <c r="AF60">
+        <v>3.04</v>
+      </c>
+      <c r="AG60">
+        <v>1.98</v>
+      </c>
+      <c r="AH60">
+        <v>1.73</v>
+      </c>
+      <c r="AI60">
+        <v>1.85</v>
+      </c>
+      <c r="AJ60">
+        <v>1.83</v>
+      </c>
+      <c r="AK60">
+        <v>1.52</v>
+      </c>
+      <c r="AL60">
+        <v>1.32</v>
+      </c>
+      <c r="AM60">
+        <v>1.35</v>
+      </c>
+      <c r="AN60">
+        <v>0.5</v>
+      </c>
+      <c r="AO60">
+        <v>1.33</v>
+      </c>
+      <c r="AP60">
+        <v>1.33</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1.11</v>
+      </c>
+      <c r="AS60">
+        <v>1.47</v>
+      </c>
+      <c r="AT60">
+        <v>2.58</v>
+      </c>
+      <c r="AU60">
+        <v>3</v>
+      </c>
+      <c r="AV60">
+        <v>4</v>
+      </c>
+      <c r="AW60">
+        <v>9</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
+        <v>9</v>
+      </c>
+      <c r="BA60">
+        <v>6</v>
+      </c>
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>10</v>
+      </c>
+      <c r="BD60">
+        <v>1.95</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>2.1</v>
+      </c>
+      <c r="BG60">
+        <v>1.25</v>
+      </c>
+      <c r="BH60">
+        <v>3.42</v>
+      </c>
+      <c r="BI60">
+        <v>1.48</v>
+      </c>
+      <c r="BJ60">
+        <v>2.47</v>
+      </c>
+      <c r="BK60">
+        <v>1.98</v>
+      </c>
+      <c r="BL60">
+        <v>1.82</v>
+      </c>
+      <c r="BM60">
+        <v>2.36</v>
+      </c>
+      <c r="BN60">
+        <v>1.52</v>
+      </c>
+      <c r="BO60">
+        <v>3.14</v>
+      </c>
+      <c r="BP60">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -11337,16 +11337,16 @@
         <v>2</v>
       </c>
       <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
         <v>4</v>
       </c>
-      <c r="AX51">
+      <c r="AY51">
+        <v>5</v>
+      </c>
+      <c r="AZ51">
         <v>6</v>
-      </c>
-      <c r="AY51">
-        <v>9</v>
-      </c>
-      <c r="AZ51">
-        <v>8</v>
       </c>
       <c r="BA51">
         <v>9</v>
@@ -11537,22 +11537,22 @@
         <v>3.05</v>
       </c>
       <c r="AU52">
+        <v>7</v>
+      </c>
+      <c r="AV52">
+        <v>3</v>
+      </c>
+      <c r="AW52">
+        <v>3</v>
+      </c>
+      <c r="AX52">
         <v>6</v>
       </c>
-      <c r="AV52">
-        <v>2</v>
-      </c>
-      <c r="AW52">
-        <v>6</v>
-      </c>
-      <c r="AX52">
-        <v>12</v>
-      </c>
       <c r="AY52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ52">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA52">
         <v>5</v>
@@ -11749,16 +11749,16 @@
         <v>5</v>
       </c>
       <c r="AW53">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AX53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY53">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AZ53">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA53">
         <v>8</v>
@@ -11955,16 +11955,16 @@
         <v>3</v>
       </c>
       <c r="AW54">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY54">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ54">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA54">
         <v>6</v>
@@ -12161,16 +12161,16 @@
         <v>6</v>
       </c>
       <c r="AW55">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AX55">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY55">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AZ55">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA55">
         <v>6</v>
@@ -12361,22 +12361,22 @@
         <v>2.97</v>
       </c>
       <c r="AU56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV56">
         <v>5</v>
       </c>
       <c r="AW56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX56">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AY56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AZ56">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA56">
         <v>2</v>
@@ -12567,22 +12567,22 @@
         <v>2.33</v>
       </c>
       <c r="AU57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV57">
         <v>4</v>
       </c>
       <c r="AW57">
+        <v>10</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
         <v>17</v>
       </c>
-      <c r="AX57">
+      <c r="AZ57">
         <v>8</v>
-      </c>
-      <c r="AY57">
-        <v>23</v>
-      </c>
-      <c r="AZ57">
-        <v>12</v>
       </c>
       <c r="BA57">
         <v>6</v>
@@ -12779,16 +12779,16 @@
         <v>4</v>
       </c>
       <c r="AW58">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AX58">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AY58">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ58">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BA58">
         <v>14</v>
@@ -12982,28 +12982,28 @@
         <v>3</v>
       </c>
       <c r="AV59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW59">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX59">
         <v>1</v>
       </c>
       <c r="AY59">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC59">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD59">
         <v>1.91</v>
@@ -13185,10 +13185,10 @@
         <v>2.58</v>
       </c>
       <c r="AU60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW60">
         <v>9</v>
@@ -13197,19 +13197,19 @@
         <v>5</v>
       </c>
       <c r="AY60">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ60">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA60">
+        <v>8</v>
+      </c>
+      <c r="BB60">
         <v>6</v>
       </c>
-      <c r="BB60">
-        <v>4</v>
-      </c>
       <c r="BC60">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD60">
         <v>1.95</v>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,9 @@
     <t>['50', '58']</t>
   </si>
   <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -500,9 +503,6 @@
   </si>
   <si>
     <t>['76']</t>
-  </si>
-  <si>
-    <t>['73']</t>
   </si>
   <si>
     <t>['28']</t>
@@ -885,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1350,7 +1350,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1556,7 +1556,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1968,7 +1968,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2255,7 +2255,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2586,7 +2586,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2792,7 +2792,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2998,7 +2998,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3204,7 +3204,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3410,7 +3410,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3616,7 +3616,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4028,7 +4028,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4440,7 +4440,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4646,7 +4646,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5058,7 +5058,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5264,7 +5264,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6294,7 +6294,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6500,7 +6500,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6706,7 +6706,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7118,7 +7118,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7324,7 +7324,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7402,7 +7402,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ32">
         <v>3</v>
@@ -7736,7 +7736,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7942,7 +7942,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8148,7 +8148,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8354,7 +8354,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8560,7 +8560,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8766,7 +8766,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8972,7 +8972,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9384,7 +9384,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9465,7 +9465,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -9796,7 +9796,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -12964,7 +12964,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13249,6 +13249,212 @@
       </c>
       <c r="BP60">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7326955</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45388.08333333334</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q61">
+        <v>3.1</v>
+      </c>
+      <c r="R61">
+        <v>2.37</v>
+      </c>
+      <c r="S61">
+        <v>3.33</v>
+      </c>
+      <c r="T61">
+        <v>1.33</v>
+      </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
+      <c r="V61">
+        <v>2.63</v>
+      </c>
+      <c r="W61">
+        <v>1.45</v>
+      </c>
+      <c r="X61">
+        <v>5.25</v>
+      </c>
+      <c r="Y61">
+        <v>1.11</v>
+      </c>
+      <c r="Z61">
+        <v>2.57</v>
+      </c>
+      <c r="AA61">
+        <v>3.56</v>
+      </c>
+      <c r="AB61">
+        <v>2.42</v>
+      </c>
+      <c r="AC61">
+        <v>1.04</v>
+      </c>
+      <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>1.22</v>
+      </c>
+      <c r="AF61">
+        <v>4.2</v>
+      </c>
+      <c r="AG61">
+        <v>1.7</v>
+      </c>
+      <c r="AH61">
+        <v>2.1</v>
+      </c>
+      <c r="AI61">
+        <v>1.53</v>
+      </c>
+      <c r="AJ61">
+        <v>2.3</v>
+      </c>
+      <c r="AK61">
+        <v>1.45</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.53</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>0.75</v>
+      </c>
+      <c r="AQ61">
+        <v>0.67</v>
+      </c>
+      <c r="AR61">
+        <v>1.19</v>
+      </c>
+      <c r="AS61">
+        <v>1.27</v>
+      </c>
+      <c r="AT61">
+        <v>2.46</v>
+      </c>
+      <c r="AU61">
+        <v>3</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>10</v>
+      </c>
+      <c r="AX61">
+        <v>8</v>
+      </c>
+      <c r="AY61">
+        <v>13</v>
+      </c>
+      <c r="AZ61">
+        <v>11</v>
+      </c>
+      <c r="BA61">
+        <v>6</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>10</v>
+      </c>
+      <c r="BD61">
+        <v>1.78</v>
+      </c>
+      <c r="BE61">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF61">
+        <v>2.39</v>
+      </c>
+      <c r="BG61">
+        <v>1.27</v>
+      </c>
+      <c r="BH61">
+        <v>3.28</v>
+      </c>
+      <c r="BI61">
+        <v>1.58</v>
+      </c>
+      <c r="BJ61">
+        <v>2.34</v>
+      </c>
+      <c r="BK61">
+        <v>1.94</v>
+      </c>
+      <c r="BL61">
+        <v>1.85</v>
+      </c>
+      <c r="BM61">
+        <v>2.45</v>
+      </c>
+      <c r="BN61">
+        <v>1.53</v>
+      </c>
+      <c r="BO61">
+        <v>3.34</v>
+      </c>
+      <c r="BP61">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,21 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['52', '90+6']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['5', '53', '83']</t>
+  </si>
+  <si>
+    <t>['55', '90+7']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -524,6 +539,15 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['51', '65', '71']</t>
+  </si>
+  <si>
+    <t>['47', '83']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1350,7 +1374,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1431,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1556,7 +1580,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1968,7 +1992,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2380,7 +2404,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2586,7 +2610,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2792,7 +2816,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2998,7 +3022,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3076,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3204,7 +3228,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3285,7 +3309,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3410,7 +3434,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3488,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3616,7 +3640,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3694,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4028,7 +4052,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4109,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4440,7 +4464,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4521,7 +4545,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4646,7 +4670,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4724,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>1.67</v>
@@ -5058,7 +5082,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5136,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5264,7 +5288,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5345,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -5548,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5757,7 +5781,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -5960,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -6169,7 +6193,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>0.92</v>
@@ -6294,7 +6318,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6372,7 +6396,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
         <v>2.33</v>
@@ -6500,7 +6524,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6578,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -6706,7 +6730,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7118,7 +7142,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7324,7 +7348,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7608,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -7736,7 +7760,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7817,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -7942,7 +7966,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8023,7 +8047,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8148,7 +8172,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8354,7 +8378,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8432,7 +8456,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8560,7 +8584,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8641,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -8766,7 +8790,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8972,7 +8996,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9178,7 +9202,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9256,7 +9280,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9384,7 +9408,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9462,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
         <v>0.67</v>
@@ -9668,10 +9692,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -9874,7 +9898,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0.33</v>
@@ -10080,7 +10104,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10208,7 +10232,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10286,10 +10310,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.39</v>
@@ -10414,7 +10438,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10701,7 +10725,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -10826,7 +10850,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -10907,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -11113,7 +11137,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11319,7 +11343,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
         <v>1.61</v>
@@ -11856,7 +11880,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12268,7 +12292,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12555,7 +12579,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ57">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -12886,7 +12910,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13092,7 +13116,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13170,7 +13194,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13455,6 +13479,1860 @@
       </c>
       <c r="BP61">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7326956</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45389.04166666666</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>134</v>
+      </c>
+      <c r="P62" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q62">
+        <v>3.5</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>3.4</v>
+      </c>
+      <c r="T62">
+        <v>1.5</v>
+      </c>
+      <c r="U62">
+        <v>2.5</v>
+      </c>
+      <c r="V62">
+        <v>3.4</v>
+      </c>
+      <c r="W62">
+        <v>1.3</v>
+      </c>
+      <c r="X62">
+        <v>10</v>
+      </c>
+      <c r="Y62">
+        <v>1.06</v>
+      </c>
+      <c r="Z62">
+        <v>2.54</v>
+      </c>
+      <c r="AA62">
+        <v>2.94</v>
+      </c>
+      <c r="AB62">
+        <v>2.54</v>
+      </c>
+      <c r="AC62">
+        <v>1.08</v>
+      </c>
+      <c r="AD62">
+        <v>7.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.42</v>
+      </c>
+      <c r="AF62">
+        <v>2.8</v>
+      </c>
+      <c r="AG62">
+        <v>2.2</v>
+      </c>
+      <c r="AH62">
+        <v>1.6</v>
+      </c>
+      <c r="AI62">
+        <v>1.95</v>
+      </c>
+      <c r="AJ62">
+        <v>1.8</v>
+      </c>
+      <c r="AK62">
+        <v>1.45</v>
+      </c>
+      <c r="AL62">
+        <v>1.28</v>
+      </c>
+      <c r="AM62">
+        <v>1.45</v>
+      </c>
+      <c r="AN62">
+        <v>0.67</v>
+      </c>
+      <c r="AO62">
+        <v>2.33</v>
+      </c>
+      <c r="AP62">
+        <v>0.75</v>
+      </c>
+      <c r="AQ62">
+        <v>2</v>
+      </c>
+      <c r="AR62">
+        <v>1.49</v>
+      </c>
+      <c r="AS62">
+        <v>1.56</v>
+      </c>
+      <c r="AT62">
+        <v>3.05</v>
+      </c>
+      <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>10</v>
+      </c>
+      <c r="AZ62">
+        <v>6</v>
+      </c>
+      <c r="BA62">
+        <v>6</v>
+      </c>
+      <c r="BB62">
+        <v>4</v>
+      </c>
+      <c r="BC62">
+        <v>10</v>
+      </c>
+      <c r="BD62">
+        <v>2.28</v>
+      </c>
+      <c r="BE62">
+        <v>7.18</v>
+      </c>
+      <c r="BF62">
+        <v>2.11</v>
+      </c>
+      <c r="BG62">
+        <v>1.36</v>
+      </c>
+      <c r="BH62">
+        <v>3.12</v>
+      </c>
+      <c r="BI62">
+        <v>1.64</v>
+      </c>
+      <c r="BJ62">
+        <v>2.25</v>
+      </c>
+      <c r="BK62">
+        <v>2.04</v>
+      </c>
+      <c r="BL62">
+        <v>1.78</v>
+      </c>
+      <c r="BM62">
+        <v>2.67</v>
+      </c>
+      <c r="BN62">
+        <v>1.47</v>
+      </c>
+      <c r="BO62">
+        <v>3.74</v>
+      </c>
+      <c r="BP62">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7326958</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>83</v>
+      </c>
+      <c r="H63" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>91</v>
+      </c>
+      <c r="P63" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q63">
+        <v>2.4</v>
+      </c>
+      <c r="R63">
+        <v>2.1</v>
+      </c>
+      <c r="S63">
+        <v>5</v>
+      </c>
+      <c r="T63">
+        <v>1.44</v>
+      </c>
+      <c r="U63">
+        <v>2.63</v>
+      </c>
+      <c r="V63">
+        <v>3</v>
+      </c>
+      <c r="W63">
+        <v>1.36</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <v>1.08</v>
+      </c>
+      <c r="Z63">
+        <v>2.2</v>
+      </c>
+      <c r="AA63">
+        <v>3.3</v>
+      </c>
+      <c r="AB63">
+        <v>3.1</v>
+      </c>
+      <c r="AC63">
+        <v>1.07</v>
+      </c>
+      <c r="AD63">
+        <v>8</v>
+      </c>
+      <c r="AE63">
+        <v>1.33</v>
+      </c>
+      <c r="AF63">
+        <v>3.25</v>
+      </c>
+      <c r="AG63">
+        <v>1.95</v>
+      </c>
+      <c r="AH63">
+        <v>1.75</v>
+      </c>
+      <c r="AI63">
+        <v>1.91</v>
+      </c>
+      <c r="AJ63">
+        <v>1.91</v>
+      </c>
+      <c r="AK63">
+        <v>1.18</v>
+      </c>
+      <c r="AL63">
+        <v>1.25</v>
+      </c>
+      <c r="AM63">
+        <v>1.95</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>1.5</v>
+      </c>
+      <c r="AR63">
+        <v>1.8</v>
+      </c>
+      <c r="AS63">
+        <v>1.47</v>
+      </c>
+      <c r="AT63">
+        <v>3.27</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>6</v>
+      </c>
+      <c r="AW63">
+        <v>10</v>
+      </c>
+      <c r="AX63">
+        <v>5</v>
+      </c>
+      <c r="AY63">
+        <v>14</v>
+      </c>
+      <c r="AZ63">
+        <v>11</v>
+      </c>
+      <c r="BA63">
+        <v>9</v>
+      </c>
+      <c r="BB63">
+        <v>14</v>
+      </c>
+      <c r="BC63">
+        <v>23</v>
+      </c>
+      <c r="BD63">
+        <v>2.04</v>
+      </c>
+      <c r="BE63">
+        <v>7.39</v>
+      </c>
+      <c r="BF63">
+        <v>2.35</v>
+      </c>
+      <c r="BG63">
+        <v>1.28</v>
+      </c>
+      <c r="BH63">
+        <v>3.7</v>
+      </c>
+      <c r="BI63">
+        <v>1.51</v>
+      </c>
+      <c r="BJ63">
+        <v>2.58</v>
+      </c>
+      <c r="BK63">
+        <v>1.83</v>
+      </c>
+      <c r="BL63">
+        <v>1.97</v>
+      </c>
+      <c r="BM63">
+        <v>2.32</v>
+      </c>
+      <c r="BN63">
+        <v>1.61</v>
+      </c>
+      <c r="BO63">
+        <v>3.11</v>
+      </c>
+      <c r="BP63">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7326960</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>135</v>
+      </c>
+      <c r="P64" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q64">
+        <v>2.1</v>
+      </c>
+      <c r="R64">
+        <v>2.25</v>
+      </c>
+      <c r="S64">
+        <v>6</v>
+      </c>
+      <c r="T64">
+        <v>1.4</v>
+      </c>
+      <c r="U64">
+        <v>2.75</v>
+      </c>
+      <c r="V64">
+        <v>2.75</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64">
+        <v>8</v>
+      </c>
+      <c r="Y64">
+        <v>1.08</v>
+      </c>
+      <c r="Z64">
+        <v>1.48</v>
+      </c>
+      <c r="AA64">
+        <v>4</v>
+      </c>
+      <c r="AB64">
+        <v>6.5</v>
+      </c>
+      <c r="AC64">
+        <v>1.06</v>
+      </c>
+      <c r="AD64">
+        <v>8.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.3</v>
+      </c>
+      <c r="AF64">
+        <v>3.45</v>
+      </c>
+      <c r="AG64">
+        <v>1.8</v>
+      </c>
+      <c r="AH64">
+        <v>1.91</v>
+      </c>
+      <c r="AI64">
+        <v>1.95</v>
+      </c>
+      <c r="AJ64">
+        <v>1.8</v>
+      </c>
+      <c r="AK64">
+        <v>1.1</v>
+      </c>
+      <c r="AL64">
+        <v>1.2</v>
+      </c>
+      <c r="AM64">
+        <v>2.45</v>
+      </c>
+      <c r="AN64">
+        <v>2.33</v>
+      </c>
+      <c r="AO64">
+        <v>1.33</v>
+      </c>
+      <c r="AP64">
+        <v>2.5</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>2.42</v>
+      </c>
+      <c r="AS64">
+        <v>1.47</v>
+      </c>
+      <c r="AT64">
+        <v>3.89</v>
+      </c>
+      <c r="AU64">
+        <v>12</v>
+      </c>
+      <c r="AV64">
+        <v>2</v>
+      </c>
+      <c r="AW64">
+        <v>8</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>20</v>
+      </c>
+      <c r="AZ64">
+        <v>7</v>
+      </c>
+      <c r="BA64">
+        <v>12</v>
+      </c>
+      <c r="BB64">
+        <v>6</v>
+      </c>
+      <c r="BC64">
+        <v>18</v>
+      </c>
+      <c r="BD64">
+        <v>1.27</v>
+      </c>
+      <c r="BE64">
+        <v>10.1</v>
+      </c>
+      <c r="BF64">
+        <v>5.93</v>
+      </c>
+      <c r="BG64">
+        <v>1.29</v>
+      </c>
+      <c r="BH64">
+        <v>3.6</v>
+      </c>
+      <c r="BI64">
+        <v>1.53</v>
+      </c>
+      <c r="BJ64">
+        <v>2.52</v>
+      </c>
+      <c r="BK64">
+        <v>1.86</v>
+      </c>
+      <c r="BL64">
+        <v>1.94</v>
+      </c>
+      <c r="BM64">
+        <v>2.37</v>
+      </c>
+      <c r="BN64">
+        <v>1.59</v>
+      </c>
+      <c r="BO64">
+        <v>3.2</v>
+      </c>
+      <c r="BP64">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7326957</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>91</v>
+      </c>
+      <c r="P65" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q65">
+        <v>3.6</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>3.1</v>
+      </c>
+      <c r="T65">
+        <v>1.5</v>
+      </c>
+      <c r="U65">
+        <v>2.4</v>
+      </c>
+      <c r="V65">
+        <v>3.2</v>
+      </c>
+      <c r="W65">
+        <v>1.3</v>
+      </c>
+      <c r="X65">
+        <v>8</v>
+      </c>
+      <c r="Y65">
+        <v>1.05</v>
+      </c>
+      <c r="Z65">
+        <v>2.88</v>
+      </c>
+      <c r="AA65">
+        <v>3</v>
+      </c>
+      <c r="AB65">
+        <v>2.5</v>
+      </c>
+      <c r="AC65">
+        <v>1.08</v>
+      </c>
+      <c r="AD65">
+        <v>6.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.41</v>
+      </c>
+      <c r="AF65">
+        <v>2.7</v>
+      </c>
+      <c r="AG65">
+        <v>2.25</v>
+      </c>
+      <c r="AH65">
+        <v>1.57</v>
+      </c>
+      <c r="AI65">
+        <v>1.91</v>
+      </c>
+      <c r="AJ65">
+        <v>1.8</v>
+      </c>
+      <c r="AK65">
+        <v>1.5</v>
+      </c>
+      <c r="AL65">
+        <v>1.38</v>
+      </c>
+      <c r="AM65">
+        <v>1.42</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>1.67</v>
+      </c>
+      <c r="AP65">
+        <v>1.33</v>
+      </c>
+      <c r="AQ65">
+        <v>2</v>
+      </c>
+      <c r="AR65">
+        <v>1.33</v>
+      </c>
+      <c r="AS65">
+        <v>1.19</v>
+      </c>
+      <c r="AT65">
+        <v>2.52</v>
+      </c>
+      <c r="AU65">
+        <v>3</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>4</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>7</v>
+      </c>
+      <c r="AZ65">
+        <v>7</v>
+      </c>
+      <c r="BA65">
+        <v>7</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>11</v>
+      </c>
+      <c r="BD65">
+        <v>1.88</v>
+      </c>
+      <c r="BE65">
+        <v>9</v>
+      </c>
+      <c r="BF65">
+        <v>2.22</v>
+      </c>
+      <c r="BG65">
+        <v>1.23</v>
+      </c>
+      <c r="BH65">
+        <v>3.56</v>
+      </c>
+      <c r="BI65">
+        <v>1.51</v>
+      </c>
+      <c r="BJ65">
+        <v>2.52</v>
+      </c>
+      <c r="BK65">
+        <v>1.83</v>
+      </c>
+      <c r="BL65">
+        <v>1.97</v>
+      </c>
+      <c r="BM65">
+        <v>2.26</v>
+      </c>
+      <c r="BN65">
+        <v>1.61</v>
+      </c>
+      <c r="BO65">
+        <v>3.04</v>
+      </c>
+      <c r="BP65">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7326959</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s">
+        <v>80</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>136</v>
+      </c>
+      <c r="P66" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q66">
+        <v>2.4</v>
+      </c>
+      <c r="R66">
+        <v>2.3</v>
+      </c>
+      <c r="S66">
+        <v>4</v>
+      </c>
+      <c r="T66">
+        <v>1.33</v>
+      </c>
+      <c r="U66">
+        <v>3</v>
+      </c>
+      <c r="V66">
+        <v>2.4</v>
+      </c>
+      <c r="W66">
+        <v>1.5</v>
+      </c>
+      <c r="X66">
+        <v>5.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.11</v>
+      </c>
+      <c r="Z66">
+        <v>1.95</v>
+      </c>
+      <c r="AA66">
+        <v>3.5</v>
+      </c>
+      <c r="AB66">
+        <v>3.5</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AE66">
+        <v>1.21</v>
+      </c>
+      <c r="AF66">
+        <v>3.97</v>
+      </c>
+      <c r="AG66">
+        <v>1.65</v>
+      </c>
+      <c r="AH66">
+        <v>2.1</v>
+      </c>
+      <c r="AI66">
+        <v>1.6</v>
+      </c>
+      <c r="AJ66">
+        <v>2.2</v>
+      </c>
+      <c r="AK66">
+        <v>1.3</v>
+      </c>
+      <c r="AL66">
+        <v>1.3</v>
+      </c>
+      <c r="AM66">
+        <v>1.7</v>
+      </c>
+      <c r="AN66">
+        <v>1.33</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>1</v>
+      </c>
+      <c r="AQ66">
+        <v>2.25</v>
+      </c>
+      <c r="AR66">
+        <v>1.78</v>
+      </c>
+      <c r="AS66">
+        <v>1.56</v>
+      </c>
+      <c r="AT66">
+        <v>3.34</v>
+      </c>
+      <c r="AU66">
+        <v>3</v>
+      </c>
+      <c r="AV66">
+        <v>7</v>
+      </c>
+      <c r="AW66">
+        <v>12</v>
+      </c>
+      <c r="AX66">
+        <v>7</v>
+      </c>
+      <c r="AY66">
+        <v>15</v>
+      </c>
+      <c r="AZ66">
+        <v>14</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>10</v>
+      </c>
+      <c r="BC66">
+        <v>14</v>
+      </c>
+      <c r="BD66">
+        <v>1.7</v>
+      </c>
+      <c r="BE66">
+        <v>9.6</v>
+      </c>
+      <c r="BF66">
+        <v>2.49</v>
+      </c>
+      <c r="BG66">
+        <v>1.19</v>
+      </c>
+      <c r="BH66">
+        <v>4.7</v>
+      </c>
+      <c r="BI66">
+        <v>1.28</v>
+      </c>
+      <c r="BJ66">
+        <v>3.2</v>
+      </c>
+      <c r="BK66">
+        <v>1.52</v>
+      </c>
+      <c r="BL66">
+        <v>2.36</v>
+      </c>
+      <c r="BM66">
+        <v>1.89</v>
+      </c>
+      <c r="BN66">
+        <v>1.85</v>
+      </c>
+      <c r="BO66">
+        <v>2.41</v>
+      </c>
+      <c r="BP66">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7326962</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45389.125</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>91</v>
+      </c>
+      <c r="P67" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q67">
+        <v>2.88</v>
+      </c>
+      <c r="R67">
+        <v>2.1</v>
+      </c>
+      <c r="S67">
+        <v>3.75</v>
+      </c>
+      <c r="T67">
+        <v>1.44</v>
+      </c>
+      <c r="U67">
+        <v>2.63</v>
+      </c>
+      <c r="V67">
+        <v>3.25</v>
+      </c>
+      <c r="W67">
+        <v>1.33</v>
+      </c>
+      <c r="X67">
+        <v>9</v>
+      </c>
+      <c r="Y67">
+        <v>1.07</v>
+      </c>
+      <c r="Z67">
+        <v>2.2</v>
+      </c>
+      <c r="AA67">
+        <v>3.3</v>
+      </c>
+      <c r="AB67">
+        <v>3.1</v>
+      </c>
+      <c r="AC67">
+        <v>1.07</v>
+      </c>
+      <c r="AD67">
+        <v>8</v>
+      </c>
+      <c r="AE67">
+        <v>1.35</v>
+      </c>
+      <c r="AF67">
+        <v>3.1</v>
+      </c>
+      <c r="AG67">
+        <v>1.95</v>
+      </c>
+      <c r="AH67">
+        <v>1.75</v>
+      </c>
+      <c r="AI67">
+        <v>1.8</v>
+      </c>
+      <c r="AJ67">
+        <v>1.95</v>
+      </c>
+      <c r="AK67">
+        <v>1.33</v>
+      </c>
+      <c r="AL67">
+        <v>1.28</v>
+      </c>
+      <c r="AM67">
+        <v>1.62</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>3</v>
+      </c>
+      <c r="AP67">
+        <v>0.75</v>
+      </c>
+      <c r="AQ67">
+        <v>3</v>
+      </c>
+      <c r="AR67">
+        <v>1.93</v>
+      </c>
+      <c r="AS67">
+        <v>1.15</v>
+      </c>
+      <c r="AT67">
+        <v>3.08</v>
+      </c>
+      <c r="AU67">
+        <v>2</v>
+      </c>
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
+        <v>9</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>11</v>
+      </c>
+      <c r="AZ67">
+        <v>9</v>
+      </c>
+      <c r="BA67">
+        <v>8</v>
+      </c>
+      <c r="BB67">
+        <v>5</v>
+      </c>
+      <c r="BC67">
+        <v>13</v>
+      </c>
+      <c r="BD67">
+        <v>2.12</v>
+      </c>
+      <c r="BE67">
+        <v>7.06</v>
+      </c>
+      <c r="BF67">
+        <v>2.27</v>
+      </c>
+      <c r="BG67">
+        <v>1.43</v>
+      </c>
+      <c r="BH67">
+        <v>2.82</v>
+      </c>
+      <c r="BI67">
+        <v>1.75</v>
+      </c>
+      <c r="BJ67">
+        <v>2.08</v>
+      </c>
+      <c r="BK67">
+        <v>2.2</v>
+      </c>
+      <c r="BL67">
+        <v>1.67</v>
+      </c>
+      <c r="BM67">
+        <v>2.96</v>
+      </c>
+      <c r="BN67">
+        <v>1.4</v>
+      </c>
+      <c r="BO67">
+        <v>4.26</v>
+      </c>
+      <c r="BP67">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7326961</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45389.125</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>137</v>
+      </c>
+      <c r="P68" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q68">
+        <v>2.16</v>
+      </c>
+      <c r="R68">
+        <v>2.4</v>
+      </c>
+      <c r="S68">
+        <v>5.95</v>
+      </c>
+      <c r="T68">
+        <v>1.36</v>
+      </c>
+      <c r="U68">
+        <v>2.91</v>
+      </c>
+      <c r="V68">
+        <v>2.81</v>
+      </c>
+      <c r="W68">
+        <v>1.39</v>
+      </c>
+      <c r="X68">
+        <v>6.45</v>
+      </c>
+      <c r="Y68">
+        <v>1.09</v>
+      </c>
+      <c r="Z68">
+        <v>1.6</v>
+      </c>
+      <c r="AA68">
+        <v>3.8</v>
+      </c>
+      <c r="AB68">
+        <v>5.25</v>
+      </c>
+      <c r="AC68">
+        <v>1.05</v>
+      </c>
+      <c r="AD68">
+        <v>9.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.25</v>
+      </c>
+      <c r="AF68">
+        <v>3.6</v>
+      </c>
+      <c r="AG68">
+        <v>1.8</v>
+      </c>
+      <c r="AH68">
+        <v>1.91</v>
+      </c>
+      <c r="AI68">
+        <v>1.87</v>
+      </c>
+      <c r="AJ68">
+        <v>1.87</v>
+      </c>
+      <c r="AK68">
+        <v>1.1</v>
+      </c>
+      <c r="AL68">
+        <v>1.2</v>
+      </c>
+      <c r="AM68">
+        <v>2.3</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>2.33</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>1.63</v>
+      </c>
+      <c r="AS68">
+        <v>1.05</v>
+      </c>
+      <c r="AT68">
+        <v>2.68</v>
+      </c>
+      <c r="AU68">
+        <v>9</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>5</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>14</v>
+      </c>
+      <c r="AZ68">
+        <v>6</v>
+      </c>
+      <c r="BA68">
+        <v>4</v>
+      </c>
+      <c r="BB68">
+        <v>2</v>
+      </c>
+      <c r="BC68">
+        <v>6</v>
+      </c>
+      <c r="BD68">
+        <v>1.56</v>
+      </c>
+      <c r="BE68">
+        <v>9.4</v>
+      </c>
+      <c r="BF68">
+        <v>2.89</v>
+      </c>
+      <c r="BG68">
+        <v>1.24</v>
+      </c>
+      <c r="BH68">
+        <v>3.48</v>
+      </c>
+      <c r="BI68">
+        <v>1.46</v>
+      </c>
+      <c r="BJ68">
+        <v>2.52</v>
+      </c>
+      <c r="BK68">
+        <v>1.82</v>
+      </c>
+      <c r="BL68">
+        <v>1.92</v>
+      </c>
+      <c r="BM68">
+        <v>2.32</v>
+      </c>
+      <c r="BN68">
+        <v>1.54</v>
+      </c>
+      <c r="BO68">
+        <v>3.08</v>
+      </c>
+      <c r="BP68">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7326963</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45389.125</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>73</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>91</v>
+      </c>
+      <c r="P69" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q69">
+        <v>3</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
+        <v>4</v>
+      </c>
+      <c r="T69">
+        <v>1.5</v>
+      </c>
+      <c r="U69">
+        <v>2.5</v>
+      </c>
+      <c r="V69">
+        <v>3.4</v>
+      </c>
+      <c r="W69">
+        <v>1.3</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>2.3</v>
+      </c>
+      <c r="AA69">
+        <v>3</v>
+      </c>
+      <c r="AB69">
+        <v>3.2</v>
+      </c>
+      <c r="AC69">
+        <v>1.08</v>
+      </c>
+      <c r="AD69">
+        <v>7.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.55</v>
+      </c>
+      <c r="AF69">
+        <v>2.3</v>
+      </c>
+      <c r="AG69">
+        <v>2.5</v>
+      </c>
+      <c r="AH69">
+        <v>1.46</v>
+      </c>
+      <c r="AI69">
+        <v>1.95</v>
+      </c>
+      <c r="AJ69">
+        <v>1.8</v>
+      </c>
+      <c r="AK69">
+        <v>1.3</v>
+      </c>
+      <c r="AL69">
+        <v>1.3</v>
+      </c>
+      <c r="AM69">
+        <v>1.65</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
+        <v>1.5</v>
+      </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
+        <v>1.33</v>
+      </c>
+      <c r="AR69">
+        <v>0.99</v>
+      </c>
+      <c r="AS69">
+        <v>1.05</v>
+      </c>
+      <c r="AT69">
+        <v>2.04</v>
+      </c>
+      <c r="AU69">
+        <v>2</v>
+      </c>
+      <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
+        <v>3</v>
+      </c>
+      <c r="AX69">
+        <v>7</v>
+      </c>
+      <c r="AY69">
+        <v>5</v>
+      </c>
+      <c r="AZ69">
+        <v>10</v>
+      </c>
+      <c r="BA69">
+        <v>2</v>
+      </c>
+      <c r="BB69">
+        <v>8</v>
+      </c>
+      <c r="BC69">
+        <v>10</v>
+      </c>
+      <c r="BD69">
+        <v>1.71</v>
+      </c>
+      <c r="BE69">
+        <v>7.5</v>
+      </c>
+      <c r="BF69">
+        <v>3</v>
+      </c>
+      <c r="BG69">
+        <v>1.37</v>
+      </c>
+      <c r="BH69">
+        <v>3.1</v>
+      </c>
+      <c r="BI69">
+        <v>1.65</v>
+      </c>
+      <c r="BJ69">
+        <v>2.24</v>
+      </c>
+      <c r="BK69">
+        <v>2.05</v>
+      </c>
+      <c r="BL69">
+        <v>1.77</v>
+      </c>
+      <c r="BM69">
+        <v>2.7</v>
+      </c>
+      <c r="BN69">
+        <v>1.47</v>
+      </c>
+      <c r="BO69">
+        <v>3.78</v>
+      </c>
+      <c r="BP69">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7326964</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45389.20833333334</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>85</v>
+      </c>
+      <c r="H70" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>138</v>
+      </c>
+      <c r="P70" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q70">
+        <v>3.75</v>
+      </c>
+      <c r="R70">
+        <v>2.13</v>
+      </c>
+      <c r="S70">
+        <v>3.23</v>
+      </c>
+      <c r="T70">
+        <v>1.47</v>
+      </c>
+      <c r="U70">
+        <v>2.76</v>
+      </c>
+      <c r="V70">
+        <v>3.33</v>
+      </c>
+      <c r="W70">
+        <v>1.35</v>
+      </c>
+      <c r="X70">
+        <v>8.4</v>
+      </c>
+      <c r="Y70">
+        <v>1.05</v>
+      </c>
+      <c r="Z70">
+        <v>3</v>
+      </c>
+      <c r="AA70">
+        <v>3</v>
+      </c>
+      <c r="AB70">
+        <v>2.4</v>
+      </c>
+      <c r="AC70">
+        <v>1.04</v>
+      </c>
+      <c r="AD70">
+        <v>7.6</v>
+      </c>
+      <c r="AE70">
+        <v>1.36</v>
+      </c>
+      <c r="AF70">
+        <v>2.8</v>
+      </c>
+      <c r="AG70">
+        <v>2.2</v>
+      </c>
+      <c r="AH70">
+        <v>1.6</v>
+      </c>
+      <c r="AI70">
+        <v>1.9</v>
+      </c>
+      <c r="AJ70">
+        <v>1.93</v>
+      </c>
+      <c r="AK70">
+        <v>1.55</v>
+      </c>
+      <c r="AL70">
+        <v>1.38</v>
+      </c>
+      <c r="AM70">
+        <v>1.4</v>
+      </c>
+      <c r="AN70">
+        <v>1.33</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>1.75</v>
+      </c>
+      <c r="AQ70">
+        <v>0.75</v>
+      </c>
+      <c r="AR70">
+        <v>1.21</v>
+      </c>
+      <c r="AS70">
+        <v>1.13</v>
+      </c>
+      <c r="AT70">
+        <v>2.34</v>
+      </c>
+      <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
+        <v>4</v>
+      </c>
+      <c r="AW70">
+        <v>4</v>
+      </c>
+      <c r="AX70">
+        <v>7</v>
+      </c>
+      <c r="AY70">
+        <v>9</v>
+      </c>
+      <c r="AZ70">
+        <v>11</v>
+      </c>
+      <c r="BA70">
+        <v>6</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>10</v>
+      </c>
+      <c r="BD70">
+        <v>2.05</v>
+      </c>
+      <c r="BE70">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF70">
+        <v>2.03</v>
+      </c>
+      <c r="BG70">
+        <v>1.26</v>
+      </c>
+      <c r="BH70">
+        <v>3.34</v>
+      </c>
+      <c r="BI70">
+        <v>1.5</v>
+      </c>
+      <c r="BJ70">
+        <v>2.41</v>
+      </c>
+      <c r="BK70">
+        <v>1.87</v>
+      </c>
+      <c r="BL70">
+        <v>1.87</v>
+      </c>
+      <c r="BM70">
+        <v>2.41</v>
+      </c>
+      <c r="BN70">
+        <v>1.5</v>
+      </c>
+      <c r="BO70">
+        <v>3.2</v>
+      </c>
+      <c r="BP70">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>['55', '90+7']</t>
+  </si>
+  <si>
+    <t>['53', '90+8']</t>
   </si>
   <si>
     <t>['19', '47', '62']</t>
@@ -909,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1374,7 +1377,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1580,7 +1583,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1992,7 +1995,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2279,7 +2282,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2404,7 +2407,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2610,7 +2613,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2816,7 +2819,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3022,7 +3025,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3228,7 +3231,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3306,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3434,7 +3437,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3640,7 +3643,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4052,7 +4055,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4464,7 +4467,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4670,7 +4673,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5082,7 +5085,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5288,7 +5291,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6318,7 +6321,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6524,7 +6527,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6730,7 +6733,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7142,7 +7145,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7348,7 +7351,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7760,7 +7763,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7966,7 +7969,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8172,7 +8175,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8378,7 +8381,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8584,7 +8587,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8790,7 +8793,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8996,7 +8999,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9202,7 +9205,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9408,7 +9411,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9489,7 +9492,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -10232,7 +10235,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10438,7 +10441,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10850,7 +10853,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11880,7 +11883,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12292,7 +12295,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12782,7 +12785,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
         <v>1.33</v>
@@ -12910,7 +12913,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13116,7 +13119,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13403,7 +13406,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -13734,7 +13737,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14146,7 +14149,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14352,7 +14355,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14558,7 +14561,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15333,6 +15336,212 @@
       </c>
       <c r="BP70">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7326916</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45392.29166666666</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71" t="s">
+        <v>86</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>139</v>
+      </c>
+      <c r="P71" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71">
+        <v>2.38</v>
+      </c>
+      <c r="R71">
+        <v>2.49</v>
+      </c>
+      <c r="S71">
+        <v>4.47</v>
+      </c>
+      <c r="T71">
+        <v>1.3</v>
+      </c>
+      <c r="U71">
+        <v>3.34</v>
+      </c>
+      <c r="V71">
+        <v>2.48</v>
+      </c>
+      <c r="W71">
+        <v>1.56</v>
+      </c>
+      <c r="X71">
+        <v>5.55</v>
+      </c>
+      <c r="Y71">
+        <v>1.12</v>
+      </c>
+      <c r="Z71">
+        <v>1.87</v>
+      </c>
+      <c r="AA71">
+        <v>3.61</v>
+      </c>
+      <c r="AB71">
+        <v>3.38</v>
+      </c>
+      <c r="AC71">
+        <v>1.02</v>
+      </c>
+      <c r="AD71">
+        <v>9.65</v>
+      </c>
+      <c r="AE71">
+        <v>1.21</v>
+      </c>
+      <c r="AF71">
+        <v>4.67</v>
+      </c>
+      <c r="AG71">
+        <v>1.62</v>
+      </c>
+      <c r="AH71">
+        <v>2.16</v>
+      </c>
+      <c r="AI71">
+        <v>1.62</v>
+      </c>
+      <c r="AJ71">
+        <v>2.35</v>
+      </c>
+      <c r="AK71">
+        <v>1.27</v>
+      </c>
+      <c r="AL71">
+        <v>1.27</v>
+      </c>
+      <c r="AM71">
+        <v>2</v>
+      </c>
+      <c r="AN71">
+        <v>0.5</v>
+      </c>
+      <c r="AO71">
+        <v>0.67</v>
+      </c>
+      <c r="AP71">
+        <v>1.33</v>
+      </c>
+      <c r="AQ71">
+        <v>0.5</v>
+      </c>
+      <c r="AR71">
+        <v>2</v>
+      </c>
+      <c r="AS71">
+        <v>1.23</v>
+      </c>
+      <c r="AT71">
+        <v>3.23</v>
+      </c>
+      <c r="AU71">
+        <v>6</v>
+      </c>
+      <c r="AV71">
+        <v>9</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>8</v>
+      </c>
+      <c r="AY71">
+        <v>11</v>
+      </c>
+      <c r="AZ71">
+        <v>17</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>11</v>
+      </c>
+      <c r="BC71">
+        <v>14</v>
+      </c>
+      <c r="BD71">
+        <v>1.57</v>
+      </c>
+      <c r="BE71">
+        <v>8.5</v>
+      </c>
+      <c r="BF71">
+        <v>2.7</v>
+      </c>
+      <c r="BG71">
+        <v>1.17</v>
+      </c>
+      <c r="BH71">
+        <v>4.6</v>
+      </c>
+      <c r="BI71">
+        <v>1.34</v>
+      </c>
+      <c r="BJ71">
+        <v>3.1</v>
+      </c>
+      <c r="BK71">
+        <v>1.58</v>
+      </c>
+      <c r="BL71">
+        <v>2.33</v>
+      </c>
+      <c r="BM71">
+        <v>1.93</v>
+      </c>
+      <c r="BN71">
+        <v>1.87</v>
+      </c>
+      <c r="BO71">
+        <v>2.41</v>
+      </c>
+      <c r="BP71">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>['53', '90+8']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
   <si>
     <t>['19', '47', '62']</t>
@@ -912,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1255,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1377,7 +1380,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1583,7 +1586,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1995,7 +1998,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2407,7 +2410,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2613,7 +2616,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2819,7 +2822,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2897,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3025,7 +3028,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3231,7 +3234,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3437,7 +3440,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3643,7 +3646,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4055,7 +4058,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4467,7 +4470,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4673,7 +4676,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5085,7 +5088,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5291,7 +5294,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6321,7 +6324,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6527,7 +6530,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6733,7 +6736,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7020,7 +7023,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7145,7 +7148,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7351,7 +7354,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7763,7 +7766,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7969,7 +7972,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8175,7 +8178,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8253,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8381,7 +8384,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8587,7 +8590,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8793,7 +8796,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8999,7 +9002,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9080,7 +9083,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
         <v>0.99</v>
@@ -9205,7 +9208,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9411,7 +9414,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10235,7 +10238,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10441,7 +10444,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10853,7 +10856,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11883,7 +11886,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12295,7 +12298,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12579,7 +12582,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>2</v>
@@ -12913,7 +12916,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13119,7 +13122,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13200,7 +13203,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13737,7 +13740,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14149,7 +14152,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14355,7 +14358,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14561,7 +14564,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15542,6 +15545,212 @@
       </c>
       <c r="BP71">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7326965</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45394.29166666666</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s">
+        <v>87</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>140</v>
+      </c>
+      <c r="P72" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72">
+        <v>3.4</v>
+      </c>
+      <c r="R72">
+        <v>1.91</v>
+      </c>
+      <c r="S72">
+        <v>3.3</v>
+      </c>
+      <c r="T72">
+        <v>1.5</v>
+      </c>
+      <c r="U72">
+        <v>2.4</v>
+      </c>
+      <c r="V72">
+        <v>3.3</v>
+      </c>
+      <c r="W72">
+        <v>1.28</v>
+      </c>
+      <c r="X72">
+        <v>9.1</v>
+      </c>
+      <c r="Y72">
+        <v>1.04</v>
+      </c>
+      <c r="Z72">
+        <v>2.63</v>
+      </c>
+      <c r="AA72">
+        <v>2.98</v>
+      </c>
+      <c r="AB72">
+        <v>2.55</v>
+      </c>
+      <c r="AC72">
+        <v>1.09</v>
+      </c>
+      <c r="AD72">
+        <v>7</v>
+      </c>
+      <c r="AE72">
+        <v>1.45</v>
+      </c>
+      <c r="AF72">
+        <v>2.7</v>
+      </c>
+      <c r="AG72">
+        <v>2.25</v>
+      </c>
+      <c r="AH72">
+        <v>1.57</v>
+      </c>
+      <c r="AI72">
+        <v>1.91</v>
+      </c>
+      <c r="AJ72">
+        <v>1.77</v>
+      </c>
+      <c r="AK72">
+        <v>1.45</v>
+      </c>
+      <c r="AL72">
+        <v>1.3</v>
+      </c>
+      <c r="AM72">
+        <v>1.42</v>
+      </c>
+      <c r="AN72">
+        <v>0.67</v>
+      </c>
+      <c r="AO72">
+        <v>1</v>
+      </c>
+      <c r="AP72">
+        <v>1.25</v>
+      </c>
+      <c r="AQ72">
+        <v>0.8</v>
+      </c>
+      <c r="AR72">
+        <v>1.36</v>
+      </c>
+      <c r="AS72">
+        <v>1.48</v>
+      </c>
+      <c r="AT72">
+        <v>2.84</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>4</v>
+      </c>
+      <c r="AX72">
+        <v>5</v>
+      </c>
+      <c r="AY72">
+        <v>8</v>
+      </c>
+      <c r="AZ72">
+        <v>5</v>
+      </c>
+      <c r="BA72">
+        <v>2</v>
+      </c>
+      <c r="BB72">
+        <v>2</v>
+      </c>
+      <c r="BC72">
+        <v>4</v>
+      </c>
+      <c r="BD72">
+        <v>1.62</v>
+      </c>
+      <c r="BE72">
+        <v>8.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.6</v>
+      </c>
+      <c r="BG72">
+        <v>1.25</v>
+      </c>
+      <c r="BH72">
+        <v>3.6</v>
+      </c>
+      <c r="BI72">
+        <v>1.33</v>
+      </c>
+      <c r="BJ72">
+        <v>2.91</v>
+      </c>
+      <c r="BK72">
+        <v>1.61</v>
+      </c>
+      <c r="BL72">
+        <v>2.17</v>
+      </c>
+      <c r="BM72">
+        <v>2.04</v>
+      </c>
+      <c r="BN72">
+        <v>1.73</v>
+      </c>
+      <c r="BO72">
+        <v>2.62</v>
+      </c>
+      <c r="BP72">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,24 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['21', '48']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['28', '34']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -554,6 +572,24 @@
   </si>
   <si>
     <t>['32']</t>
+  </si>
+  <si>
+    <t>['41', '80']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['45', '89']</t>
+  </si>
+  <si>
+    <t>['68', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,7 +1416,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1586,7 +1622,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1664,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1870,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1998,7 +2034,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2282,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2410,7 +2446,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2491,7 +2527,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2616,7 +2652,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2694,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2822,7 +2858,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2903,7 +2939,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3028,7 +3064,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3106,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11">
         <v>2.25</v>
@@ -3234,7 +3270,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3312,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3440,7 +3476,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3646,7 +3682,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4058,7 +4094,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4345,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4470,7 +4506,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4548,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4676,7 +4712,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4757,7 +4793,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5088,7 +5124,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5294,7 +5330,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5372,7 +5408,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ22">
         <v>2</v>
@@ -5578,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5784,7 +5820,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -6196,7 +6232,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6324,7 +6360,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6405,7 +6441,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -6530,7 +6566,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6611,7 +6647,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -6736,7 +6772,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6814,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -7148,7 +7184,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7226,10 +7262,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
+        <v>1.2</v>
+      </c>
+      <c r="AQ31">
         <v>1.25</v>
-      </c>
-      <c r="AQ31">
-        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -7354,7 +7390,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7641,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7766,7 +7802,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7972,7 +8008,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8178,7 +8214,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8259,7 +8295,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8384,7 +8420,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8462,7 +8498,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8590,7 +8626,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8796,7 +8832,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8874,10 +8910,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.13</v>
@@ -9002,7 +9038,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9208,7 +9244,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9286,10 +9322,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9414,7 +9450,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9698,7 +9734,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -9907,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10113,7 +10149,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.96</v>
@@ -10238,7 +10274,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10444,7 +10480,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10522,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -10728,7 +10764,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -10856,7 +10892,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11140,7 +11176,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11346,7 +11382,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51">
         <v>0.75</v>
@@ -11555,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR52">
         <v>1.44</v>
@@ -11758,7 +11794,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -11886,7 +11922,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12173,7 +12209,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12298,7 +12334,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12376,10 +12412,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ56">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12788,10 +12824,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>2.12</v>
@@ -12916,7 +12952,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -12997,7 +13033,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13122,7 +13158,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13612,7 +13648,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -13740,7 +13776,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14152,7 +14188,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14230,7 +14266,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ65">
         <v>2</v>
@@ -14358,7 +14394,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14564,7 +14600,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15466,7 +15502,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
         <v>0.5</v>
@@ -15690,28 +15726,28 @@
         <v>4</v>
       </c>
       <c r="AV72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX72">
+        <v>7</v>
+      </c>
+      <c r="AY72">
+        <v>10</v>
+      </c>
+      <c r="AZ72">
+        <v>9</v>
+      </c>
+      <c r="BA72">
         <v>5</v>
       </c>
-      <c r="AY72">
+      <c r="BB72">
+        <v>3</v>
+      </c>
+      <c r="BC72">
         <v>8</v>
-      </c>
-      <c r="AZ72">
-        <v>5</v>
-      </c>
-      <c r="BA72">
-        <v>2</v>
-      </c>
-      <c r="BB72">
-        <v>2</v>
-      </c>
-      <c r="BC72">
-        <v>4</v>
       </c>
       <c r="BD72">
         <v>1.62</v>
@@ -15751,6 +15787,1654 @@
       </c>
       <c r="BP72">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7326966</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45395.08333333334</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>141</v>
+      </c>
+      <c r="P73" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q73">
+        <v>2.2</v>
+      </c>
+      <c r="R73">
+        <v>2.3</v>
+      </c>
+      <c r="S73">
+        <v>5.5</v>
+      </c>
+      <c r="T73">
+        <v>1.36</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+      <c r="V73">
+        <v>2.63</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>7</v>
+      </c>
+      <c r="Y73">
+        <v>1.1</v>
+      </c>
+      <c r="Z73">
+        <v>1.75</v>
+      </c>
+      <c r="AA73">
+        <v>3.7</v>
+      </c>
+      <c r="AB73">
+        <v>4.1</v>
+      </c>
+      <c r="AC73">
+        <v>1.04</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>1.25</v>
+      </c>
+      <c r="AF73">
+        <v>3.8</v>
+      </c>
+      <c r="AG73">
+        <v>1.68</v>
+      </c>
+      <c r="AH73">
+        <v>2.1</v>
+      </c>
+      <c r="AI73">
+        <v>1.8</v>
+      </c>
+      <c r="AJ73">
+        <v>1.95</v>
+      </c>
+      <c r="AK73">
+        <v>1.17</v>
+      </c>
+      <c r="AL73">
+        <v>1.25</v>
+      </c>
+      <c r="AM73">
+        <v>2.22</v>
+      </c>
+      <c r="AN73">
+        <v>1.33</v>
+      </c>
+      <c r="AO73">
+        <v>1</v>
+      </c>
+      <c r="AP73">
+        <v>1.25</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>1.82</v>
+      </c>
+      <c r="AS73">
+        <v>1.33</v>
+      </c>
+      <c r="AT73">
+        <v>3.15</v>
+      </c>
+      <c r="AU73">
+        <v>10</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>5</v>
+      </c>
+      <c r="AX73">
+        <v>8</v>
+      </c>
+      <c r="AY73">
+        <v>15</v>
+      </c>
+      <c r="AZ73">
+        <v>13</v>
+      </c>
+      <c r="BA73">
+        <v>6</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>1.67</v>
+      </c>
+      <c r="BE73">
+        <v>9</v>
+      </c>
+      <c r="BF73">
+        <v>2.4</v>
+      </c>
+      <c r="BG73">
+        <v>1.11</v>
+      </c>
+      <c r="BH73">
+        <v>5.8</v>
+      </c>
+      <c r="BI73">
+        <v>1.23</v>
+      </c>
+      <c r="BJ73">
+        <v>3.9</v>
+      </c>
+      <c r="BK73">
+        <v>1.25</v>
+      </c>
+      <c r="BL73">
+        <v>3.42</v>
+      </c>
+      <c r="BM73">
+        <v>1.46</v>
+      </c>
+      <c r="BN73">
+        <v>2.52</v>
+      </c>
+      <c r="BO73">
+        <v>1.8</v>
+      </c>
+      <c r="BP73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7326967</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45395.08333333334</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>88</v>
+      </c>
+      <c r="H74" t="s">
+        <v>89</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>142</v>
+      </c>
+      <c r="P74" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q74">
+        <v>3</v>
+      </c>
+      <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
+        <v>3.35</v>
+      </c>
+      <c r="T74">
+        <v>1.4</v>
+      </c>
+      <c r="U74">
+        <v>2.75</v>
+      </c>
+      <c r="V74">
+        <v>2.8</v>
+      </c>
+      <c r="W74">
+        <v>1.38</v>
+      </c>
+      <c r="X74">
+        <v>7.1</v>
+      </c>
+      <c r="Y74">
+        <v>1.08</v>
+      </c>
+      <c r="Z74">
+        <v>2.38</v>
+      </c>
+      <c r="AA74">
+        <v>3.25</v>
+      </c>
+      <c r="AB74">
+        <v>2.88</v>
+      </c>
+      <c r="AC74">
+        <v>1.05</v>
+      </c>
+      <c r="AD74">
+        <v>9</v>
+      </c>
+      <c r="AE74">
+        <v>1.3</v>
+      </c>
+      <c r="AF74">
+        <v>3.4</v>
+      </c>
+      <c r="AG74">
+        <v>1.91</v>
+      </c>
+      <c r="AH74">
+        <v>1.84</v>
+      </c>
+      <c r="AI74">
+        <v>1.7</v>
+      </c>
+      <c r="AJ74">
+        <v>2</v>
+      </c>
+      <c r="AK74">
+        <v>1.42</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>1.55</v>
+      </c>
+      <c r="AN74">
+        <v>1.33</v>
+      </c>
+      <c r="AO74">
+        <v>0.33</v>
+      </c>
+      <c r="AP74">
+        <v>1.25</v>
+      </c>
+      <c r="AQ74">
+        <v>0.5</v>
+      </c>
+      <c r="AR74">
+        <v>1.28</v>
+      </c>
+      <c r="AS74">
+        <v>1</v>
+      </c>
+      <c r="AT74">
+        <v>2.28</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>5</v>
+      </c>
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>11</v>
+      </c>
+      <c r="AZ74">
+        <v>7</v>
+      </c>
+      <c r="BA74">
+        <v>5</v>
+      </c>
+      <c r="BB74">
+        <v>6</v>
+      </c>
+      <c r="BC74">
+        <v>11</v>
+      </c>
+      <c r="BD74">
+        <v>1.57</v>
+      </c>
+      <c r="BE74">
+        <v>8</v>
+      </c>
+      <c r="BF74">
+        <v>2.88</v>
+      </c>
+      <c r="BG74">
+        <v>1.39</v>
+      </c>
+      <c r="BH74">
+        <v>2.76</v>
+      </c>
+      <c r="BI74">
+        <v>1.72</v>
+      </c>
+      <c r="BJ74">
+        <v>2.05</v>
+      </c>
+      <c r="BK74">
+        <v>2.19</v>
+      </c>
+      <c r="BL74">
+        <v>1.6</v>
+      </c>
+      <c r="BM74">
+        <v>2.93</v>
+      </c>
+      <c r="BN74">
+        <v>1.33</v>
+      </c>
+      <c r="BO74">
+        <v>3.48</v>
+      </c>
+      <c r="BP74">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7326968</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45395.08333333334</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>91</v>
+      </c>
+      <c r="P75" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q75">
+        <v>3.6</v>
+      </c>
+      <c r="R75">
+        <v>2.1</v>
+      </c>
+      <c r="S75">
+        <v>3.1</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.63</v>
+      </c>
+      <c r="V75">
+        <v>3</v>
+      </c>
+      <c r="W75">
+        <v>1.36</v>
+      </c>
+      <c r="X75">
+        <v>9</v>
+      </c>
+      <c r="Y75">
+        <v>1.07</v>
+      </c>
+      <c r="Z75">
+        <v>2.6</v>
+      </c>
+      <c r="AA75">
+        <v>3.05</v>
+      </c>
+      <c r="AB75">
+        <v>2.75</v>
+      </c>
+      <c r="AC75">
+        <v>1.07</v>
+      </c>
+      <c r="AD75">
+        <v>8</v>
+      </c>
+      <c r="AE75">
+        <v>1.33</v>
+      </c>
+      <c r="AF75">
+        <v>3.1</v>
+      </c>
+      <c r="AG75">
+        <v>2.2</v>
+      </c>
+      <c r="AH75">
+        <v>1.64</v>
+      </c>
+      <c r="AI75">
+        <v>1.8</v>
+      </c>
+      <c r="AJ75">
+        <v>1.95</v>
+      </c>
+      <c r="AK75">
+        <v>1.55</v>
+      </c>
+      <c r="AL75">
+        <v>1.28</v>
+      </c>
+      <c r="AM75">
+        <v>1.38</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
+        <v>2</v>
+      </c>
+      <c r="AP75">
+        <v>0.75</v>
+      </c>
+      <c r="AQ75">
+        <v>2.25</v>
+      </c>
+      <c r="AR75">
+        <v>1.09</v>
+      </c>
+      <c r="AS75">
+        <v>1.06</v>
+      </c>
+      <c r="AT75">
+        <v>2.15</v>
+      </c>
+      <c r="AU75">
+        <v>2</v>
+      </c>
+      <c r="AV75">
+        <v>3</v>
+      </c>
+      <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>5</v>
+      </c>
+      <c r="AY75">
+        <v>8</v>
+      </c>
+      <c r="AZ75">
+        <v>8</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>2</v>
+      </c>
+      <c r="BC75">
+        <v>8</v>
+      </c>
+      <c r="BD75">
+        <v>1.5</v>
+      </c>
+      <c r="BE75">
+        <v>8.5</v>
+      </c>
+      <c r="BF75">
+        <v>3</v>
+      </c>
+      <c r="BG75">
+        <v>1.21</v>
+      </c>
+      <c r="BH75">
+        <v>3.74</v>
+      </c>
+      <c r="BI75">
+        <v>1.42</v>
+      </c>
+      <c r="BJ75">
+        <v>2.65</v>
+      </c>
+      <c r="BK75">
+        <v>1.75</v>
+      </c>
+      <c r="BL75">
+        <v>2.01</v>
+      </c>
+      <c r="BM75">
+        <v>2.19</v>
+      </c>
+      <c r="BN75">
+        <v>1.6</v>
+      </c>
+      <c r="BO75">
+        <v>2.88</v>
+      </c>
+      <c r="BP75">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7326969</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45395.08333333334</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>143</v>
+      </c>
+      <c r="P76" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q76">
+        <v>5.5</v>
+      </c>
+      <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>2.5</v>
+      </c>
+      <c r="T76">
+        <v>1.5</v>
+      </c>
+      <c r="U76">
+        <v>2.5</v>
+      </c>
+      <c r="V76">
+        <v>3.4</v>
+      </c>
+      <c r="W76">
+        <v>1.3</v>
+      </c>
+      <c r="X76">
+        <v>10</v>
+      </c>
+      <c r="Y76">
+        <v>1.06</v>
+      </c>
+      <c r="Z76">
+        <v>5</v>
+      </c>
+      <c r="AA76">
+        <v>3.45</v>
+      </c>
+      <c r="AB76">
+        <v>1.7</v>
+      </c>
+      <c r="AC76">
+        <v>1.08</v>
+      </c>
+      <c r="AD76">
+        <v>7.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.4</v>
+      </c>
+      <c r="AF76">
+        <v>2.8</v>
+      </c>
+      <c r="AG76">
+        <v>2.32</v>
+      </c>
+      <c r="AH76">
+        <v>1.58</v>
+      </c>
+      <c r="AI76">
+        <v>2.05</v>
+      </c>
+      <c r="AJ76">
+        <v>1.7</v>
+      </c>
+      <c r="AK76">
+        <v>1.95</v>
+      </c>
+      <c r="AL76">
+        <v>1.25</v>
+      </c>
+      <c r="AM76">
+        <v>1.15</v>
+      </c>
+      <c r="AN76">
+        <v>1.25</v>
+      </c>
+      <c r="AO76">
+        <v>1.67</v>
+      </c>
+      <c r="AP76">
+        <v>1.2</v>
+      </c>
+      <c r="AQ76">
+        <v>1.5</v>
+      </c>
+      <c r="AR76">
+        <v>1.45</v>
+      </c>
+      <c r="AS76">
+        <v>1.41</v>
+      </c>
+      <c r="AT76">
+        <v>2.86</v>
+      </c>
+      <c r="AU76">
+        <v>4</v>
+      </c>
+      <c r="AV76">
+        <v>5</v>
+      </c>
+      <c r="AW76">
+        <v>3</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>7</v>
+      </c>
+      <c r="AZ76">
+        <v>9</v>
+      </c>
+      <c r="BA76">
+        <v>4</v>
+      </c>
+      <c r="BB76">
+        <v>6</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>1.44</v>
+      </c>
+      <c r="BE76">
+        <v>8.5</v>
+      </c>
+      <c r="BF76">
+        <v>3.4</v>
+      </c>
+      <c r="BG76">
+        <v>1.36</v>
+      </c>
+      <c r="BH76">
+        <v>2.89</v>
+      </c>
+      <c r="BI76">
+        <v>1.67</v>
+      </c>
+      <c r="BJ76">
+        <v>2.13</v>
+      </c>
+      <c r="BK76">
+        <v>2.11</v>
+      </c>
+      <c r="BL76">
+        <v>1.65</v>
+      </c>
+      <c r="BM76">
+        <v>2.79</v>
+      </c>
+      <c r="BN76">
+        <v>1.36</v>
+      </c>
+      <c r="BO76">
+        <v>3.56</v>
+      </c>
+      <c r="BP76">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7326970</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45395.125</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>100</v>
+      </c>
+      <c r="P77" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77">
+        <v>2.5</v>
+      </c>
+      <c r="R77">
+        <v>2.1</v>
+      </c>
+      <c r="S77">
+        <v>5</v>
+      </c>
+      <c r="T77">
+        <v>1.44</v>
+      </c>
+      <c r="U77">
+        <v>2.63</v>
+      </c>
+      <c r="V77">
+        <v>3.25</v>
+      </c>
+      <c r="W77">
+        <v>1.33</v>
+      </c>
+      <c r="X77">
+        <v>9</v>
+      </c>
+      <c r="Y77">
+        <v>1.07</v>
+      </c>
+      <c r="Z77">
+        <v>1.81</v>
+      </c>
+      <c r="AA77">
+        <v>3.35</v>
+      </c>
+      <c r="AB77">
+        <v>4.35</v>
+      </c>
+      <c r="AC77">
+        <v>1.04</v>
+      </c>
+      <c r="AD77">
+        <v>7.5</v>
+      </c>
+      <c r="AE77">
+        <v>1.38</v>
+      </c>
+      <c r="AF77">
+        <v>2.9</v>
+      </c>
+      <c r="AG77">
+        <v>2.23</v>
+      </c>
+      <c r="AH77">
+        <v>1.61</v>
+      </c>
+      <c r="AI77">
+        <v>2</v>
+      </c>
+      <c r="AJ77">
+        <v>1.75</v>
+      </c>
+      <c r="AK77">
+        <v>1.16</v>
+      </c>
+      <c r="AL77">
+        <v>1.25</v>
+      </c>
+      <c r="AM77">
+        <v>1.95</v>
+      </c>
+      <c r="AN77">
+        <v>2.33</v>
+      </c>
+      <c r="AO77">
+        <v>1.5</v>
+      </c>
+      <c r="AP77">
+        <v>2.5</v>
+      </c>
+      <c r="AQ77">
+        <v>1.2</v>
+      </c>
+      <c r="AR77">
+        <v>1.24</v>
+      </c>
+      <c r="AS77">
+        <v>1.36</v>
+      </c>
+      <c r="AT77">
+        <v>2.6</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>2</v>
+      </c>
+      <c r="AW77">
+        <v>9</v>
+      </c>
+      <c r="AX77">
+        <v>6</v>
+      </c>
+      <c r="AY77">
+        <v>14</v>
+      </c>
+      <c r="AZ77">
+        <v>8</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>11</v>
+      </c>
+      <c r="BD77">
+        <v>1.62</v>
+      </c>
+      <c r="BE77">
+        <v>8.5</v>
+      </c>
+      <c r="BF77">
+        <v>2.75</v>
+      </c>
+      <c r="BG77">
+        <v>1.18</v>
+      </c>
+      <c r="BH77">
+        <v>4.5</v>
+      </c>
+      <c r="BI77">
+        <v>1.3</v>
+      </c>
+      <c r="BJ77">
+        <v>3.08</v>
+      </c>
+      <c r="BK77">
+        <v>1.56</v>
+      </c>
+      <c r="BL77">
+        <v>2.27</v>
+      </c>
+      <c r="BM77">
+        <v>1.98</v>
+      </c>
+      <c r="BN77">
+        <v>1.82</v>
+      </c>
+      <c r="BO77">
+        <v>2.49</v>
+      </c>
+      <c r="BP77">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7326971</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45395.125</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>75</v>
+      </c>
+      <c r="H78" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>144</v>
+      </c>
+      <c r="P78" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q78">
+        <v>3.4</v>
+      </c>
+      <c r="R78">
+        <v>2.05</v>
+      </c>
+      <c r="S78">
+        <v>3.4</v>
+      </c>
+      <c r="T78">
+        <v>1.5</v>
+      </c>
+      <c r="U78">
+        <v>2.5</v>
+      </c>
+      <c r="V78">
+        <v>3.4</v>
+      </c>
+      <c r="W78">
+        <v>1.3</v>
+      </c>
+      <c r="X78">
+        <v>10</v>
+      </c>
+      <c r="Y78">
+        <v>1.06</v>
+      </c>
+      <c r="Z78">
+        <v>3</v>
+      </c>
+      <c r="AA78">
+        <v>3.15</v>
+      </c>
+      <c r="AB78">
+        <v>2.35</v>
+      </c>
+      <c r="AC78">
+        <v>1.06</v>
+      </c>
+      <c r="AD78">
+        <v>8.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.4</v>
+      </c>
+      <c r="AF78">
+        <v>2.8</v>
+      </c>
+      <c r="AG78">
+        <v>2.18</v>
+      </c>
+      <c r="AH78">
+        <v>1.65</v>
+      </c>
+      <c r="AI78">
+        <v>1.95</v>
+      </c>
+      <c r="AJ78">
+        <v>1.8</v>
+      </c>
+      <c r="AK78">
+        <v>1.45</v>
+      </c>
+      <c r="AL78">
+        <v>1.28</v>
+      </c>
+      <c r="AM78">
+        <v>1.45</v>
+      </c>
+      <c r="AN78">
+        <v>1.75</v>
+      </c>
+      <c r="AO78">
+        <v>2.33</v>
+      </c>
+      <c r="AP78">
+        <v>1.4</v>
+      </c>
+      <c r="AQ78">
+        <v>2.5</v>
+      </c>
+      <c r="AR78">
+        <v>1.27</v>
+      </c>
+      <c r="AS78">
+        <v>1.49</v>
+      </c>
+      <c r="AT78">
+        <v>2.76</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>7</v>
+      </c>
+      <c r="AW78">
+        <v>5</v>
+      </c>
+      <c r="AX78">
+        <v>5</v>
+      </c>
+      <c r="AY78">
+        <v>11</v>
+      </c>
+      <c r="AZ78">
+        <v>12</v>
+      </c>
+      <c r="BA78">
+        <v>7</v>
+      </c>
+      <c r="BB78">
+        <v>4</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>1.95</v>
+      </c>
+      <c r="BE78">
+        <v>7.5</v>
+      </c>
+      <c r="BF78">
+        <v>2.1</v>
+      </c>
+      <c r="BG78">
+        <v>1.4</v>
+      </c>
+      <c r="BH78">
+        <v>2.72</v>
+      </c>
+      <c r="BI78">
+        <v>1.74</v>
+      </c>
+      <c r="BJ78">
+        <v>2.02</v>
+      </c>
+      <c r="BK78">
+        <v>2.21</v>
+      </c>
+      <c r="BL78">
+        <v>1.59</v>
+      </c>
+      <c r="BM78">
+        <v>2.98</v>
+      </c>
+      <c r="BN78">
+        <v>1.32</v>
+      </c>
+      <c r="BO78">
+        <v>3.6</v>
+      </c>
+      <c r="BP78">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7326972</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45395.125</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s">
+        <v>81</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>145</v>
+      </c>
+      <c r="P79" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79">
+        <v>3.25</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>3.2</v>
+      </c>
+      <c r="T79">
+        <v>1.42</v>
+      </c>
+      <c r="U79">
+        <v>2.65</v>
+      </c>
+      <c r="V79">
+        <v>2.88</v>
+      </c>
+      <c r="W79">
+        <v>1.36</v>
+      </c>
+      <c r="X79">
+        <v>7.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.07</v>
+      </c>
+      <c r="Z79">
+        <v>2.7</v>
+      </c>
+      <c r="AA79">
+        <v>3.15</v>
+      </c>
+      <c r="AB79">
+        <v>2.6</v>
+      </c>
+      <c r="AC79">
+        <v>1.02</v>
+      </c>
+      <c r="AD79">
+        <v>8.6</v>
+      </c>
+      <c r="AE79">
+        <v>1.34</v>
+      </c>
+      <c r="AF79">
+        <v>3.36</v>
+      </c>
+      <c r="AG79">
+        <v>2</v>
+      </c>
+      <c r="AH79">
+        <v>1.76</v>
+      </c>
+      <c r="AI79">
+        <v>1.73</v>
+      </c>
+      <c r="AJ79">
+        <v>1.95</v>
+      </c>
+      <c r="AK79">
+        <v>1.48</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.45</v>
+      </c>
+      <c r="AN79">
+        <v>2.33</v>
+      </c>
+      <c r="AO79">
+        <v>1.33</v>
+      </c>
+      <c r="AP79">
+        <v>2.5</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AR79">
+        <v>1.43</v>
+      </c>
+      <c r="AS79">
+        <v>1.22</v>
+      </c>
+      <c r="AT79">
+        <v>2.65</v>
+      </c>
+      <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>7</v>
+      </c>
+      <c r="AX79">
+        <v>5</v>
+      </c>
+      <c r="AY79">
+        <v>13</v>
+      </c>
+      <c r="AZ79">
+        <v>11</v>
+      </c>
+      <c r="BA79">
+        <v>6</v>
+      </c>
+      <c r="BB79">
+        <v>7</v>
+      </c>
+      <c r="BC79">
+        <v>13</v>
+      </c>
+      <c r="BD79">
+        <v>1.8</v>
+      </c>
+      <c r="BE79">
+        <v>8</v>
+      </c>
+      <c r="BF79">
+        <v>2.38</v>
+      </c>
+      <c r="BG79">
+        <v>1.32</v>
+      </c>
+      <c r="BH79">
+        <v>2.98</v>
+      </c>
+      <c r="BI79">
+        <v>1.6</v>
+      </c>
+      <c r="BJ79">
+        <v>2.19</v>
+      </c>
+      <c r="BK79">
+        <v>2.05</v>
+      </c>
+      <c r="BL79">
+        <v>1.72</v>
+      </c>
+      <c r="BM79">
+        <v>2.69</v>
+      </c>
+      <c r="BN79">
+        <v>1.41</v>
+      </c>
+      <c r="BO79">
+        <v>3.65</v>
+      </c>
+      <c r="BP79">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7326973</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45395.16666666666</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s">
+        <v>85</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>146</v>
+      </c>
+      <c r="P80" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q80">
+        <v>3.2</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>3.4</v>
+      </c>
+      <c r="T80">
+        <v>1.4</v>
+      </c>
+      <c r="U80">
+        <v>2.75</v>
+      </c>
+      <c r="V80">
+        <v>2.75</v>
+      </c>
+      <c r="W80">
+        <v>1.4</v>
+      </c>
+      <c r="X80">
+        <v>8</v>
+      </c>
+      <c r="Y80">
+        <v>1.08</v>
+      </c>
+      <c r="Z80">
+        <v>2.5</v>
+      </c>
+      <c r="AA80">
+        <v>3.05</v>
+      </c>
+      <c r="AB80">
+        <v>2.88</v>
+      </c>
+      <c r="AC80">
+        <v>1.02</v>
+      </c>
+      <c r="AD80">
+        <v>8.6</v>
+      </c>
+      <c r="AE80">
+        <v>1.3</v>
+      </c>
+      <c r="AF80">
+        <v>3.3</v>
+      </c>
+      <c r="AG80">
+        <v>2.2</v>
+      </c>
+      <c r="AH80">
+        <v>1.63</v>
+      </c>
+      <c r="AI80">
+        <v>1.7</v>
+      </c>
+      <c r="AJ80">
+        <v>2.05</v>
+      </c>
+      <c r="AK80">
+        <v>1.44</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.5</v>
+      </c>
+      <c r="AN80">
+        <v>0.75</v>
+      </c>
+      <c r="AO80">
+        <v>1.33</v>
+      </c>
+      <c r="AP80">
+        <v>0.8</v>
+      </c>
+      <c r="AQ80">
+        <v>1.25</v>
+      </c>
+      <c r="AR80">
+        <v>1.45</v>
+      </c>
+      <c r="AS80">
+        <v>0.95</v>
+      </c>
+      <c r="AT80">
+        <v>2.4</v>
+      </c>
+      <c r="AU80">
+        <v>8</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>3</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>11</v>
+      </c>
+      <c r="AZ80">
+        <v>9</v>
+      </c>
+      <c r="BA80">
+        <v>5</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>10</v>
+      </c>
+      <c r="BD80">
+        <v>1.91</v>
+      </c>
+      <c r="BE80">
+        <v>7.5</v>
+      </c>
+      <c r="BF80">
+        <v>2.2</v>
+      </c>
+      <c r="BG80">
+        <v>1.38</v>
+      </c>
+      <c r="BH80">
+        <v>2.8</v>
+      </c>
+      <c r="BI80">
+        <v>1.92</v>
+      </c>
+      <c r="BJ80">
+        <v>1.88</v>
+      </c>
+      <c r="BK80">
+        <v>2.16</v>
+      </c>
+      <c r="BL80">
+        <v>1.62</v>
+      </c>
+      <c r="BM80">
+        <v>2.88</v>
+      </c>
+      <c r="BN80">
+        <v>1.34</v>
+      </c>
+      <c r="BO80">
+        <v>3</v>
+      </c>
+      <c r="BP80">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,9 @@
     <t>['28', '34']</t>
   </si>
   <si>
+    <t>['45+3', '90+9']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -590,6 +593,9 @@
   </si>
   <si>
     <t>['68', '90+4']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,7 +1422,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1622,7 +1628,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2034,7 +2040,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2446,7 +2452,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2652,7 +2658,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2858,7 +2864,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3064,7 +3070,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3270,7 +3276,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3476,7 +3482,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3682,7 +3688,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4094,7 +4100,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4506,7 +4512,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4712,7 +4718,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4996,7 +5002,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5124,7 +5130,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5330,7 +5336,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6360,7 +6366,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6566,7 +6572,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6772,7 +6778,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7184,7 +7190,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7390,7 +7396,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7802,7 +7808,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8008,7 +8014,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8086,7 +8092,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8214,7 +8220,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8420,7 +8426,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8626,7 +8632,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8832,7 +8838,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9038,7 +9044,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9244,7 +9250,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9450,7 +9456,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10274,7 +10280,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10480,7 +10486,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10892,7 +10898,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11922,7 +11928,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12206,7 +12212,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55">
         <v>1.2</v>
@@ -12334,7 +12340,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12952,7 +12958,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13158,7 +13164,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13776,7 +13782,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14188,7 +14194,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14394,7 +14400,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14600,7 +14606,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15836,7 +15842,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16042,7 +16048,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16248,7 +16254,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16454,7 +16460,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16866,7 +16872,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17278,7 +17284,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17435,6 +17441,212 @@
       </c>
       <c r="BP80">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7326974</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45396.125</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81" t="s">
+        <v>74</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>147</v>
+      </c>
+      <c r="P81" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q81">
+        <v>2.38</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>4.75</v>
+      </c>
+      <c r="T81">
+        <v>1.36</v>
+      </c>
+      <c r="U81">
+        <v>3</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>1.64</v>
+      </c>
+      <c r="AA81">
+        <v>4.1</v>
+      </c>
+      <c r="AB81">
+        <v>5.2</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>9.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.28</v>
+      </c>
+      <c r="AF81">
+        <v>3.5</v>
+      </c>
+      <c r="AG81">
+        <v>1.9</v>
+      </c>
+      <c r="AH81">
+        <v>1.9</v>
+      </c>
+      <c r="AI81">
+        <v>1.91</v>
+      </c>
+      <c r="AJ81">
+        <v>1.91</v>
+      </c>
+      <c r="AK81">
+        <v>1.15</v>
+      </c>
+      <c r="AL81">
+        <v>1.2</v>
+      </c>
+      <c r="AM81">
+        <v>2.05</v>
+      </c>
+      <c r="AN81">
+        <v>2.33</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>2.5</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>1.58</v>
+      </c>
+      <c r="AS81">
+        <v>1.02</v>
+      </c>
+      <c r="AT81">
+        <v>2.6</v>
+      </c>
+      <c r="AU81">
+        <v>11</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>11</v>
+      </c>
+      <c r="AX81">
+        <v>6</v>
+      </c>
+      <c r="AY81">
+        <v>22</v>
+      </c>
+      <c r="AZ81">
+        <v>11</v>
+      </c>
+      <c r="BA81">
+        <v>16</v>
+      </c>
+      <c r="BB81">
+        <v>3</v>
+      </c>
+      <c r="BC81">
+        <v>19</v>
+      </c>
+      <c r="BD81">
+        <v>1.62</v>
+      </c>
+      <c r="BE81">
+        <v>8</v>
+      </c>
+      <c r="BF81">
+        <v>2.62</v>
+      </c>
+      <c r="BG81">
+        <v>1.27</v>
+      </c>
+      <c r="BH81">
+        <v>3.28</v>
+      </c>
+      <c r="BI81">
+        <v>1.52</v>
+      </c>
+      <c r="BJ81">
+        <v>2.36</v>
+      </c>
+      <c r="BK81">
+        <v>1.95</v>
+      </c>
+      <c r="BL81">
+        <v>1.85</v>
+      </c>
+      <c r="BM81">
+        <v>2.49</v>
+      </c>
+      <c r="BN81">
+        <v>1.47</v>
+      </c>
+      <c r="BO81">
+        <v>3.34</v>
+      </c>
+      <c r="BP81">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,12 @@
     <t>['45+3', '90+9']</t>
   </si>
   <si>
+    <t>['30', '45+3', '80', '88']</t>
+  </si>
+  <si>
+    <t>['60', '78']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -596,6 +602,18 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['11', '86']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['30', '47']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1422,7 +1440,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1503,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1628,7 +1646,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1709,7 +1727,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1912,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -2040,7 +2058,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2118,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2327,7 +2345,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2452,7 +2470,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2530,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2658,7 +2676,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2864,7 +2882,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3070,7 +3088,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3276,7 +3294,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3482,7 +3500,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3560,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3688,7 +3706,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4100,7 +4118,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4384,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4512,7 +4530,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4718,7 +4736,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4799,7 +4817,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5005,7 +5023,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5130,7 +5148,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5208,10 +5226,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5336,7 +5354,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5829,7 +5847,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6238,7 +6256,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6366,7 +6384,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6447,7 +6465,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -6572,7 +6590,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6650,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ28">
         <v>1.2</v>
@@ -6778,7 +6796,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6859,7 +6877,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7062,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30">
         <v>0.8</v>
@@ -7190,7 +7208,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7268,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
         <v>1.25</v>
@@ -7396,7 +7414,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7474,7 +7492,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ32">
         <v>3</v>
@@ -7683,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7808,7 +7826,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7886,7 +7904,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -8014,7 +8032,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8095,7 +8113,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8220,7 +8238,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8426,7 +8444,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8507,7 +8525,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -8632,7 +8650,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8838,7 +8856,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9044,7 +9062,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9122,7 +9140,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ40">
         <v>0.8</v>
@@ -9250,7 +9268,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9456,7 +9474,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9537,7 +9555,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -10152,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -10280,7 +10298,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10358,7 +10376,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -10486,7 +10504,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10773,7 +10791,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -10898,7 +10916,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11388,10 +11406,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ51">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR51">
         <v>1.61</v>
@@ -11594,10 +11612,10 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR52">
         <v>1.44</v>
@@ -11803,7 +11821,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR53">
         <v>0.74</v>
@@ -11928,7 +11946,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12006,10 +12024,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12340,7 +12358,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12421,7 +12439,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12958,7 +12976,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13036,7 +13054,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ59">
         <v>2.25</v>
@@ -13164,7 +13182,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13448,10 +13466,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -13782,7 +13800,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -13863,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.8</v>
@@ -14194,7 +14212,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14400,7 +14418,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14606,7 +14624,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14684,7 +14702,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ67">
         <v>3</v>
@@ -14890,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68">
         <v>0</v>
@@ -15305,7 +15323,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ70">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -15511,7 +15529,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -15842,7 +15860,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16048,7 +16066,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16254,7 +16272,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16460,7 +16478,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16538,10 +16556,10 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -16872,7 +16890,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -16953,7 +16971,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -17284,7 +17302,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17490,7 +17508,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17647,6 +17665,1448 @@
       </c>
       <c r="BP81">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7326975</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45402.08333333334</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>134</v>
+      </c>
+      <c r="P82" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q82">
+        <v>4.5</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>2.6</v>
+      </c>
+      <c r="T82">
+        <v>1.44</v>
+      </c>
+      <c r="U82">
+        <v>2.63</v>
+      </c>
+      <c r="V82">
+        <v>3.25</v>
+      </c>
+      <c r="W82">
+        <v>1.33</v>
+      </c>
+      <c r="X82">
+        <v>9</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
+        <v>4.1</v>
+      </c>
+      <c r="AA82">
+        <v>3.75</v>
+      </c>
+      <c r="AB82">
+        <v>1.92</v>
+      </c>
+      <c r="AC82">
+        <v>1.06</v>
+      </c>
+      <c r="AD82">
+        <v>7.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.35</v>
+      </c>
+      <c r="AF82">
+        <v>2.94</v>
+      </c>
+      <c r="AG82">
+        <v>2.01</v>
+      </c>
+      <c r="AH82">
+        <v>1.85</v>
+      </c>
+      <c r="AI82">
+        <v>1.95</v>
+      </c>
+      <c r="AJ82">
+        <v>1.8</v>
+      </c>
+      <c r="AK82">
+        <v>1.83</v>
+      </c>
+      <c r="AL82">
+        <v>1.33</v>
+      </c>
+      <c r="AM82">
+        <v>1.25</v>
+      </c>
+      <c r="AN82">
+        <v>0.75</v>
+      </c>
+      <c r="AO82">
+        <v>1.5</v>
+      </c>
+      <c r="AP82">
+        <v>0.8</v>
+      </c>
+      <c r="AQ82">
+        <v>1.4</v>
+      </c>
+      <c r="AR82">
+        <v>1.24</v>
+      </c>
+      <c r="AS82">
+        <v>1.38</v>
+      </c>
+      <c r="AT82">
+        <v>2.62</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>7</v>
+      </c>
+      <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
+        <v>10</v>
+      </c>
+      <c r="AY82">
+        <v>6</v>
+      </c>
+      <c r="AZ82">
+        <v>17</v>
+      </c>
+      <c r="BA82">
+        <v>1</v>
+      </c>
+      <c r="BB82">
+        <v>8</v>
+      </c>
+      <c r="BC82">
+        <v>9</v>
+      </c>
+      <c r="BD82">
+        <v>2.6</v>
+      </c>
+      <c r="BE82">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF82">
+        <v>1.68</v>
+      </c>
+      <c r="BG82">
+        <v>1.33</v>
+      </c>
+      <c r="BH82">
+        <v>2.93</v>
+      </c>
+      <c r="BI82">
+        <v>1.62</v>
+      </c>
+      <c r="BJ82">
+        <v>2.17</v>
+      </c>
+      <c r="BK82">
+        <v>2.08</v>
+      </c>
+      <c r="BL82">
+        <v>1.7</v>
+      </c>
+      <c r="BM82">
+        <v>2.72</v>
+      </c>
+      <c r="BN82">
+        <v>1.4</v>
+      </c>
+      <c r="BO82">
+        <v>3.74</v>
+      </c>
+      <c r="BP82">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7326977</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45402.08333333334</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>83</v>
+      </c>
+      <c r="H83" t="s">
+        <v>88</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>91</v>
+      </c>
+      <c r="P83" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q83">
+        <v>3.1</v>
+      </c>
+      <c r="R83">
+        <v>2.05</v>
+      </c>
+      <c r="S83">
+        <v>3.6</v>
+      </c>
+      <c r="T83">
+        <v>1.44</v>
+      </c>
+      <c r="U83">
+        <v>2.63</v>
+      </c>
+      <c r="V83">
+        <v>3.4</v>
+      </c>
+      <c r="W83">
+        <v>1.3</v>
+      </c>
+      <c r="X83">
+        <v>10</v>
+      </c>
+      <c r="Y83">
+        <v>1.06</v>
+      </c>
+      <c r="Z83">
+        <v>2.43</v>
+      </c>
+      <c r="AA83">
+        <v>3.65</v>
+      </c>
+      <c r="AB83">
+        <v>2.9</v>
+      </c>
+      <c r="AC83">
+        <v>1.06</v>
+      </c>
+      <c r="AD83">
+        <v>7.25</v>
+      </c>
+      <c r="AE83">
+        <v>1.39</v>
+      </c>
+      <c r="AF83">
+        <v>2.79</v>
+      </c>
+      <c r="AG83">
+        <v>2.17</v>
+      </c>
+      <c r="AH83">
+        <v>1.61</v>
+      </c>
+      <c r="AI83">
+        <v>1.95</v>
+      </c>
+      <c r="AJ83">
+        <v>1.8</v>
+      </c>
+      <c r="AK83">
+        <v>1.42</v>
+      </c>
+      <c r="AL83">
+        <v>1.25</v>
+      </c>
+      <c r="AM83">
+        <v>1.57</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>1.4</v>
+      </c>
+      <c r="AR83">
+        <v>1.71</v>
+      </c>
+      <c r="AS83">
+        <v>1.39</v>
+      </c>
+      <c r="AT83">
+        <v>3.1</v>
+      </c>
+      <c r="AU83">
+        <v>2</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83">
+        <v>6</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>8</v>
+      </c>
+      <c r="AZ83">
+        <v>9</v>
+      </c>
+      <c r="BA83">
+        <v>8</v>
+      </c>
+      <c r="BB83">
+        <v>7</v>
+      </c>
+      <c r="BC83">
+        <v>15</v>
+      </c>
+      <c r="BD83">
+        <v>1.93</v>
+      </c>
+      <c r="BE83">
+        <v>9.1</v>
+      </c>
+      <c r="BF83">
+        <v>2.15</v>
+      </c>
+      <c r="BG83">
+        <v>1.21</v>
+      </c>
+      <c r="BH83">
+        <v>3.74</v>
+      </c>
+      <c r="BI83">
+        <v>1.42</v>
+      </c>
+      <c r="BJ83">
+        <v>2.65</v>
+      </c>
+      <c r="BK83">
+        <v>1.75</v>
+      </c>
+      <c r="BL83">
+        <v>2.01</v>
+      </c>
+      <c r="BM83">
+        <v>2.19</v>
+      </c>
+      <c r="BN83">
+        <v>1.6</v>
+      </c>
+      <c r="BO83">
+        <v>2.91</v>
+      </c>
+      <c r="BP83">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7326978</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45402.08333333334</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s">
+        <v>84</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84" t="s">
+        <v>148</v>
+      </c>
+      <c r="P84" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q84">
+        <v>4.65</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>2.49</v>
+      </c>
+      <c r="T84">
+        <v>1.43</v>
+      </c>
+      <c r="U84">
+        <v>2.71</v>
+      </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84">
+        <v>1.36</v>
+      </c>
+      <c r="X84">
+        <v>7.8</v>
+      </c>
+      <c r="Y84">
+        <v>1.06</v>
+      </c>
+      <c r="Z84">
+        <v>4.1</v>
+      </c>
+      <c r="AA84">
+        <v>3.5</v>
+      </c>
+      <c r="AB84">
+        <v>1.92</v>
+      </c>
+      <c r="AC84">
+        <v>1.03</v>
+      </c>
+      <c r="AD84">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE84">
+        <v>1.32</v>
+      </c>
+      <c r="AF84">
+        <v>2.98</v>
+      </c>
+      <c r="AG84">
+        <v>1.91</v>
+      </c>
+      <c r="AH84">
+        <v>1.79</v>
+      </c>
+      <c r="AI84">
+        <v>1.89</v>
+      </c>
+      <c r="AJ84">
+        <v>1.85</v>
+      </c>
+      <c r="AK84">
+        <v>1.89</v>
+      </c>
+      <c r="AL84">
+        <v>1.3</v>
+      </c>
+      <c r="AM84">
+        <v>1.24</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>0.75</v>
+      </c>
+      <c r="AP84">
+        <v>1.4</v>
+      </c>
+      <c r="AQ84">
+        <v>0.6</v>
+      </c>
+      <c r="AR84">
+        <v>1.47</v>
+      </c>
+      <c r="AS84">
+        <v>1.22</v>
+      </c>
+      <c r="AT84">
+        <v>2.69</v>
+      </c>
+      <c r="AU84">
+        <v>9</v>
+      </c>
+      <c r="AV84">
+        <v>6</v>
+      </c>
+      <c r="AW84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>6</v>
+      </c>
+      <c r="AY84">
+        <v>14</v>
+      </c>
+      <c r="AZ84">
+        <v>12</v>
+      </c>
+      <c r="BA84">
+        <v>8</v>
+      </c>
+      <c r="BB84">
+        <v>8</v>
+      </c>
+      <c r="BC84">
+        <v>16</v>
+      </c>
+      <c r="BD84">
+        <v>2.2</v>
+      </c>
+      <c r="BE84">
+        <v>9.1</v>
+      </c>
+      <c r="BF84">
+        <v>1.89</v>
+      </c>
+      <c r="BG84">
+        <v>1.21</v>
+      </c>
+      <c r="BH84">
+        <v>3.74</v>
+      </c>
+      <c r="BI84">
+        <v>1.42</v>
+      </c>
+      <c r="BJ84">
+        <v>2.65</v>
+      </c>
+      <c r="BK84">
+        <v>1.75</v>
+      </c>
+      <c r="BL84">
+        <v>2.01</v>
+      </c>
+      <c r="BM84">
+        <v>2.19</v>
+      </c>
+      <c r="BN84">
+        <v>1.6</v>
+      </c>
+      <c r="BO84">
+        <v>2.88</v>
+      </c>
+      <c r="BP84">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7326979</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45402.125</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s">
+        <v>82</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>91</v>
+      </c>
+      <c r="P85" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q85">
+        <v>4.33</v>
+      </c>
+      <c r="R85">
+        <v>2.1</v>
+      </c>
+      <c r="S85">
+        <v>2.45</v>
+      </c>
+      <c r="T85">
+        <v>1.4</v>
+      </c>
+      <c r="U85">
+        <v>2.75</v>
+      </c>
+      <c r="V85">
+        <v>2.85</v>
+      </c>
+      <c r="W85">
+        <v>1.37</v>
+      </c>
+      <c r="X85">
+        <v>6.95</v>
+      </c>
+      <c r="Y85">
+        <v>1.07</v>
+      </c>
+      <c r="Z85">
+        <v>4.6</v>
+      </c>
+      <c r="AA85">
+        <v>3.7</v>
+      </c>
+      <c r="AB85">
+        <v>1.79</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>9</v>
+      </c>
+      <c r="AE85">
+        <v>1.3</v>
+      </c>
+      <c r="AF85">
+        <v>3.3</v>
+      </c>
+      <c r="AG85">
+        <v>1.99</v>
+      </c>
+      <c r="AH85">
+        <v>1.83</v>
+      </c>
+      <c r="AI85">
+        <v>1.83</v>
+      </c>
+      <c r="AJ85">
+        <v>1.9</v>
+      </c>
+      <c r="AK85">
+        <v>1.9</v>
+      </c>
+      <c r="AL85">
+        <v>1.22</v>
+      </c>
+      <c r="AM85">
+        <v>1.18</v>
+      </c>
+      <c r="AN85">
+        <v>0.33</v>
+      </c>
+      <c r="AO85">
+        <v>2.5</v>
+      </c>
+      <c r="AP85">
+        <v>0.25</v>
+      </c>
+      <c r="AQ85">
+        <v>2.6</v>
+      </c>
+      <c r="AR85">
+        <v>1.39</v>
+      </c>
+      <c r="AS85">
+        <v>1.5</v>
+      </c>
+      <c r="AT85">
+        <v>2.89</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>5</v>
+      </c>
+      <c r="AX85">
+        <v>3</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>6</v>
+      </c>
+      <c r="BA85">
+        <v>6</v>
+      </c>
+      <c r="BB85">
+        <v>10</v>
+      </c>
+      <c r="BC85">
+        <v>16</v>
+      </c>
+      <c r="BD85">
+        <v>2.3</v>
+      </c>
+      <c r="BE85">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF85">
+        <v>1.8</v>
+      </c>
+      <c r="BG85">
+        <v>1.15</v>
+      </c>
+      <c r="BH85">
+        <v>4.75</v>
+      </c>
+      <c r="BI85">
+        <v>1.24</v>
+      </c>
+      <c r="BJ85">
+        <v>3.48</v>
+      </c>
+      <c r="BK85">
+        <v>1.45</v>
+      </c>
+      <c r="BL85">
+        <v>2.55</v>
+      </c>
+      <c r="BM85">
+        <v>1.78</v>
+      </c>
+      <c r="BN85">
+        <v>1.97</v>
+      </c>
+      <c r="BO85">
+        <v>2.21</v>
+      </c>
+      <c r="BP85">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7326980</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45402.125</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>72</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>149</v>
+      </c>
+      <c r="P86" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q86">
+        <v>3.1</v>
+      </c>
+      <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>3.75</v>
+      </c>
+      <c r="T86">
+        <v>1.44</v>
+      </c>
+      <c r="U86">
+        <v>2.63</v>
+      </c>
+      <c r="V86">
+        <v>3.25</v>
+      </c>
+      <c r="W86">
+        <v>1.33</v>
+      </c>
+      <c r="X86">
+        <v>10</v>
+      </c>
+      <c r="Y86">
+        <v>1.06</v>
+      </c>
+      <c r="Z86">
+        <v>2.37</v>
+      </c>
+      <c r="AA86">
+        <v>3.2</v>
+      </c>
+      <c r="AB86">
+        <v>3.4</v>
+      </c>
+      <c r="AC86">
+        <v>1.06</v>
+      </c>
+      <c r="AD86">
+        <v>7.1</v>
+      </c>
+      <c r="AE86">
+        <v>1.33</v>
+      </c>
+      <c r="AF86">
+        <v>3.03</v>
+      </c>
+      <c r="AG86">
+        <v>2.3</v>
+      </c>
+      <c r="AH86">
+        <v>1.54</v>
+      </c>
+      <c r="AI86">
+        <v>1.91</v>
+      </c>
+      <c r="AJ86">
+        <v>1.91</v>
+      </c>
+      <c r="AK86">
+        <v>1.33</v>
+      </c>
+      <c r="AL86">
+        <v>1.3</v>
+      </c>
+      <c r="AM86">
+        <v>1.57</v>
+      </c>
+      <c r="AN86">
+        <v>1.2</v>
+      </c>
+      <c r="AO86">
+        <v>1.5</v>
+      </c>
+      <c r="AP86">
+        <v>1.17</v>
+      </c>
+      <c r="AQ86">
+        <v>1.4</v>
+      </c>
+      <c r="AR86">
+        <v>1.34</v>
+      </c>
+      <c r="AS86">
+        <v>1.46</v>
+      </c>
+      <c r="AT86">
+        <v>2.8</v>
+      </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>8</v>
+      </c>
+      <c r="AX86">
+        <v>3</v>
+      </c>
+      <c r="AY86">
+        <v>13</v>
+      </c>
+      <c r="AZ86">
+        <v>7</v>
+      </c>
+      <c r="BA86">
+        <v>4</v>
+      </c>
+      <c r="BB86">
+        <v>2</v>
+      </c>
+      <c r="BC86">
+        <v>6</v>
+      </c>
+      <c r="BD86">
+        <v>2.12</v>
+      </c>
+      <c r="BE86">
+        <v>9</v>
+      </c>
+      <c r="BF86">
+        <v>1.96</v>
+      </c>
+      <c r="BG86">
+        <v>1.24</v>
+      </c>
+      <c r="BH86">
+        <v>3.48</v>
+      </c>
+      <c r="BI86">
+        <v>1.47</v>
+      </c>
+      <c r="BJ86">
+        <v>2.49</v>
+      </c>
+      <c r="BK86">
+        <v>1.83</v>
+      </c>
+      <c r="BL86">
+        <v>1.91</v>
+      </c>
+      <c r="BM86">
+        <v>2.33</v>
+      </c>
+      <c r="BN86">
+        <v>1.53</v>
+      </c>
+      <c r="BO86">
+        <v>3.08</v>
+      </c>
+      <c r="BP86">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7326981</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45402.16666666666</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>87</v>
+      </c>
+      <c r="H87" t="s">
+        <v>86</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>91</v>
+      </c>
+      <c r="P87" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q87">
+        <v>2.49</v>
+      </c>
+      <c r="R87">
+        <v>2.08</v>
+      </c>
+      <c r="S87">
+        <v>4.75</v>
+      </c>
+      <c r="T87">
+        <v>1.44</v>
+      </c>
+      <c r="U87">
+        <v>2.66</v>
+      </c>
+      <c r="V87">
+        <v>3.05</v>
+      </c>
+      <c r="W87">
+        <v>1.35</v>
+      </c>
+      <c r="X87">
+        <v>8.1</v>
+      </c>
+      <c r="Y87">
+        <v>1.06</v>
+      </c>
+      <c r="Z87">
+        <v>1.88</v>
+      </c>
+      <c r="AA87">
+        <v>3.55</v>
+      </c>
+      <c r="AB87">
+        <v>4.3</v>
+      </c>
+      <c r="AC87">
+        <v>1.03</v>
+      </c>
+      <c r="AD87">
+        <v>8</v>
+      </c>
+      <c r="AE87">
+        <v>1.33</v>
+      </c>
+      <c r="AF87">
+        <v>2.92</v>
+      </c>
+      <c r="AG87">
+        <v>2.08</v>
+      </c>
+      <c r="AH87">
+        <v>1.66</v>
+      </c>
+      <c r="AI87">
+        <v>1.94</v>
+      </c>
+      <c r="AJ87">
+        <v>1.81</v>
+      </c>
+      <c r="AK87">
+        <v>1.24</v>
+      </c>
+      <c r="AL87">
+        <v>1.31</v>
+      </c>
+      <c r="AM87">
+        <v>1.89</v>
+      </c>
+      <c r="AN87">
+        <v>2.33</v>
+      </c>
+      <c r="AO87">
+        <v>0.5</v>
+      </c>
+      <c r="AP87">
+        <v>1.75</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1.7</v>
+      </c>
+      <c r="AS87">
+        <v>1.46</v>
+      </c>
+      <c r="AT87">
+        <v>3.16</v>
+      </c>
+      <c r="AU87">
+        <v>6</v>
+      </c>
+      <c r="AV87">
+        <v>3</v>
+      </c>
+      <c r="AW87">
+        <v>5</v>
+      </c>
+      <c r="AX87">
+        <v>3</v>
+      </c>
+      <c r="AY87">
+        <v>11</v>
+      </c>
+      <c r="AZ87">
+        <v>6</v>
+      </c>
+      <c r="BA87">
+        <v>11</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>11</v>
+      </c>
+      <c r="BD87">
+        <v>1.63</v>
+      </c>
+      <c r="BE87">
+        <v>9.5</v>
+      </c>
+      <c r="BF87">
+        <v>2.67</v>
+      </c>
+      <c r="BG87">
+        <v>1.19</v>
+      </c>
+      <c r="BH87">
+        <v>3.92</v>
+      </c>
+      <c r="BI87">
+        <v>1.4</v>
+      </c>
+      <c r="BJ87">
+        <v>2.72</v>
+      </c>
+      <c r="BK87">
+        <v>1.85</v>
+      </c>
+      <c r="BL87">
+        <v>1.95</v>
+      </c>
+      <c r="BM87">
+        <v>2.14</v>
+      </c>
+      <c r="BN87">
+        <v>1.63</v>
+      </c>
+      <c r="BO87">
+        <v>2.79</v>
+      </c>
+      <c r="BP87">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7326982</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45402.16666666666</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>81</v>
+      </c>
+      <c r="H88" t="s">
+        <v>79</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>91</v>
+      </c>
+      <c r="P88" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q88">
+        <v>2.5</v>
+      </c>
+      <c r="R88">
+        <v>2.2</v>
+      </c>
+      <c r="S88">
+        <v>4.75</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>2.75</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>8</v>
+      </c>
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>1.88</v>
+      </c>
+      <c r="AA88">
+        <v>3.75</v>
+      </c>
+      <c r="AB88">
+        <v>4.3</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>9</v>
+      </c>
+      <c r="AE88">
+        <v>1.3</v>
+      </c>
+      <c r="AF88">
+        <v>3.4</v>
+      </c>
+      <c r="AG88">
+        <v>2</v>
+      </c>
+      <c r="AH88">
+        <v>1.89</v>
+      </c>
+      <c r="AI88">
+        <v>1.8</v>
+      </c>
+      <c r="AJ88">
+        <v>1.95</v>
+      </c>
+      <c r="AK88">
+        <v>1.22</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.93</v>
+      </c>
+      <c r="AN88">
+        <v>0.75</v>
+      </c>
+      <c r="AO88">
+        <v>1.33</v>
+      </c>
+      <c r="AP88">
+        <v>0.8</v>
+      </c>
+      <c r="AQ88">
+        <v>1.25</v>
+      </c>
+      <c r="AR88">
+        <v>1.75</v>
+      </c>
+      <c r="AS88">
+        <v>0.97</v>
+      </c>
+      <c r="AT88">
+        <v>2.72</v>
+      </c>
+      <c r="AU88">
+        <v>6</v>
+      </c>
+      <c r="AV88">
+        <v>7</v>
+      </c>
+      <c r="AW88">
+        <v>7</v>
+      </c>
+      <c r="AX88">
+        <v>8</v>
+      </c>
+      <c r="AY88">
+        <v>13</v>
+      </c>
+      <c r="AZ88">
+        <v>15</v>
+      </c>
+      <c r="BA88">
+        <v>9</v>
+      </c>
+      <c r="BB88">
+        <v>4</v>
+      </c>
+      <c r="BC88">
+        <v>13</v>
+      </c>
+      <c r="BD88">
+        <v>1.69</v>
+      </c>
+      <c r="BE88">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF88">
+        <v>2.62</v>
+      </c>
+      <c r="BG88">
+        <v>1.52</v>
+      </c>
+      <c r="BH88">
+        <v>2.36</v>
+      </c>
+      <c r="BI88">
+        <v>1.95</v>
+      </c>
+      <c r="BJ88">
+        <v>1.8</v>
+      </c>
+      <c r="BK88">
+        <v>2.57</v>
+      </c>
+      <c r="BL88">
+        <v>1.44</v>
+      </c>
+      <c r="BM88">
+        <v>3.48</v>
+      </c>
+      <c r="BN88">
+        <v>1.24</v>
+      </c>
+      <c r="BO88">
+        <v>3.8</v>
+      </c>
+      <c r="BP88">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,9 @@
     <t>['60', '78']</t>
   </si>
   <si>
+    <t>['65', '82']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -614,6 +617,12 @@
   </si>
   <si>
     <t>['30', '47']</t>
+  </si>
+  <si>
+    <t>['14', '25']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1440,7 +1449,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1518,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>0.6</v>
@@ -1646,7 +1655,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2058,7 +2067,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2470,7 +2479,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2676,7 +2685,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2882,7 +2891,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3088,7 +3097,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3294,7 +3303,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3500,7 +3509,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3706,7 +3715,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3990,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ15">
         <v>3</v>
@@ -4118,7 +4127,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4530,7 +4539,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4611,7 +4620,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4736,7 +4745,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4814,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -5148,7 +5157,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5354,7 +5363,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6384,7 +6393,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6462,7 +6471,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
         <v>2.6</v>
@@ -6590,7 +6599,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6796,7 +6805,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7208,7 +7217,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7414,7 +7423,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7826,7 +7835,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7907,7 +7916,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8032,7 +8041,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8238,7 +8247,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8444,7 +8453,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8650,7 +8659,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8856,7 +8865,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9062,7 +9071,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9268,7 +9277,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9474,7 +9483,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10298,7 +10307,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10504,7 +10513,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10916,7 +10925,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -10994,7 +11003,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
         <v>2.25</v>
@@ -11946,7 +11955,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12358,7 +12367,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12645,7 +12654,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -12976,7 +12985,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13182,7 +13191,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13260,7 +13269,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60">
         <v>0.8</v>
@@ -13800,7 +13809,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14212,7 +14221,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14293,7 +14302,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14418,7 +14427,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14624,7 +14633,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15114,7 +15123,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ69">
         <v>1.33</v>
@@ -15320,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70">
         <v>0.6</v>
@@ -15860,7 +15869,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16066,7 +16075,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16272,7 +16281,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16478,7 +16487,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16890,7 +16899,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17302,7 +17311,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17508,7 +17517,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17920,7 +17929,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18126,7 +18135,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18332,7 +18341,7 @@
         <v>91</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18538,7 +18547,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19064,10 +19073,10 @@
         <v>9</v>
       </c>
       <c r="BB88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC88">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD88">
         <v>1.69</v>
@@ -19107,6 +19116,418 @@
       </c>
       <c r="BP88">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7326983</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45403.125</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>85</v>
+      </c>
+      <c r="H89" t="s">
+        <v>75</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" t="s">
+        <v>130</v>
+      </c>
+      <c r="P89" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q89">
+        <v>3.25</v>
+      </c>
+      <c r="R89">
+        <v>2.1</v>
+      </c>
+      <c r="S89">
+        <v>3.25</v>
+      </c>
+      <c r="T89">
+        <v>1.44</v>
+      </c>
+      <c r="U89">
+        <v>2.63</v>
+      </c>
+      <c r="V89">
+        <v>3.25</v>
+      </c>
+      <c r="W89">
+        <v>1.33</v>
+      </c>
+      <c r="X89">
+        <v>9</v>
+      </c>
+      <c r="Y89">
+        <v>1.07</v>
+      </c>
+      <c r="Z89">
+        <v>2.55</v>
+      </c>
+      <c r="AA89">
+        <v>3.4</v>
+      </c>
+      <c r="AB89">
+        <v>2.55</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>7.65</v>
+      </c>
+      <c r="AE89">
+        <v>1.34</v>
+      </c>
+      <c r="AF89">
+        <v>2.99</v>
+      </c>
+      <c r="AG89">
+        <v>2.05</v>
+      </c>
+      <c r="AH89">
+        <v>1.7</v>
+      </c>
+      <c r="AI89">
+        <v>1.91</v>
+      </c>
+      <c r="AJ89">
+        <v>1.91</v>
+      </c>
+      <c r="AK89">
+        <v>1.48</v>
+      </c>
+      <c r="AL89">
+        <v>1.25</v>
+      </c>
+      <c r="AM89">
+        <v>1.48</v>
+      </c>
+      <c r="AN89">
+        <v>1.75</v>
+      </c>
+      <c r="AO89">
+        <v>3</v>
+      </c>
+      <c r="AP89">
+        <v>1.4</v>
+      </c>
+      <c r="AQ89">
+        <v>3</v>
+      </c>
+      <c r="AR89">
+        <v>1.21</v>
+      </c>
+      <c r="AS89">
+        <v>1.19</v>
+      </c>
+      <c r="AT89">
+        <v>2.4</v>
+      </c>
+      <c r="AU89">
+        <v>5</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>11</v>
+      </c>
+      <c r="AX89">
+        <v>4</v>
+      </c>
+      <c r="AY89">
+        <v>16</v>
+      </c>
+      <c r="AZ89">
+        <v>8</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>3</v>
+      </c>
+      <c r="BC89">
+        <v>9</v>
+      </c>
+      <c r="BD89">
+        <v>1.95</v>
+      </c>
+      <c r="BE89">
+        <v>7</v>
+      </c>
+      <c r="BF89">
+        <v>2.1</v>
+      </c>
+      <c r="BG89">
+        <v>1.67</v>
+      </c>
+      <c r="BH89">
+        <v>2.1</v>
+      </c>
+      <c r="BI89">
+        <v>2.1</v>
+      </c>
+      <c r="BJ89">
+        <v>1.7</v>
+      </c>
+      <c r="BK89">
+        <v>2.75</v>
+      </c>
+      <c r="BL89">
+        <v>1.42</v>
+      </c>
+      <c r="BM89">
+        <v>3.75</v>
+      </c>
+      <c r="BN89">
+        <v>1.25</v>
+      </c>
+      <c r="BO89">
+        <v>4.5</v>
+      </c>
+      <c r="BP89">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7326984</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45403.125</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>150</v>
+      </c>
+      <c r="P90" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q90">
+        <v>3.1</v>
+      </c>
+      <c r="R90">
+        <v>2.05</v>
+      </c>
+      <c r="S90">
+        <v>3.75</v>
+      </c>
+      <c r="T90">
+        <v>1.5</v>
+      </c>
+      <c r="U90">
+        <v>2.5</v>
+      </c>
+      <c r="V90">
+        <v>3.4</v>
+      </c>
+      <c r="W90">
+        <v>1.3</v>
+      </c>
+      <c r="X90">
+        <v>10</v>
+      </c>
+      <c r="Y90">
+        <v>1.06</v>
+      </c>
+      <c r="Z90">
+        <v>2.35</v>
+      </c>
+      <c r="AA90">
+        <v>3.5</v>
+      </c>
+      <c r="AB90">
+        <v>2.8</v>
+      </c>
+      <c r="AC90">
+        <v>1.06</v>
+      </c>
+      <c r="AD90">
+        <v>7.1</v>
+      </c>
+      <c r="AE90">
+        <v>1.41</v>
+      </c>
+      <c r="AF90">
+        <v>2.71</v>
+      </c>
+      <c r="AG90">
+        <v>2.2</v>
+      </c>
+      <c r="AH90">
+        <v>1.6</v>
+      </c>
+      <c r="AI90">
+        <v>1.95</v>
+      </c>
+      <c r="AJ90">
+        <v>1.8</v>
+      </c>
+      <c r="AK90">
+        <v>1.42</v>
+      </c>
+      <c r="AL90">
+        <v>1.25</v>
+      </c>
+      <c r="AM90">
+        <v>1.57</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
+        <v>2</v>
+      </c>
+      <c r="AP90">
+        <v>1.4</v>
+      </c>
+      <c r="AQ90">
+        <v>1.6</v>
+      </c>
+      <c r="AR90">
+        <v>0.92</v>
+      </c>
+      <c r="AS90">
+        <v>1.12</v>
+      </c>
+      <c r="AT90">
+        <v>2.04</v>
+      </c>
+      <c r="AU90">
+        <v>4</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>4</v>
+      </c>
+      <c r="AX90">
+        <v>12</v>
+      </c>
+      <c r="AY90">
+        <v>8</v>
+      </c>
+      <c r="AZ90">
+        <v>16</v>
+      </c>
+      <c r="BA90">
+        <v>3</v>
+      </c>
+      <c r="BB90">
+        <v>10</v>
+      </c>
+      <c r="BC90">
+        <v>13</v>
+      </c>
+      <c r="BD90">
+        <v>2</v>
+      </c>
+      <c r="BE90">
+        <v>8</v>
+      </c>
+      <c r="BF90">
+        <v>2.1</v>
+      </c>
+      <c r="BG90">
+        <v>1.28</v>
+      </c>
+      <c r="BH90">
+        <v>3.4</v>
+      </c>
+      <c r="BI90">
+        <v>1.52</v>
+      </c>
+      <c r="BJ90">
+        <v>2.45</v>
+      </c>
+      <c r="BK90">
+        <v>1.92</v>
+      </c>
+      <c r="BL90">
+        <v>1.88</v>
+      </c>
+      <c r="BM90">
+        <v>2.35</v>
+      </c>
+      <c r="BN90">
+        <v>1.55</v>
+      </c>
+      <c r="BO90">
+        <v>3.1</v>
+      </c>
+      <c r="BP90">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -19258,22 +19258,22 @@
         <v>2.4</v>
       </c>
       <c r="AU89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV89">
         <v>4</v>
       </c>
       <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>1</v>
+      </c>
+      <c r="AY89">
         <v>11</v>
       </c>
-      <c r="AX89">
-        <v>4</v>
-      </c>
-      <c r="AY89">
-        <v>16</v>
-      </c>
       <c r="AZ89">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA89">
         <v>6</v>
@@ -19464,22 +19464,22 @@
         <v>2.04</v>
       </c>
       <c r="AU90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV90">
         <v>4</v>
       </c>
       <c r="AW90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX90">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ90">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA90">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,12 +382,12 @@
     <t>['34', '83', '90+2']</t>
   </si>
   <si>
+    <t>['5', '54', '57']</t>
+  </si>
+  <si>
     <t>['65', '73']</t>
   </si>
   <si>
-    <t>['5', '54', '57']</t>
-  </si>
-  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -421,12 +421,12 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['52', '90+6']</t>
   </si>
   <si>
-    <t>['66']</t>
-  </si>
-  <si>
     <t>['5', '53', '83']</t>
   </si>
   <si>
@@ -469,6 +469,30 @@
     <t>['65', '82']</t>
   </si>
   <si>
+    <t>['23', '42', '54']</t>
+  </si>
+  <si>
+    <t>['46', '70']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['45+8', '68']</t>
+  </si>
+  <si>
+    <t>['38', '75']</t>
+  </si>
+  <si>
+    <t>['24', '70']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -556,12 +580,12 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['28']</t>
   </si>
   <si>
-    <t>['34']</t>
-  </si>
-  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -577,12 +601,12 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['47', '83']</t>
+  </si>
+  <si>
     <t>['51', '65', '71']</t>
   </si>
   <si>
-    <t>['47', '83']</t>
-  </si>
-  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -623,6 +647,27 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['67', '85', '90+3']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['39', '49', '62']</t>
+  </si>
+  <si>
+    <t>['17', '59']</t>
+  </si>
+  <si>
+    <t>['65', '74']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['27', '54']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ2">
         <v>0.8</v>
@@ -1449,7 +1494,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1530,7 +1575,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1655,7 +1700,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1733,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ4">
         <v>2.6</v>
@@ -2067,7 +2112,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2479,7 +2524,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2685,7 +2730,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2763,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2891,7 +2936,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2969,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3097,7 +3142,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3175,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ11">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3303,7 +3348,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3384,7 +3429,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3509,7 +3554,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3715,7 +3760,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3793,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -4002,7 +4047,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR15">
         <v>0.86</v>
@@ -4127,7 +4172,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4539,7 +4584,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4745,7 +4790,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5029,7 +5074,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1.4</v>
@@ -5157,7 +5202,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5235,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5363,7 +5408,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5441,7 +5486,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
         <v>2</v>
@@ -5647,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5856,7 +5901,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6059,10 +6104,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -6393,7 +6438,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6599,7 +6644,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6680,7 +6725,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -6805,7 +6850,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6883,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ29">
         <v>1.25</v>
@@ -7089,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ30">
         <v>0.8</v>
@@ -7217,7 +7262,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7298,7 +7343,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -7423,7 +7468,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7501,10 +7546,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ32">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -7707,7 +7752,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ33">
         <v>1.4</v>
@@ -7835,7 +7880,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8041,7 +8086,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8119,7 +8164,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.4</v>
@@ -8247,7 +8292,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8325,10 +8370,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8453,7 +8498,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8531,7 +8576,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ37">
         <v>1.4</v>
@@ -8659,7 +8704,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8740,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -8865,7 +8910,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9071,7 +9116,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9277,7 +9322,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9355,10 +9400,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9483,7 +9528,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9561,7 +9606,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9767,7 +9812,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -9973,7 +10018,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10182,7 +10227,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
         <v>1.96</v>
@@ -10265,7 +10310,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7326940</v>
+        <v>7326941</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10280,190 +10325,190 @@
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O46" t="s">
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Q46">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S46">
         <v>5</v>
       </c>
       <c r="T46">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="U46">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>1.36</v>
+      </c>
+      <c r="X46">
+        <v>8</v>
+      </c>
+      <c r="Y46">
+        <v>1.08</v>
+      </c>
+      <c r="Z46">
+        <v>1.83</v>
+      </c>
+      <c r="AA46">
         <v>3.75</v>
       </c>
-      <c r="W46">
-        <v>1.25</v>
-      </c>
-      <c r="X46">
-        <v>11</v>
-      </c>
-      <c r="Y46">
-        <v>1.05</v>
-      </c>
-      <c r="Z46">
-        <v>1.87</v>
-      </c>
-      <c r="AA46">
-        <v>3.25</v>
-      </c>
       <c r="AB46">
-        <v>4.85</v>
+        <v>4.2</v>
       </c>
       <c r="AC46">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AD46">
+        <v>8.5</v>
+      </c>
+      <c r="AE46">
+        <v>1.3</v>
+      </c>
+      <c r="AF46">
+        <v>3.3</v>
+      </c>
+      <c r="AG46">
+        <v>2.05</v>
+      </c>
+      <c r="AH46">
+        <v>1.83</v>
+      </c>
+      <c r="AI46">
+        <v>1.95</v>
+      </c>
+      <c r="AJ46">
+        <v>1.8</v>
+      </c>
+      <c r="AK46">
+        <v>1.15</v>
+      </c>
+      <c r="AL46">
+        <v>1.22</v>
+      </c>
+      <c r="AM46">
+        <v>2.05</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>1.4</v>
+      </c>
+      <c r="AQ46">
+        <v>0.2</v>
+      </c>
+      <c r="AR46">
+        <v>1.43</v>
+      </c>
+      <c r="AS46">
+        <v>0.85</v>
+      </c>
+      <c r="AT46">
+        <v>2.28</v>
+      </c>
+      <c r="AU46">
         <v>7</v>
-      </c>
-      <c r="AE46">
-        <v>1.56</v>
-      </c>
-      <c r="AF46">
-        <v>2.43</v>
-      </c>
-      <c r="AG46">
-        <v>2.55</v>
-      </c>
-      <c r="AH46">
-        <v>1.48</v>
-      </c>
-      <c r="AI46">
-        <v>2.2</v>
-      </c>
-      <c r="AJ46">
-        <v>1.62</v>
-      </c>
-      <c r="AK46">
-        <v>1.16</v>
-      </c>
-      <c r="AL46">
-        <v>1.28</v>
-      </c>
-      <c r="AM46">
-        <v>1.87</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>3</v>
-      </c>
-      <c r="AP46">
-        <v>1.75</v>
-      </c>
-      <c r="AQ46">
-        <v>1.33</v>
-      </c>
-      <c r="AR46">
-        <v>1.39</v>
-      </c>
-      <c r="AS46">
-        <v>1.09</v>
-      </c>
-      <c r="AT46">
-        <v>2.48</v>
-      </c>
-      <c r="AU46">
-        <v>8</v>
       </c>
       <c r="AV46">
         <v>5</v>
       </c>
       <c r="AW46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY46">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ46">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA46">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BB46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BD46">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="BE46">
         <v>8</v>
       </c>
       <c r="BF46">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="BG46">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="BH46">
-        <v>3.04</v>
+        <v>2.84</v>
       </c>
       <c r="BI46">
         <v>1.65</v>
       </c>
       <c r="BJ46">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="BK46">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="BL46">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="BM46">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="BN46">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="BO46">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="BP46">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10471,7 +10516,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7326941</v>
+        <v>7326940</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10486,190 +10531,190 @@
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
         <v>3</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>4</v>
       </c>
       <c r="O47" t="s">
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q47">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R47">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
         <v>5</v>
       </c>
       <c r="T47">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="U47">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V47">
+        <v>3.75</v>
+      </c>
+      <c r="W47">
+        <v>1.25</v>
+      </c>
+      <c r="X47">
+        <v>11</v>
+      </c>
+      <c r="Y47">
+        <v>1.05</v>
+      </c>
+      <c r="Z47">
+        <v>1.87</v>
+      </c>
+      <c r="AA47">
+        <v>3.25</v>
+      </c>
+      <c r="AB47">
+        <v>4.85</v>
+      </c>
+      <c r="AC47">
+        <v>1.1</v>
+      </c>
+      <c r="AD47">
+        <v>7</v>
+      </c>
+      <c r="AE47">
+        <v>1.56</v>
+      </c>
+      <c r="AF47">
+        <v>2.43</v>
+      </c>
+      <c r="AG47">
+        <v>2.55</v>
+      </c>
+      <c r="AH47">
+        <v>1.48</v>
+      </c>
+      <c r="AI47">
+        <v>2.2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.62</v>
+      </c>
+      <c r="AK47">
+        <v>1.16</v>
+      </c>
+      <c r="AL47">
+        <v>1.28</v>
+      </c>
+      <c r="AM47">
+        <v>1.87</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>3</v>
       </c>
-      <c r="W47">
-        <v>1.36</v>
-      </c>
-      <c r="X47">
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>1.25</v>
+      </c>
+      <c r="AR47">
+        <v>1.39</v>
+      </c>
+      <c r="AS47">
+        <v>1.09</v>
+      </c>
+      <c r="AT47">
+        <v>2.48</v>
+      </c>
+      <c r="AU47">
         <v>8</v>
-      </c>
-      <c r="Y47">
-        <v>1.08</v>
-      </c>
-      <c r="Z47">
-        <v>1.83</v>
-      </c>
-      <c r="AA47">
-        <v>3.75</v>
-      </c>
-      <c r="AB47">
-        <v>4.2</v>
-      </c>
-      <c r="AC47">
-        <v>1.06</v>
-      </c>
-      <c r="AD47">
-        <v>8.5</v>
-      </c>
-      <c r="AE47">
-        <v>1.3</v>
-      </c>
-      <c r="AF47">
-        <v>3.3</v>
-      </c>
-      <c r="AG47">
-        <v>2.05</v>
-      </c>
-      <c r="AH47">
-        <v>1.83</v>
-      </c>
-      <c r="AI47">
-        <v>1.95</v>
-      </c>
-      <c r="AJ47">
-        <v>1.8</v>
-      </c>
-      <c r="AK47">
-        <v>1.15</v>
-      </c>
-      <c r="AL47">
-        <v>1.22</v>
-      </c>
-      <c r="AM47">
-        <v>2.05</v>
-      </c>
-      <c r="AN47">
-        <v>2</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>1.4</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>1.43</v>
-      </c>
-      <c r="AS47">
-        <v>0.85</v>
-      </c>
-      <c r="AT47">
-        <v>2.28</v>
-      </c>
-      <c r="AU47">
-        <v>7</v>
       </c>
       <c r="AV47">
         <v>5</v>
       </c>
       <c r="AW47">
+        <v>8</v>
+      </c>
+      <c r="AX47">
+        <v>1</v>
+      </c>
+      <c r="AY47">
+        <v>16</v>
+      </c>
+      <c r="AZ47">
         <v>6</v>
       </c>
-      <c r="AX47">
-        <v>5</v>
-      </c>
-      <c r="AY47">
-        <v>13</v>
-      </c>
-      <c r="AZ47">
+      <c r="BA47">
+        <v>7</v>
+      </c>
+      <c r="BB47">
+        <v>3</v>
+      </c>
+      <c r="BC47">
         <v>10</v>
       </c>
-      <c r="BA47">
-        <v>0</v>
-      </c>
-      <c r="BB47">
-        <v>1</v>
-      </c>
-      <c r="BC47">
-        <v>1</v>
-      </c>
       <c r="BD47">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="BE47">
         <v>8</v>
       </c>
       <c r="BF47">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="BG47">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="BH47">
-        <v>2.84</v>
+        <v>3.04</v>
       </c>
       <c r="BI47">
         <v>1.65</v>
       </c>
       <c r="BJ47">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="BK47">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="BL47">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="BM47">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="BN47">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="BO47">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="BP47">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10925,7 +10970,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11006,7 +11051,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -11209,7 +11254,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11295,7 +11340,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7326951</v>
+        <v>7326952</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11310,10 +11355,10 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -11325,175 +11370,175 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="P51" t="s">
         <v>91</v>
       </c>
       <c r="Q51">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="R51">
+        <v>2.15</v>
+      </c>
+      <c r="S51">
+        <v>2.3</v>
+      </c>
+      <c r="T51">
+        <v>1.36</v>
+      </c>
+      <c r="U51">
+        <v>2.88</v>
+      </c>
+      <c r="V51">
+        <v>2.7</v>
+      </c>
+      <c r="W51">
+        <v>1.4</v>
+      </c>
+      <c r="X51">
+        <v>6.7</v>
+      </c>
+      <c r="Y51">
+        <v>1.09</v>
+      </c>
+      <c r="Z51">
+        <v>4.45</v>
+      </c>
+      <c r="AA51">
+        <v>3.9</v>
+      </c>
+      <c r="AB51">
+        <v>1.53</v>
+      </c>
+      <c r="AC51">
+        <v>1.04</v>
+      </c>
+      <c r="AD51">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AE51">
+        <v>1.26</v>
+      </c>
+      <c r="AF51">
+        <v>3.5</v>
+      </c>
+      <c r="AG51">
+        <v>1.73</v>
+      </c>
+      <c r="AH51">
+        <v>1.98</v>
+      </c>
+      <c r="AI51">
+        <v>1.75</v>
+      </c>
+      <c r="AJ51">
         <v>1.93</v>
       </c>
-      <c r="S51">
-        <v>3.44</v>
-      </c>
-      <c r="T51">
-        <v>1.63</v>
-      </c>
-      <c r="U51">
-        <v>2.32</v>
-      </c>
-      <c r="V51">
-        <v>3.82</v>
-      </c>
-      <c r="W51">
-        <v>1.24</v>
-      </c>
-      <c r="X51">
-        <v>11</v>
-      </c>
-      <c r="Y51">
-        <v>1.02</v>
-      </c>
-      <c r="Z51">
+      <c r="AK51">
+        <v>1.9</v>
+      </c>
+      <c r="AL51">
+        <v>1.25</v>
+      </c>
+      <c r="AM51">
+        <v>1.2</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>3</v>
+      </c>
+      <c r="AP51">
+        <v>1.4</v>
+      </c>
+      <c r="AQ51">
+        <v>2.6</v>
+      </c>
+      <c r="AR51">
+        <v>1.44</v>
+      </c>
+      <c r="AS51">
+        <v>1.61</v>
+      </c>
+      <c r="AT51">
+        <v>3.05</v>
+      </c>
+      <c r="AU51">
+        <v>7</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>6</v>
+      </c>
+      <c r="AY51">
+        <v>10</v>
+      </c>
+      <c r="AZ51">
+        <v>9</v>
+      </c>
+      <c r="BA51">
+        <v>5</v>
+      </c>
+      <c r="BB51">
+        <v>12</v>
+      </c>
+      <c r="BC51">
+        <v>17</v>
+      </c>
+      <c r="BD51">
+        <v>2.38</v>
+      </c>
+      <c r="BE51">
+        <v>8</v>
+      </c>
+      <c r="BF51">
+        <v>1.73</v>
+      </c>
+      <c r="BG51">
+        <v>1.21</v>
+      </c>
+      <c r="BH51">
+        <v>3.74</v>
+      </c>
+      <c r="BI51">
+        <v>1.41</v>
+      </c>
+      <c r="BJ51">
+        <v>2.69</v>
+      </c>
+      <c r="BK51">
+        <v>1.73</v>
+      </c>
+      <c r="BL51">
+        <v>2.04</v>
+      </c>
+      <c r="BM51">
+        <v>2.17</v>
+      </c>
+      <c r="BN51">
+        <v>1.61</v>
+      </c>
+      <c r="BO51">
         <v>2.84</v>
       </c>
-      <c r="AA51">
-        <v>2.94</v>
-      </c>
-      <c r="AB51">
-        <v>2.27</v>
-      </c>
-      <c r="AC51">
-        <v>1.11</v>
-      </c>
-      <c r="AD51">
-        <v>5.45</v>
-      </c>
-      <c r="AE51">
-        <v>1.51</v>
-      </c>
-      <c r="AF51">
-        <v>2.4</v>
-      </c>
-      <c r="AG51">
-        <v>2.6</v>
-      </c>
-      <c r="AH51">
-        <v>1.43</v>
-      </c>
-      <c r="AI51">
-        <v>2.1</v>
-      </c>
-      <c r="AJ51">
-        <v>1.62</v>
-      </c>
-      <c r="AK51">
-        <v>1.45</v>
-      </c>
-      <c r="AL51">
-        <v>1.38</v>
-      </c>
-      <c r="AM51">
+      <c r="BP51">
         <v>1.35</v>
-      </c>
-      <c r="AN51">
-        <v>0.67</v>
-      </c>
-      <c r="AO51">
-        <v>1.5</v>
-      </c>
-      <c r="AP51">
-        <v>1.17</v>
-      </c>
-      <c r="AQ51">
-        <v>0.6</v>
-      </c>
-      <c r="AR51">
-        <v>1.61</v>
-      </c>
-      <c r="AS51">
-        <v>1.29</v>
-      </c>
-      <c r="AT51">
-        <v>2.9</v>
-      </c>
-      <c r="AU51">
-        <v>5</v>
-      </c>
-      <c r="AV51">
-        <v>2</v>
-      </c>
-      <c r="AW51">
-        <v>0</v>
-      </c>
-      <c r="AX51">
-        <v>4</v>
-      </c>
-      <c r="AY51">
-        <v>5</v>
-      </c>
-      <c r="AZ51">
-        <v>6</v>
-      </c>
-      <c r="BA51">
-        <v>9</v>
-      </c>
-      <c r="BB51">
-        <v>1</v>
-      </c>
-      <c r="BC51">
-        <v>10</v>
-      </c>
-      <c r="BD51">
-        <v>2.1</v>
-      </c>
-      <c r="BE51">
-        <v>7.5</v>
-      </c>
-      <c r="BF51">
-        <v>1.95</v>
-      </c>
-      <c r="BG51">
-        <v>1.29</v>
-      </c>
-      <c r="BH51">
-        <v>3.14</v>
-      </c>
-      <c r="BI51">
-        <v>1.56</v>
-      </c>
-      <c r="BJ51">
-        <v>2.27</v>
-      </c>
-      <c r="BK51">
-        <v>2</v>
-      </c>
-      <c r="BL51">
-        <v>1.8</v>
-      </c>
-      <c r="BM51">
-        <v>2.57</v>
-      </c>
-      <c r="BN51">
-        <v>1.44</v>
-      </c>
-      <c r="BO51">
-        <v>3.48</v>
-      </c>
-      <c r="BP51">
-        <v>1.24</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11501,7 +11546,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7326952</v>
+        <v>7326951</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11516,10 +11561,10 @@
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -11531,175 +11576,175 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="P52" t="s">
         <v>91</v>
       </c>
       <c r="Q52">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="R52">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="S52">
-        <v>2.3</v>
+        <v>3.44</v>
       </c>
       <c r="T52">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="U52">
-        <v>2.88</v>
+        <v>2.32</v>
       </c>
       <c r="V52">
-        <v>2.7</v>
+        <v>3.82</v>
       </c>
       <c r="W52">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="X52">
-        <v>6.7</v>
+        <v>11</v>
       </c>
       <c r="Y52">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="Z52">
-        <v>4.45</v>
+        <v>2.84</v>
       </c>
       <c r="AA52">
-        <v>3.9</v>
+        <v>2.94</v>
       </c>
       <c r="AB52">
-        <v>1.53</v>
+        <v>2.27</v>
       </c>
       <c r="AC52">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AD52">
-        <v>8.449999999999999</v>
+        <v>5.45</v>
       </c>
       <c r="AE52">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="AF52">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="AG52">
-        <v>1.73</v>
+        <v>2.6</v>
       </c>
       <c r="AH52">
-        <v>1.98</v>
+        <v>1.43</v>
       </c>
       <c r="AI52">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AJ52">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="AK52">
-        <v>1.9</v>
+        <v>1.45</v>
       </c>
       <c r="AL52">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AM52">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO52">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ52">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="AR52">
+        <v>1.61</v>
+      </c>
+      <c r="AS52">
+        <v>1.29</v>
+      </c>
+      <c r="AT52">
+        <v>2.9</v>
+      </c>
+      <c r="AU52">
+        <v>5</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>4</v>
+      </c>
+      <c r="AY52">
+        <v>5</v>
+      </c>
+      <c r="AZ52">
+        <v>6</v>
+      </c>
+      <c r="BA52">
+        <v>9</v>
+      </c>
+      <c r="BB52">
+        <v>1</v>
+      </c>
+      <c r="BC52">
+        <v>10</v>
+      </c>
+      <c r="BD52">
+        <v>2.1</v>
+      </c>
+      <c r="BE52">
+        <v>7.5</v>
+      </c>
+      <c r="BF52">
+        <v>1.95</v>
+      </c>
+      <c r="BG52">
+        <v>1.29</v>
+      </c>
+      <c r="BH52">
+        <v>3.14</v>
+      </c>
+      <c r="BI52">
+        <v>1.56</v>
+      </c>
+      <c r="BJ52">
+        <v>2.27</v>
+      </c>
+      <c r="BK52">
+        <v>2</v>
+      </c>
+      <c r="BL52">
+        <v>1.8</v>
+      </c>
+      <c r="BM52">
+        <v>2.57</v>
+      </c>
+      <c r="BN52">
         <v>1.44</v>
       </c>
-      <c r="AS52">
-        <v>1.61</v>
-      </c>
-      <c r="AT52">
-        <v>3.05</v>
-      </c>
-      <c r="AU52">
-        <v>7</v>
-      </c>
-      <c r="AV52">
-        <v>3</v>
-      </c>
-      <c r="AW52">
-        <v>3</v>
-      </c>
-      <c r="AX52">
-        <v>6</v>
-      </c>
-      <c r="AY52">
-        <v>10</v>
-      </c>
-      <c r="AZ52">
-        <v>9</v>
-      </c>
-      <c r="BA52">
-        <v>5</v>
-      </c>
-      <c r="BB52">
-        <v>12</v>
-      </c>
-      <c r="BC52">
-        <v>17</v>
-      </c>
-      <c r="BD52">
-        <v>2.38</v>
-      </c>
-      <c r="BE52">
-        <v>8</v>
-      </c>
-      <c r="BF52">
-        <v>1.73</v>
-      </c>
-      <c r="BG52">
-        <v>1.21</v>
-      </c>
-      <c r="BH52">
-        <v>3.74</v>
-      </c>
-      <c r="BI52">
-        <v>1.41</v>
-      </c>
-      <c r="BJ52">
-        <v>2.69</v>
-      </c>
-      <c r="BK52">
-        <v>1.73</v>
-      </c>
-      <c r="BL52">
-        <v>2.04</v>
-      </c>
-      <c r="BM52">
-        <v>2.17</v>
-      </c>
-      <c r="BN52">
-        <v>1.61</v>
-      </c>
       <c r="BO52">
-        <v>2.84</v>
+        <v>3.48</v>
       </c>
       <c r="BP52">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11827,7 +11872,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>1.4</v>
@@ -11955,7 +12000,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12239,10 +12284,10 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12367,7 +12412,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12651,7 +12696,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
         <v>1.6</v>
@@ -12985,7 +13030,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13063,10 +13108,10 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13191,7 +13236,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13475,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13681,7 +13726,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -13767,7 +13812,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7326958</v>
+        <v>7326959</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13782,10 +13827,10 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -13797,175 +13842,175 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N63">
         <v>3</v>
       </c>
       <c r="O63" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
       </c>
       <c r="R63">
+        <v>2.3</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>1.33</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2.4</v>
+      </c>
+      <c r="W63">
+        <v>1.5</v>
+      </c>
+      <c r="X63">
+        <v>5.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.11</v>
+      </c>
+      <c r="Z63">
+        <v>1.95</v>
+      </c>
+      <c r="AA63">
+        <v>3.5</v>
+      </c>
+      <c r="AB63">
+        <v>3.5</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AE63">
+        <v>1.21</v>
+      </c>
+      <c r="AF63">
+        <v>3.97</v>
+      </c>
+      <c r="AG63">
+        <v>1.65</v>
+      </c>
+      <c r="AH63">
         <v>2.1</v>
       </c>
-      <c r="S63">
-        <v>5</v>
-      </c>
-      <c r="T63">
-        <v>1.44</v>
-      </c>
-      <c r="U63">
-        <v>2.63</v>
-      </c>
-      <c r="V63">
+      <c r="AI63">
+        <v>1.6</v>
+      </c>
+      <c r="AJ63">
+        <v>2.2</v>
+      </c>
+      <c r="AK63">
+        <v>1.3</v>
+      </c>
+      <c r="AL63">
+        <v>1.3</v>
+      </c>
+      <c r="AM63">
+        <v>1.7</v>
+      </c>
+      <c r="AN63">
+        <v>1.33</v>
+      </c>
+      <c r="AO63">
+        <v>2</v>
+      </c>
+      <c r="AP63">
+        <v>0.8</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>1.78</v>
+      </c>
+      <c r="AS63">
+        <v>1.56</v>
+      </c>
+      <c r="AT63">
+        <v>3.34</v>
+      </c>
+      <c r="AU63">
         <v>3</v>
       </c>
-      <c r="W63">
-        <v>1.36</v>
-      </c>
-      <c r="X63">
-        <v>8</v>
-      </c>
-      <c r="Y63">
-        <v>1.08</v>
-      </c>
-      <c r="Z63">
-        <v>2.2</v>
-      </c>
-      <c r="AA63">
-        <v>3.3</v>
-      </c>
-      <c r="AB63">
-        <v>3.1</v>
-      </c>
-      <c r="AC63">
-        <v>1.07</v>
-      </c>
-      <c r="AD63">
-        <v>8</v>
-      </c>
-      <c r="AE63">
-        <v>1.33</v>
-      </c>
-      <c r="AF63">
-        <v>3.25</v>
-      </c>
-      <c r="AG63">
-        <v>1.95</v>
-      </c>
-      <c r="AH63">
-        <v>1.75</v>
-      </c>
-      <c r="AI63">
-        <v>1.91</v>
-      </c>
-      <c r="AJ63">
-        <v>1.91</v>
-      </c>
-      <c r="AK63">
-        <v>1.18</v>
-      </c>
-      <c r="AL63">
-        <v>1.25</v>
-      </c>
-      <c r="AM63">
-        <v>1.95</v>
-      </c>
-      <c r="AN63">
-        <v>0</v>
-      </c>
-      <c r="AO63">
-        <v>1</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
-      </c>
-      <c r="AQ63">
-        <v>1.4</v>
-      </c>
-      <c r="AR63">
-        <v>1.8</v>
-      </c>
-      <c r="AS63">
-        <v>1.47</v>
-      </c>
-      <c r="AT63">
-        <v>3.27</v>
-      </c>
-      <c r="AU63">
+      <c r="AV63">
+        <v>7</v>
+      </c>
+      <c r="AW63">
+        <v>12</v>
+      </c>
+      <c r="AX63">
+        <v>7</v>
+      </c>
+      <c r="AY63">
+        <v>15</v>
+      </c>
+      <c r="AZ63">
+        <v>14</v>
+      </c>
+      <c r="BA63">
         <v>4</v>
       </c>
-      <c r="AV63">
-        <v>6</v>
-      </c>
-      <c r="AW63">
+      <c r="BB63">
         <v>10</v>
       </c>
-      <c r="AX63">
-        <v>5</v>
-      </c>
-      <c r="AY63">
+      <c r="BC63">
         <v>14</v>
       </c>
-      <c r="AZ63">
-        <v>11</v>
-      </c>
-      <c r="BA63">
-        <v>9</v>
-      </c>
-      <c r="BB63">
-        <v>14</v>
-      </c>
-      <c r="BC63">
-        <v>23</v>
-      </c>
       <c r="BD63">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="BE63">
-        <v>7.39</v>
+        <v>9.6</v>
       </c>
       <c r="BF63">
-        <v>2.35</v>
+        <v>2.49</v>
       </c>
       <c r="BG63">
+        <v>1.19</v>
+      </c>
+      <c r="BH63">
+        <v>4.7</v>
+      </c>
+      <c r="BI63">
         <v>1.28</v>
       </c>
-      <c r="BH63">
-        <v>3.7</v>
-      </c>
-      <c r="BI63">
-        <v>1.51</v>
-      </c>
       <c r="BJ63">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="BK63">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="BL63">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="BM63">
-        <v>2.32</v>
+        <v>1.89</v>
       </c>
       <c r="BN63">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="BO63">
-        <v>3.11</v>
+        <v>2.41</v>
       </c>
       <c r="BP63">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13973,7 +14018,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7326960</v>
+        <v>7326957</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13988,10 +14033,10 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -14003,175 +14048,175 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="Q64">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="R64">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="T64">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U64">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="V64">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="W64">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X64">
         <v>8</v>
       </c>
       <c r="Y64">
+        <v>1.05</v>
+      </c>
+      <c r="Z64">
+        <v>2.88</v>
+      </c>
+      <c r="AA64">
+        <v>3</v>
+      </c>
+      <c r="AB64">
+        <v>2.5</v>
+      </c>
+      <c r="AC64">
         <v>1.08</v>
       </c>
-      <c r="Z64">
-        <v>1.48</v>
-      </c>
-      <c r="AA64">
-        <v>4</v>
-      </c>
-      <c r="AB64">
+      <c r="AD64">
         <v>6.5</v>
       </c>
-      <c r="AC64">
-        <v>1.06</v>
-      </c>
-      <c r="AD64">
-        <v>8.5</v>
-      </c>
       <c r="AE64">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AF64">
-        <v>3.45</v>
+        <v>2.7</v>
       </c>
       <c r="AG64">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AH64">
+        <v>1.57</v>
+      </c>
+      <c r="AI64">
         <v>1.91</v>
-      </c>
-      <c r="AI64">
-        <v>1.95</v>
       </c>
       <c r="AJ64">
         <v>1.8</v>
       </c>
       <c r="AK64">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AL64">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AM64">
-        <v>2.45</v>
+        <v>1.42</v>
       </c>
       <c r="AN64">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO64">
+        <v>1.67</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>1.6</v>
+      </c>
+      <c r="AR64">
         <v>1.33</v>
       </c>
-      <c r="AP64">
-        <v>2.5</v>
-      </c>
-      <c r="AQ64">
-        <v>1</v>
-      </c>
-      <c r="AR64">
-        <v>2.42</v>
-      </c>
       <c r="AS64">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="AT64">
-        <v>3.89</v>
+        <v>2.52</v>
       </c>
       <c r="AU64">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AV64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY64">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AZ64">
         <v>7</v>
       </c>
       <c r="BA64">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BB64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC64">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BD64">
-        <v>1.27</v>
+        <v>1.88</v>
       </c>
       <c r="BE64">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="BF64">
-        <v>5.93</v>
+        <v>2.22</v>
       </c>
       <c r="BG64">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="BH64">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="BI64">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="BJ64">
         <v>2.52</v>
       </c>
       <c r="BK64">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="BL64">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="BM64">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
       <c r="BN64">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="BO64">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="BP64">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14179,7 +14224,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7326957</v>
+        <v>7326958</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14194,10 +14239,10 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H65" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -14212,154 +14257,154 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O65" t="s">
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="Q65">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S65">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="T65">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U65">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="V65">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="W65">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X65">
         <v>8</v>
       </c>
       <c r="Y65">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Z65">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="AA65">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AB65">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AC65">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD65">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE65">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AF65">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="AG65">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AH65">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AI65">
         <v>1.91</v>
       </c>
       <c r="AJ65">
+        <v>1.91</v>
+      </c>
+      <c r="AK65">
+        <v>1.18</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.95</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>1.4</v>
+      </c>
+      <c r="AR65">
         <v>1.8</v>
       </c>
-      <c r="AK65">
-        <v>1.5</v>
-      </c>
-      <c r="AL65">
-        <v>1.38</v>
-      </c>
-      <c r="AM65">
-        <v>1.42</v>
-      </c>
-      <c r="AN65">
-        <v>2</v>
-      </c>
-      <c r="AO65">
-        <v>1.67</v>
-      </c>
-      <c r="AP65">
-        <v>1.25</v>
-      </c>
-      <c r="AQ65">
-        <v>1.6</v>
-      </c>
-      <c r="AR65">
-        <v>1.33</v>
-      </c>
       <c r="AS65">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="AT65">
-        <v>2.52</v>
+        <v>3.27</v>
       </c>
       <c r="AU65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW65">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY65">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ65">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB65">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BC65">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="BD65">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="BE65">
-        <v>9</v>
+        <v>7.39</v>
       </c>
       <c r="BF65">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="BG65">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="BH65">
-        <v>3.56</v>
+        <v>3.7</v>
       </c>
       <c r="BI65">
         <v>1.51</v>
       </c>
       <c r="BJ65">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="BK65">
         <v>1.83</v>
@@ -14368,16 +14413,16 @@
         <v>1.97</v>
       </c>
       <c r="BM65">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="BN65">
         <v>1.61</v>
       </c>
       <c r="BO65">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="BP65">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14385,7 +14430,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7326959</v>
+        <v>7326960</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14400,10 +14445,10 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -14415,175 +14460,175 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O66" t="s">
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="Q66">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="R66">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S66">
+        <v>6</v>
+      </c>
+      <c r="T66">
+        <v>1.4</v>
+      </c>
+      <c r="U66">
+        <v>2.75</v>
+      </c>
+      <c r="V66">
+        <v>2.75</v>
+      </c>
+      <c r="W66">
+        <v>1.4</v>
+      </c>
+      <c r="X66">
+        <v>8</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>1.48</v>
+      </c>
+      <c r="AA66">
         <v>4</v>
       </c>
-      <c r="T66">
+      <c r="AB66">
+        <v>6.5</v>
+      </c>
+      <c r="AC66">
+        <v>1.06</v>
+      </c>
+      <c r="AD66">
+        <v>8.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.3</v>
+      </c>
+      <c r="AF66">
+        <v>3.45</v>
+      </c>
+      <c r="AG66">
+        <v>1.8</v>
+      </c>
+      <c r="AH66">
+        <v>1.91</v>
+      </c>
+      <c r="AI66">
+        <v>1.95</v>
+      </c>
+      <c r="AJ66">
+        <v>1.8</v>
+      </c>
+      <c r="AK66">
+        <v>1.1</v>
+      </c>
+      <c r="AL66">
+        <v>1.2</v>
+      </c>
+      <c r="AM66">
+        <v>2.45</v>
+      </c>
+      <c r="AN66">
+        <v>2.33</v>
+      </c>
+      <c r="AO66">
         <v>1.33</v>
       </c>
-      <c r="U66">
-        <v>3</v>
-      </c>
-      <c r="V66">
-        <v>2.4</v>
-      </c>
-      <c r="W66">
-        <v>1.5</v>
-      </c>
-      <c r="X66">
-        <v>5.5</v>
-      </c>
-      <c r="Y66">
-        <v>1.11</v>
-      </c>
-      <c r="Z66">
-        <v>1.95</v>
-      </c>
-      <c r="AA66">
-        <v>3.5</v>
-      </c>
-      <c r="AB66">
-        <v>3.5</v>
-      </c>
-      <c r="AC66">
-        <v>1.02</v>
-      </c>
-      <c r="AD66">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="AE66">
-        <v>1.21</v>
-      </c>
-      <c r="AF66">
-        <v>3.97</v>
-      </c>
-      <c r="AG66">
-        <v>1.65</v>
-      </c>
-      <c r="AH66">
-        <v>2.1</v>
-      </c>
-      <c r="AI66">
-        <v>1.6</v>
-      </c>
-      <c r="AJ66">
+      <c r="AP66">
         <v>2.2</v>
       </c>
-      <c r="AK66">
-        <v>1.3</v>
-      </c>
-      <c r="AL66">
-        <v>1.3</v>
-      </c>
-      <c r="AM66">
-        <v>1.7</v>
-      </c>
-      <c r="AN66">
-        <v>1.33</v>
-      </c>
-      <c r="AO66">
-        <v>2</v>
-      </c>
-      <c r="AP66">
-        <v>1</v>
-      </c>
       <c r="AQ66">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="AS66">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT66">
-        <v>3.34</v>
+        <v>3.89</v>
       </c>
       <c r="AU66">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AV66">
+        <v>2</v>
+      </c>
+      <c r="AW66">
+        <v>8</v>
+      </c>
+      <c r="AX66">
+        <v>5</v>
+      </c>
+      <c r="AY66">
+        <v>20</v>
+      </c>
+      <c r="AZ66">
         <v>7</v>
       </c>
-      <c r="AW66">
+      <c r="BA66">
         <v>12</v>
       </c>
-      <c r="AX66">
-        <v>7</v>
-      </c>
-      <c r="AY66">
-        <v>15</v>
-      </c>
-      <c r="AZ66">
-        <v>14</v>
-      </c>
-      <c r="BA66">
-        <v>4</v>
-      </c>
       <c r="BB66">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC66">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BD66">
-        <v>1.7</v>
+        <v>1.27</v>
       </c>
       <c r="BE66">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="BF66">
-        <v>2.49</v>
+        <v>5.93</v>
       </c>
       <c r="BG66">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="BH66">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="BI66">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="BJ66">
+        <v>2.52</v>
+      </c>
+      <c r="BK66">
+        <v>1.86</v>
+      </c>
+      <c r="BL66">
+        <v>1.94</v>
+      </c>
+      <c r="BM66">
+        <v>2.37</v>
+      </c>
+      <c r="BN66">
+        <v>1.59</v>
+      </c>
+      <c r="BO66">
         <v>3.2</v>
       </c>
-      <c r="BK66">
-        <v>1.52</v>
-      </c>
-      <c r="BL66">
-        <v>2.36</v>
-      </c>
-      <c r="BM66">
-        <v>1.89</v>
-      </c>
-      <c r="BN66">
-        <v>1.85</v>
-      </c>
-      <c r="BO66">
-        <v>2.41</v>
-      </c>
       <c r="BP66">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14633,7 +14678,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14714,7 +14759,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ67">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR67">
         <v>1.93</v>
@@ -14797,7 +14842,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7326961</v>
+        <v>7326963</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14812,190 +14857,190 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="P68" t="s">
         <v>91</v>
       </c>
       <c r="Q68">
-        <v>2.16</v>
+        <v>3</v>
       </c>
       <c r="R68">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>5.95</v>
+        <v>4</v>
       </c>
       <c r="T68">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U68">
-        <v>2.91</v>
+        <v>2.5</v>
       </c>
       <c r="V68">
-        <v>2.81</v>
+        <v>3.4</v>
       </c>
       <c r="W68">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="X68">
-        <v>6.45</v>
+        <v>10</v>
       </c>
       <c r="Y68">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="Z68">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AA68">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="AB68">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="AC68">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AD68">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE68">
+        <v>1.55</v>
+      </c>
+      <c r="AF68">
+        <v>2.3</v>
+      </c>
+      <c r="AG68">
+        <v>2.5</v>
+      </c>
+      <c r="AH68">
+        <v>1.46</v>
+      </c>
+      <c r="AI68">
+        <v>1.95</v>
+      </c>
+      <c r="AJ68">
+        <v>1.8</v>
+      </c>
+      <c r="AK68">
+        <v>1.3</v>
+      </c>
+      <c r="AL68">
+        <v>1.3</v>
+      </c>
+      <c r="AM68">
+        <v>1.65</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1.5</v>
+      </c>
+      <c r="AP68">
+        <v>1.4</v>
+      </c>
+      <c r="AQ68">
         <v>1.25</v>
       </c>
-      <c r="AF68">
-        <v>3.6</v>
-      </c>
-      <c r="AG68">
-        <v>1.8</v>
-      </c>
-      <c r="AH68">
-        <v>1.91</v>
-      </c>
-      <c r="AI68">
-        <v>1.87</v>
-      </c>
-      <c r="AJ68">
-        <v>1.87</v>
-      </c>
-      <c r="AK68">
-        <v>1.1</v>
-      </c>
-      <c r="AL68">
-        <v>1.2</v>
-      </c>
-      <c r="AM68">
-        <v>2.3</v>
-      </c>
-      <c r="AN68">
-        <v>2</v>
-      </c>
-      <c r="AO68">
-        <v>0</v>
-      </c>
-      <c r="AP68">
-        <v>1.75</v>
-      </c>
-      <c r="AQ68">
-        <v>0</v>
-      </c>
       <c r="AR68">
-        <v>1.63</v>
+        <v>0.99</v>
       </c>
       <c r="AS68">
         <v>1.05</v>
       </c>
       <c r="AT68">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="AU68">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV68">
         <v>3</v>
       </c>
       <c r="AW68">
+        <v>3</v>
+      </c>
+      <c r="AX68">
+        <v>7</v>
+      </c>
+      <c r="AY68">
         <v>5</v>
       </c>
-      <c r="AX68">
+      <c r="AZ68">
+        <v>10</v>
+      </c>
+      <c r="BA68">
+        <v>2</v>
+      </c>
+      <c r="BB68">
+        <v>8</v>
+      </c>
+      <c r="BC68">
+        <v>10</v>
+      </c>
+      <c r="BD68">
+        <v>1.71</v>
+      </c>
+      <c r="BE68">
+        <v>7.5</v>
+      </c>
+      <c r="BF68">
         <v>3</v>
       </c>
-      <c r="AY68">
-        <v>14</v>
-      </c>
-      <c r="AZ68">
-        <v>6</v>
-      </c>
-      <c r="BA68">
-        <v>4</v>
-      </c>
-      <c r="BB68">
-        <v>2</v>
-      </c>
-      <c r="BC68">
-        <v>6</v>
-      </c>
-      <c r="BD68">
-        <v>1.56</v>
-      </c>
-      <c r="BE68">
-        <v>9.4</v>
-      </c>
-      <c r="BF68">
-        <v>2.89</v>
-      </c>
       <c r="BG68">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="BH68">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="BI68">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="BJ68">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="BK68">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="BL68">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="BM68">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="BN68">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="BO68">
-        <v>3.08</v>
+        <v>3.78</v>
       </c>
       <c r="BP68">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -15003,7 +15048,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7326963</v>
+        <v>7326961</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15018,190 +15063,190 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O69" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="P69" t="s">
         <v>91</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="S69">
-        <v>4</v>
+        <v>5.95</v>
       </c>
       <c r="T69">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U69">
-        <v>2.5</v>
+        <v>2.91</v>
       </c>
       <c r="V69">
-        <v>3.4</v>
+        <v>2.81</v>
       </c>
       <c r="W69">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="X69">
-        <v>10</v>
+        <v>6.45</v>
       </c>
       <c r="Y69">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="Z69">
+        <v>1.6</v>
+      </c>
+      <c r="AA69">
+        <v>3.8</v>
+      </c>
+      <c r="AB69">
+        <v>5.25</v>
+      </c>
+      <c r="AC69">
+        <v>1.05</v>
+      </c>
+      <c r="AD69">
+        <v>9.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.25</v>
+      </c>
+      <c r="AF69">
+        <v>3.6</v>
+      </c>
+      <c r="AG69">
+        <v>1.8</v>
+      </c>
+      <c r="AH69">
+        <v>1.91</v>
+      </c>
+      <c r="AI69">
+        <v>1.87</v>
+      </c>
+      <c r="AJ69">
+        <v>1.87</v>
+      </c>
+      <c r="AK69">
+        <v>1.1</v>
+      </c>
+      <c r="AL69">
+        <v>1.2</v>
+      </c>
+      <c r="AM69">
         <v>2.3</v>
       </c>
-      <c r="AA69">
-        <v>3</v>
-      </c>
-      <c r="AB69">
-        <v>3.2</v>
-      </c>
-      <c r="AC69">
-        <v>1.08</v>
-      </c>
-      <c r="AD69">
-        <v>7.5</v>
-      </c>
-      <c r="AE69">
-        <v>1.55</v>
-      </c>
-      <c r="AF69">
-        <v>2.3</v>
-      </c>
-      <c r="AG69">
-        <v>2.5</v>
-      </c>
-      <c r="AH69">
-        <v>1.46</v>
-      </c>
-      <c r="AI69">
-        <v>1.95</v>
-      </c>
-      <c r="AJ69">
-        <v>1.8</v>
-      </c>
-      <c r="AK69">
-        <v>1.3</v>
-      </c>
-      <c r="AL69">
-        <v>1.3</v>
-      </c>
-      <c r="AM69">
-        <v>1.65</v>
-      </c>
       <c r="AN69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO69">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>0.2</v>
       </c>
       <c r="AR69">
-        <v>0.99</v>
+        <v>1.63</v>
       </c>
       <c r="AS69">
         <v>1.05</v>
       </c>
       <c r="AT69">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="AU69">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV69">
         <v>3</v>
       </c>
       <c r="AW69">
+        <v>5</v>
+      </c>
+      <c r="AX69">
         <v>3</v>
       </c>
-      <c r="AX69">
-        <v>7</v>
-      </c>
       <c r="AY69">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AZ69">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC69">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD69">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="BE69">
-        <v>7.5</v>
+        <v>9.4</v>
       </c>
       <c r="BF69">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="BG69">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="BH69">
-        <v>3.1</v>
+        <v>3.48</v>
       </c>
       <c r="BI69">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="BJ69">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="BK69">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="BL69">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="BM69">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="BN69">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="BO69">
-        <v>3.78</v>
+        <v>3.08</v>
       </c>
       <c r="BP69">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15332,7 +15377,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -15741,7 +15786,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ72">
         <v>0.8</v>
@@ -15869,7 +15914,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16075,7 +16120,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16153,7 +16198,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>0.5</v>
@@ -16281,7 +16326,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16359,10 +16404,10 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ75">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -16487,7 +16532,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16774,7 +16819,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ77">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -16899,7 +16944,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17183,7 +17228,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17311,7 +17356,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17389,10 +17434,10 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -17517,7 +17562,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17595,10 +17640,10 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -17801,7 +17846,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ82">
         <v>1.4</v>
@@ -17929,7 +17974,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18135,7 +18180,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18216,7 +18261,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ84">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.47</v>
@@ -18341,7 +18386,7 @@
         <v>91</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18547,7 +18592,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18831,7 +18876,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19165,7 +19210,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19246,7 +19291,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19371,7 +19416,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19528,6 +19573,2066 @@
       </c>
       <c r="BP90">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7326985</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45409.04166666666</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>89</v>
+      </c>
+      <c r="H91" t="s">
+        <v>76</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>6</v>
+      </c>
+      <c r="O91" t="s">
+        <v>151</v>
+      </c>
+      <c r="P91" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q91">
+        <v>2.7</v>
+      </c>
+      <c r="R91">
+        <v>2.15</v>
+      </c>
+      <c r="S91">
+        <v>3.6</v>
+      </c>
+      <c r="T91">
+        <v>1.35</v>
+      </c>
+      <c r="U91">
+        <v>2.95</v>
+      </c>
+      <c r="V91">
+        <v>2.55</v>
+      </c>
+      <c r="W91">
+        <v>1.46</v>
+      </c>
+      <c r="X91">
+        <v>5.95</v>
+      </c>
+      <c r="Y91">
+        <v>1.1</v>
+      </c>
+      <c r="Z91">
+        <v>2.09</v>
+      </c>
+      <c r="AA91">
+        <v>3.5</v>
+      </c>
+      <c r="AB91">
+        <v>3.05</v>
+      </c>
+      <c r="AC91">
+        <v>1.05</v>
+      </c>
+      <c r="AD91">
+        <v>9.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.22</v>
+      </c>
+      <c r="AF91">
+        <v>4</v>
+      </c>
+      <c r="AG91">
+        <v>1.71</v>
+      </c>
+      <c r="AH91">
+        <v>1.97</v>
+      </c>
+      <c r="AI91">
+        <v>1.62</v>
+      </c>
+      <c r="AJ91">
+        <v>2.25</v>
+      </c>
+      <c r="AK91">
+        <v>1.33</v>
+      </c>
+      <c r="AL91">
+        <v>1.25</v>
+      </c>
+      <c r="AM91">
+        <v>1.7</v>
+      </c>
+      <c r="AN91">
+        <v>0.8</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>0.83</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AR91">
+        <v>1.14</v>
+      </c>
+      <c r="AS91">
+        <v>1.36</v>
+      </c>
+      <c r="AT91">
+        <v>2.5</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>11</v>
+      </c>
+      <c r="AW91">
+        <v>7</v>
+      </c>
+      <c r="AX91">
+        <v>2</v>
+      </c>
+      <c r="AY91">
+        <v>12</v>
+      </c>
+      <c r="AZ91">
+        <v>13</v>
+      </c>
+      <c r="BA91">
+        <v>6</v>
+      </c>
+      <c r="BB91">
+        <v>3</v>
+      </c>
+      <c r="BC91">
+        <v>9</v>
+      </c>
+      <c r="BD91">
+        <v>1.73</v>
+      </c>
+      <c r="BE91">
+        <v>8</v>
+      </c>
+      <c r="BF91">
+        <v>2.38</v>
+      </c>
+      <c r="BG91">
+        <v>1.22</v>
+      </c>
+      <c r="BH91">
+        <v>3.65</v>
+      </c>
+      <c r="BI91">
+        <v>1.47</v>
+      </c>
+      <c r="BJ91">
+        <v>2.63</v>
+      </c>
+      <c r="BK91">
+        <v>1.92</v>
+      </c>
+      <c r="BL91">
+        <v>1.88</v>
+      </c>
+      <c r="BM91">
+        <v>2.23</v>
+      </c>
+      <c r="BN91">
+        <v>1.63</v>
+      </c>
+      <c r="BO91">
+        <v>2.98</v>
+      </c>
+      <c r="BP91">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7326987</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45409.08333333334</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>152</v>
+      </c>
+      <c r="P92" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q92">
+        <v>3.25</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>3.25</v>
+      </c>
+      <c r="T92">
+        <v>1.44</v>
+      </c>
+      <c r="U92">
+        <v>2.63</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>1.36</v>
+      </c>
+      <c r="X92">
+        <v>9</v>
+      </c>
+      <c r="Y92">
+        <v>1.07</v>
+      </c>
+      <c r="Z92">
+        <v>1.94</v>
+      </c>
+      <c r="AA92">
+        <v>4.37</v>
+      </c>
+      <c r="AB92">
+        <v>2.74</v>
+      </c>
+      <c r="AC92">
+        <v>1.02</v>
+      </c>
+      <c r="AD92">
+        <v>8.6</v>
+      </c>
+      <c r="AE92">
+        <v>1.29</v>
+      </c>
+      <c r="AF92">
+        <v>3.15</v>
+      </c>
+      <c r="AG92">
+        <v>2.15</v>
+      </c>
+      <c r="AH92">
+        <v>1.65</v>
+      </c>
+      <c r="AI92">
+        <v>1.8</v>
+      </c>
+      <c r="AJ92">
+        <v>1.95</v>
+      </c>
+      <c r="AK92">
+        <v>1.49</v>
+      </c>
+      <c r="AL92">
+        <v>1.32</v>
+      </c>
+      <c r="AM92">
+        <v>1.49</v>
+      </c>
+      <c r="AN92">
+        <v>0.75</v>
+      </c>
+      <c r="AO92">
+        <v>3</v>
+      </c>
+      <c r="AP92">
+        <v>1.2</v>
+      </c>
+      <c r="AQ92">
+        <v>2.4</v>
+      </c>
+      <c r="AR92">
+        <v>1.06</v>
+      </c>
+      <c r="AS92">
+        <v>1.12</v>
+      </c>
+      <c r="AT92">
+        <v>2.18</v>
+      </c>
+      <c r="AU92">
+        <v>6</v>
+      </c>
+      <c r="AV92">
+        <v>4</v>
+      </c>
+      <c r="AW92">
+        <v>2</v>
+      </c>
+      <c r="AX92">
+        <v>13</v>
+      </c>
+      <c r="AY92">
+        <v>8</v>
+      </c>
+      <c r="AZ92">
+        <v>17</v>
+      </c>
+      <c r="BA92">
+        <v>4</v>
+      </c>
+      <c r="BB92">
+        <v>9</v>
+      </c>
+      <c r="BC92">
+        <v>13</v>
+      </c>
+      <c r="BD92">
+        <v>1.91</v>
+      </c>
+      <c r="BE92">
+        <v>8</v>
+      </c>
+      <c r="BF92">
+        <v>2.2</v>
+      </c>
+      <c r="BG92">
+        <v>1.33</v>
+      </c>
+      <c r="BH92">
+        <v>3.1</v>
+      </c>
+      <c r="BI92">
+        <v>1.58</v>
+      </c>
+      <c r="BJ92">
+        <v>2.28</v>
+      </c>
+      <c r="BK92">
+        <v>2</v>
+      </c>
+      <c r="BL92">
+        <v>1.8</v>
+      </c>
+      <c r="BM92">
+        <v>2.5</v>
+      </c>
+      <c r="BN92">
+        <v>1.49</v>
+      </c>
+      <c r="BO92">
+        <v>3.4</v>
+      </c>
+      <c r="BP92">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7326988</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45409.08333333334</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" t="s">
+        <v>83</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>91</v>
+      </c>
+      <c r="P93" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q93">
+        <v>2.3</v>
+      </c>
+      <c r="R93">
+        <v>2.2</v>
+      </c>
+      <c r="S93">
+        <v>5.5</v>
+      </c>
+      <c r="T93">
+        <v>1.4</v>
+      </c>
+      <c r="U93">
+        <v>2.75</v>
+      </c>
+      <c r="V93">
+        <v>3</v>
+      </c>
+      <c r="W93">
+        <v>1.36</v>
+      </c>
+      <c r="X93">
+        <v>8</v>
+      </c>
+      <c r="Y93">
+        <v>1.08</v>
+      </c>
+      <c r="Z93">
+        <v>1.1</v>
+      </c>
+      <c r="AA93">
+        <v>9.02</v>
+      </c>
+      <c r="AB93">
+        <v>10.32</v>
+      </c>
+      <c r="AC93">
+        <v>1.02</v>
+      </c>
+      <c r="AD93">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE93">
+        <v>1.29</v>
+      </c>
+      <c r="AF93">
+        <v>3.15</v>
+      </c>
+      <c r="AG93">
+        <v>1.95</v>
+      </c>
+      <c r="AH93">
+        <v>1.8</v>
+      </c>
+      <c r="AI93">
+        <v>1.95</v>
+      </c>
+      <c r="AJ93">
+        <v>1.8</v>
+      </c>
+      <c r="AK93">
+        <v>1.16</v>
+      </c>
+      <c r="AL93">
+        <v>1.27</v>
+      </c>
+      <c r="AM93">
+        <v>2.2</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>1.2</v>
+      </c>
+      <c r="AP93">
+        <v>0.8</v>
+      </c>
+      <c r="AQ93">
+        <v>1.5</v>
+      </c>
+      <c r="AR93">
+        <v>1.73</v>
+      </c>
+      <c r="AS93">
+        <v>1.27</v>
+      </c>
+      <c r="AT93">
+        <v>3</v>
+      </c>
+      <c r="AU93">
+        <v>7</v>
+      </c>
+      <c r="AV93">
+        <v>5</v>
+      </c>
+      <c r="AW93">
+        <v>16</v>
+      </c>
+      <c r="AX93">
+        <v>3</v>
+      </c>
+      <c r="AY93">
+        <v>23</v>
+      </c>
+      <c r="AZ93">
+        <v>8</v>
+      </c>
+      <c r="BA93">
+        <v>13</v>
+      </c>
+      <c r="BB93">
+        <v>6</v>
+      </c>
+      <c r="BC93">
+        <v>19</v>
+      </c>
+      <c r="BD93">
+        <v>1.44</v>
+      </c>
+      <c r="BE93">
+        <v>9</v>
+      </c>
+      <c r="BF93">
+        <v>3.25</v>
+      </c>
+      <c r="BG93">
+        <v>1.23</v>
+      </c>
+      <c r="BH93">
+        <v>3.9</v>
+      </c>
+      <c r="BI93">
+        <v>1.43</v>
+      </c>
+      <c r="BJ93">
+        <v>2.7</v>
+      </c>
+      <c r="BK93">
+        <v>1.82</v>
+      </c>
+      <c r="BL93">
+        <v>1.98</v>
+      </c>
+      <c r="BM93">
+        <v>2.14</v>
+      </c>
+      <c r="BN93">
+        <v>1.66</v>
+      </c>
+      <c r="BO93">
+        <v>2.75</v>
+      </c>
+      <c r="BP93">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7326986</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45409.08333333334</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>88</v>
+      </c>
+      <c r="H94" t="s">
+        <v>85</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94" t="s">
+        <v>153</v>
+      </c>
+      <c r="P94" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q94">
+        <v>2.88</v>
+      </c>
+      <c r="R94">
+        <v>2.04</v>
+      </c>
+      <c r="S94">
+        <v>3.92</v>
+      </c>
+      <c r="T94">
+        <v>1.46</v>
+      </c>
+      <c r="U94">
+        <v>2.61</v>
+      </c>
+      <c r="V94">
+        <v>3.16</v>
+      </c>
+      <c r="W94">
+        <v>1.33</v>
+      </c>
+      <c r="X94">
+        <v>8.4</v>
+      </c>
+      <c r="Y94">
+        <v>1.05</v>
+      </c>
+      <c r="Z94">
+        <v>1.6</v>
+      </c>
+      <c r="AA94">
+        <v>4.71</v>
+      </c>
+      <c r="AB94">
+        <v>3.67</v>
+      </c>
+      <c r="AC94">
+        <v>1.04</v>
+      </c>
+      <c r="AD94">
+        <v>7.8</v>
+      </c>
+      <c r="AE94">
+        <v>1.35</v>
+      </c>
+      <c r="AF94">
+        <v>2.84</v>
+      </c>
+      <c r="AG94">
+        <v>2.1</v>
+      </c>
+      <c r="AH94">
+        <v>1.7</v>
+      </c>
+      <c r="AI94">
+        <v>1.89</v>
+      </c>
+      <c r="AJ94">
+        <v>1.85</v>
+      </c>
+      <c r="AK94">
+        <v>1.34</v>
+      </c>
+      <c r="AL94">
+        <v>1.33</v>
+      </c>
+      <c r="AM94">
+        <v>1.65</v>
+      </c>
+      <c r="AN94">
+        <v>1.25</v>
+      </c>
+      <c r="AO94">
+        <v>1.25</v>
+      </c>
+      <c r="AP94">
+        <v>1</v>
+      </c>
+      <c r="AQ94">
+        <v>1.6</v>
+      </c>
+      <c r="AR94">
+        <v>1.33</v>
+      </c>
+      <c r="AS94">
+        <v>1.01</v>
+      </c>
+      <c r="AT94">
+        <v>2.34</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>7</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>3</v>
+      </c>
+      <c r="AY94">
+        <v>11</v>
+      </c>
+      <c r="AZ94">
+        <v>10</v>
+      </c>
+      <c r="BA94">
+        <v>6</v>
+      </c>
+      <c r="BB94">
+        <v>2</v>
+      </c>
+      <c r="BC94">
+        <v>8</v>
+      </c>
+      <c r="BD94">
+        <v>1.73</v>
+      </c>
+      <c r="BE94">
+        <v>8</v>
+      </c>
+      <c r="BF94">
+        <v>2.38</v>
+      </c>
+      <c r="BG94">
+        <v>1.21</v>
+      </c>
+      <c r="BH94">
+        <v>3.74</v>
+      </c>
+      <c r="BI94">
+        <v>1.42</v>
+      </c>
+      <c r="BJ94">
+        <v>2.65</v>
+      </c>
+      <c r="BK94">
+        <v>1.85</v>
+      </c>
+      <c r="BL94">
+        <v>1.95</v>
+      </c>
+      <c r="BM94">
+        <v>2.23</v>
+      </c>
+      <c r="BN94">
+        <v>1.66</v>
+      </c>
+      <c r="BO94">
+        <v>2.84</v>
+      </c>
+      <c r="BP94">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7326989</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45409.125</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>154</v>
+      </c>
+      <c r="P95" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q95">
+        <v>2.82</v>
+      </c>
+      <c r="R95">
+        <v>2.18</v>
+      </c>
+      <c r="S95">
+        <v>3.58</v>
+      </c>
+      <c r="T95">
+        <v>1.36</v>
+      </c>
+      <c r="U95">
+        <v>3</v>
+      </c>
+      <c r="V95">
+        <v>2.67</v>
+      </c>
+      <c r="W95">
+        <v>1.44</v>
+      </c>
+      <c r="X95">
+        <v>6.6</v>
+      </c>
+      <c r="Y95">
+        <v>1.09</v>
+      </c>
+      <c r="Z95">
+        <v>2.81</v>
+      </c>
+      <c r="AA95">
+        <v>2.65</v>
+      </c>
+      <c r="AB95">
+        <v>2.67</v>
+      </c>
+      <c r="AC95">
+        <v>1.01</v>
+      </c>
+      <c r="AD95">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE95">
+        <v>1.24</v>
+      </c>
+      <c r="AF95">
+        <v>3.5</v>
+      </c>
+      <c r="AG95">
+        <v>1.88</v>
+      </c>
+      <c r="AH95">
+        <v>1.98</v>
+      </c>
+      <c r="AI95">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95">
+        <v>2.12</v>
+      </c>
+      <c r="AK95">
+        <v>1.39</v>
+      </c>
+      <c r="AL95">
+        <v>1.3</v>
+      </c>
+      <c r="AM95">
+        <v>1.63</v>
+      </c>
+      <c r="AN95">
+        <v>2.5</v>
+      </c>
+      <c r="AO95">
+        <v>2.25</v>
+      </c>
+      <c r="AP95">
+        <v>2.2</v>
+      </c>
+      <c r="AQ95">
+        <v>2</v>
+      </c>
+      <c r="AR95">
+        <v>1.48</v>
+      </c>
+      <c r="AS95">
+        <v>1.6</v>
+      </c>
+      <c r="AT95">
+        <v>3.08</v>
+      </c>
+      <c r="AU95">
+        <v>10</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>6</v>
+      </c>
+      <c r="AX95">
+        <v>4</v>
+      </c>
+      <c r="AY95">
+        <v>16</v>
+      </c>
+      <c r="AZ95">
+        <v>8</v>
+      </c>
+      <c r="BA95">
+        <v>8</v>
+      </c>
+      <c r="BB95">
+        <v>5</v>
+      </c>
+      <c r="BC95">
+        <v>13</v>
+      </c>
+      <c r="BD95">
+        <v>1.73</v>
+      </c>
+      <c r="BE95">
+        <v>8</v>
+      </c>
+      <c r="BF95">
+        <v>2.4</v>
+      </c>
+      <c r="BG95">
+        <v>1.17</v>
+      </c>
+      <c r="BH95">
+        <v>4.7</v>
+      </c>
+      <c r="BI95">
+        <v>1.31</v>
+      </c>
+      <c r="BJ95">
+        <v>3.04</v>
+      </c>
+      <c r="BK95">
+        <v>1.73</v>
+      </c>
+      <c r="BL95">
+        <v>2</v>
+      </c>
+      <c r="BM95">
+        <v>1.97</v>
+      </c>
+      <c r="BN95">
+        <v>1.78</v>
+      </c>
+      <c r="BO95">
+        <v>2.55</v>
+      </c>
+      <c r="BP95">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7326990</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s">
+        <v>73</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" t="s">
+        <v>91</v>
+      </c>
+      <c r="P96" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q96">
+        <v>3.5</v>
+      </c>
+      <c r="R96">
+        <v>1.95</v>
+      </c>
+      <c r="S96">
+        <v>3.5</v>
+      </c>
+      <c r="T96">
+        <v>1.53</v>
+      </c>
+      <c r="U96">
+        <v>2.38</v>
+      </c>
+      <c r="V96">
+        <v>3.75</v>
+      </c>
+      <c r="W96">
+        <v>1.25</v>
+      </c>
+      <c r="X96">
+        <v>11</v>
+      </c>
+      <c r="Y96">
+        <v>1.05</v>
+      </c>
+      <c r="Z96">
+        <v>3.95</v>
+      </c>
+      <c r="AA96">
+        <v>3.63</v>
+      </c>
+      <c r="AB96">
+        <v>1.72</v>
+      </c>
+      <c r="AC96">
+        <v>1.08</v>
+      </c>
+      <c r="AD96">
+        <v>7.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.51</v>
+      </c>
+      <c r="AF96">
+        <v>2.4</v>
+      </c>
+      <c r="AG96">
+        <v>2.25</v>
+      </c>
+      <c r="AH96">
+        <v>1.53</v>
+      </c>
+      <c r="AI96">
+        <v>2.05</v>
+      </c>
+      <c r="AJ96">
+        <v>1.7</v>
+      </c>
+      <c r="AK96">
+        <v>1.42</v>
+      </c>
+      <c r="AL96">
+        <v>1.3</v>
+      </c>
+      <c r="AM96">
+        <v>1.47</v>
+      </c>
+      <c r="AN96">
+        <v>0.8</v>
+      </c>
+      <c r="AO96">
+        <v>1.33</v>
+      </c>
+      <c r="AP96">
+        <v>0.83</v>
+      </c>
+      <c r="AQ96">
+        <v>1.25</v>
+      </c>
+      <c r="AR96">
+        <v>1.47</v>
+      </c>
+      <c r="AS96">
+        <v>1.12</v>
+      </c>
+      <c r="AT96">
+        <v>2.59</v>
+      </c>
+      <c r="AU96">
+        <v>6</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>2</v>
+      </c>
+      <c r="AX96">
+        <v>6</v>
+      </c>
+      <c r="AY96">
+        <v>8</v>
+      </c>
+      <c r="AZ96">
+        <v>10</v>
+      </c>
+      <c r="BA96">
+        <v>9</v>
+      </c>
+      <c r="BB96">
+        <v>5</v>
+      </c>
+      <c r="BC96">
+        <v>14</v>
+      </c>
+      <c r="BD96">
+        <v>2</v>
+      </c>
+      <c r="BE96">
+        <v>7.5</v>
+      </c>
+      <c r="BF96">
+        <v>2.1</v>
+      </c>
+      <c r="BG96">
+        <v>1.4</v>
+      </c>
+      <c r="BH96">
+        <v>2.8</v>
+      </c>
+      <c r="BI96">
+        <v>1.7</v>
+      </c>
+      <c r="BJ96">
+        <v>2.05</v>
+      </c>
+      <c r="BK96">
+        <v>2.1</v>
+      </c>
+      <c r="BL96">
+        <v>1.68</v>
+      </c>
+      <c r="BM96">
+        <v>2.8</v>
+      </c>
+      <c r="BN96">
+        <v>1.4</v>
+      </c>
+      <c r="BO96">
+        <v>3.74</v>
+      </c>
+      <c r="BP96">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7326991</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>70</v>
+      </c>
+      <c r="H97" t="s">
+        <v>81</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>155</v>
+      </c>
+      <c r="P97" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q97">
+        <v>2.38</v>
+      </c>
+      <c r="R97">
+        <v>2.2</v>
+      </c>
+      <c r="S97">
+        <v>5</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>4.11</v>
+      </c>
+      <c r="AA97">
+        <v>3.44</v>
+      </c>
+      <c r="AB97">
+        <v>1.74</v>
+      </c>
+      <c r="AC97">
+        <v>1.06</v>
+      </c>
+      <c r="AD97">
+        <v>8.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.3</v>
+      </c>
+      <c r="AF97">
+        <v>3.3</v>
+      </c>
+      <c r="AG97">
+        <v>2.04</v>
+      </c>
+      <c r="AH97">
+        <v>1.8</v>
+      </c>
+      <c r="AI97">
+        <v>1.95</v>
+      </c>
+      <c r="AJ97">
+        <v>1.8</v>
+      </c>
+      <c r="AK97">
+        <v>1.15</v>
+      </c>
+      <c r="AL97">
+        <v>1.22</v>
+      </c>
+      <c r="AM97">
+        <v>2.05</v>
+      </c>
+      <c r="AN97">
+        <v>2.5</v>
+      </c>
+      <c r="AO97">
+        <v>1</v>
+      </c>
+      <c r="AP97">
+        <v>2.2</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>2.45</v>
+      </c>
+      <c r="AS97">
+        <v>1.31</v>
+      </c>
+      <c r="AT97">
+        <v>3.76</v>
+      </c>
+      <c r="AU97">
+        <v>9</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>11</v>
+      </c>
+      <c r="AX97">
+        <v>8</v>
+      </c>
+      <c r="AY97">
+        <v>20</v>
+      </c>
+      <c r="AZ97">
+        <v>12</v>
+      </c>
+      <c r="BA97">
+        <v>8</v>
+      </c>
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
+        <v>11</v>
+      </c>
+      <c r="BD97">
+        <v>1.3</v>
+      </c>
+      <c r="BE97">
+        <v>9.5</v>
+      </c>
+      <c r="BF97">
+        <v>4</v>
+      </c>
+      <c r="BG97">
+        <v>1.25</v>
+      </c>
+      <c r="BH97">
+        <v>3.75</v>
+      </c>
+      <c r="BI97">
+        <v>1.45</v>
+      </c>
+      <c r="BJ97">
+        <v>2.6</v>
+      </c>
+      <c r="BK97">
+        <v>1.9</v>
+      </c>
+      <c r="BL97">
+        <v>1.9</v>
+      </c>
+      <c r="BM97">
+        <v>2.2</v>
+      </c>
+      <c r="BN97">
+        <v>1.62</v>
+      </c>
+      <c r="BO97">
+        <v>2.9</v>
+      </c>
+      <c r="BP97">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7326992</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45410.125</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>87</v>
+      </c>
+      <c r="H98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98" t="s">
+        <v>156</v>
+      </c>
+      <c r="P98" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q98">
+        <v>2.63</v>
+      </c>
+      <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
+        <v>4.75</v>
+      </c>
+      <c r="T98">
+        <v>1.5</v>
+      </c>
+      <c r="U98">
+        <v>2.5</v>
+      </c>
+      <c r="V98">
+        <v>3.4</v>
+      </c>
+      <c r="W98">
+        <v>1.3</v>
+      </c>
+      <c r="X98">
+        <v>10</v>
+      </c>
+      <c r="Y98">
+        <v>1.06</v>
+      </c>
+      <c r="Z98">
+        <v>1.98</v>
+      </c>
+      <c r="AA98">
+        <v>2.09</v>
+      </c>
+      <c r="AB98">
+        <v>7.9</v>
+      </c>
+      <c r="AC98">
+        <v>1.07</v>
+      </c>
+      <c r="AD98">
+        <v>8</v>
+      </c>
+      <c r="AE98">
+        <v>1.42</v>
+      </c>
+      <c r="AF98">
+        <v>2.75</v>
+      </c>
+      <c r="AG98">
+        <v>2.2</v>
+      </c>
+      <c r="AH98">
+        <v>1.55</v>
+      </c>
+      <c r="AI98">
+        <v>2.05</v>
+      </c>
+      <c r="AJ98">
+        <v>1.7</v>
+      </c>
+      <c r="AK98">
+        <v>1.22</v>
+      </c>
+      <c r="AL98">
+        <v>1.28</v>
+      </c>
+      <c r="AM98">
+        <v>1.78</v>
+      </c>
+      <c r="AN98">
+        <v>1.75</v>
+      </c>
+      <c r="AO98">
+        <v>2.25</v>
+      </c>
+      <c r="AP98">
+        <v>2</v>
+      </c>
+      <c r="AQ98">
+        <v>1.8</v>
+      </c>
+      <c r="AR98">
+        <v>1.66</v>
+      </c>
+      <c r="AS98">
+        <v>1.03</v>
+      </c>
+      <c r="AT98">
+        <v>2.69</v>
+      </c>
+      <c r="AU98">
+        <v>7</v>
+      </c>
+      <c r="AV98">
+        <v>8</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>4</v>
+      </c>
+      <c r="AY98">
+        <v>10</v>
+      </c>
+      <c r="AZ98">
+        <v>12</v>
+      </c>
+      <c r="BA98">
+        <v>4</v>
+      </c>
+      <c r="BB98">
+        <v>5</v>
+      </c>
+      <c r="BC98">
+        <v>9</v>
+      </c>
+      <c r="BD98">
+        <v>1.57</v>
+      </c>
+      <c r="BE98">
+        <v>8</v>
+      </c>
+      <c r="BF98">
+        <v>2.88</v>
+      </c>
+      <c r="BG98">
+        <v>1.33</v>
+      </c>
+      <c r="BH98">
+        <v>3.2</v>
+      </c>
+      <c r="BI98">
+        <v>1.57</v>
+      </c>
+      <c r="BJ98">
+        <v>2.3</v>
+      </c>
+      <c r="BK98">
+        <v>2</v>
+      </c>
+      <c r="BL98">
+        <v>1.8</v>
+      </c>
+      <c r="BM98">
+        <v>2.45</v>
+      </c>
+      <c r="BN98">
+        <v>1.52</v>
+      </c>
+      <c r="BO98">
+        <v>3.3</v>
+      </c>
+      <c r="BP98">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7326993</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45410.125</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s">
+        <v>74</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>157</v>
+      </c>
+      <c r="P99" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q99">
+        <v>2.38</v>
+      </c>
+      <c r="R99">
+        <v>2.2</v>
+      </c>
+      <c r="S99">
+        <v>5</v>
+      </c>
+      <c r="T99">
+        <v>1.4</v>
+      </c>
+      <c r="U99">
+        <v>2.75</v>
+      </c>
+      <c r="V99">
+        <v>2.75</v>
+      </c>
+      <c r="W99">
+        <v>1.4</v>
+      </c>
+      <c r="X99">
+        <v>8</v>
+      </c>
+      <c r="Y99">
+        <v>1.08</v>
+      </c>
+      <c r="Z99">
+        <v>1.81</v>
+      </c>
+      <c r="AA99">
+        <v>2.28</v>
+      </c>
+      <c r="AB99">
+        <v>8.33</v>
+      </c>
+      <c r="AC99">
+        <v>1.06</v>
+      </c>
+      <c r="AD99">
+        <v>8.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.3</v>
+      </c>
+      <c r="AF99">
+        <v>3.35</v>
+      </c>
+      <c r="AG99">
+        <v>1.98</v>
+      </c>
+      <c r="AH99">
+        <v>1.86</v>
+      </c>
+      <c r="AI99">
+        <v>1.8</v>
+      </c>
+      <c r="AJ99">
+        <v>1.95</v>
+      </c>
+      <c r="AK99">
+        <v>1.16</v>
+      </c>
+      <c r="AL99">
+        <v>1.24</v>
+      </c>
+      <c r="AM99">
+        <v>1.88</v>
+      </c>
+      <c r="AN99">
+        <v>1.25</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>1.2</v>
+      </c>
+      <c r="AQ99">
+        <v>0.2</v>
+      </c>
+      <c r="AR99">
+        <v>1.35</v>
+      </c>
+      <c r="AS99">
+        <v>1.07</v>
+      </c>
+      <c r="AT99">
+        <v>2.42</v>
+      </c>
+      <c r="AU99">
+        <v>7</v>
+      </c>
+      <c r="AV99">
+        <v>2</v>
+      </c>
+      <c r="AW99">
+        <v>9</v>
+      </c>
+      <c r="AX99">
+        <v>1</v>
+      </c>
+      <c r="AY99">
+        <v>16</v>
+      </c>
+      <c r="AZ99">
+        <v>3</v>
+      </c>
+      <c r="BA99">
+        <v>8</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
+        <v>11</v>
+      </c>
+      <c r="BD99">
+        <v>1.5</v>
+      </c>
+      <c r="BE99">
+        <v>8.5</v>
+      </c>
+      <c r="BF99">
+        <v>3</v>
+      </c>
+      <c r="BG99">
+        <v>1.25</v>
+      </c>
+      <c r="BH99">
+        <v>3.75</v>
+      </c>
+      <c r="BI99">
+        <v>1.36</v>
+      </c>
+      <c r="BJ99">
+        <v>2.79</v>
+      </c>
+      <c r="BK99">
+        <v>1.88</v>
+      </c>
+      <c r="BL99">
+        <v>1.92</v>
+      </c>
+      <c r="BM99">
+        <v>2.11</v>
+      </c>
+      <c r="BN99">
+        <v>1.68</v>
+      </c>
+      <c r="BO99">
+        <v>2.72</v>
+      </c>
+      <c r="BP99">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7326994</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45410.125</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>86</v>
+      </c>
+      <c r="H100" t="s">
+        <v>84</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>158</v>
+      </c>
+      <c r="P100" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q100">
+        <v>3.6</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>3.4</v>
+      </c>
+      <c r="T100">
+        <v>1.5</v>
+      </c>
+      <c r="U100">
+        <v>2.5</v>
+      </c>
+      <c r="V100">
+        <v>3.5</v>
+      </c>
+      <c r="W100">
+        <v>1.29</v>
+      </c>
+      <c r="X100">
+        <v>11</v>
+      </c>
+      <c r="Y100">
+        <v>1.05</v>
+      </c>
+      <c r="Z100">
+        <v>2.63</v>
+      </c>
+      <c r="AA100">
+        <v>1.83</v>
+      </c>
+      <c r="AB100">
+        <v>5.42</v>
+      </c>
+      <c r="AC100">
+        <v>1.08</v>
+      </c>
+      <c r="AD100">
+        <v>7.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.45</v>
+      </c>
+      <c r="AF100">
+        <v>2.65</v>
+      </c>
+      <c r="AG100">
+        <v>2.25</v>
+      </c>
+      <c r="AH100">
+        <v>1.53</v>
+      </c>
+      <c r="AI100">
+        <v>2</v>
+      </c>
+      <c r="AJ100">
+        <v>1.75</v>
+      </c>
+      <c r="AK100">
+        <v>1.5</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.42</v>
+      </c>
+      <c r="AN100">
+        <v>2.5</v>
+      </c>
+      <c r="AO100">
+        <v>0.6</v>
+      </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
+        <v>1</v>
+      </c>
+      <c r="AR100">
+        <v>1.81</v>
+      </c>
+      <c r="AS100">
+        <v>1.3</v>
+      </c>
+      <c r="AT100">
+        <v>3.11</v>
+      </c>
+      <c r="AU100">
+        <v>4</v>
+      </c>
+      <c r="AV100">
+        <v>5</v>
+      </c>
+      <c r="AW100">
+        <v>3</v>
+      </c>
+      <c r="AX100">
+        <v>5</v>
+      </c>
+      <c r="AY100">
+        <v>7</v>
+      </c>
+      <c r="AZ100">
+        <v>10</v>
+      </c>
+      <c r="BA100">
+        <v>6</v>
+      </c>
+      <c r="BB100">
+        <v>4</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
+        <v>1.8</v>
+      </c>
+      <c r="BE100">
+        <v>8</v>
+      </c>
+      <c r="BF100">
+        <v>2.3</v>
+      </c>
+      <c r="BG100">
+        <v>1.22</v>
+      </c>
+      <c r="BH100">
+        <v>4</v>
+      </c>
+      <c r="BI100">
+        <v>1.34</v>
+      </c>
+      <c r="BJ100">
+        <v>2.88</v>
+      </c>
+      <c r="BK100">
+        <v>1.88</v>
+      </c>
+      <c r="BL100">
+        <v>1.92</v>
+      </c>
+      <c r="BM100">
+        <v>2.06</v>
+      </c>
+      <c r="BN100">
+        <v>1.71</v>
+      </c>
+      <c r="BO100">
+        <v>2.65</v>
+      </c>
+      <c r="BP100">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>['65', '74']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
   <si>
     <t>['14']</t>
@@ -21064,7 +21067,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21270,7 +21273,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21476,7 +21479,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
